--- a/Raspisanie-FIT-ochnaya-f.o-23_24-vesenniy-sem.-MAY.xlsx
+++ b/Raspisanie-FIT-ochnaya-f.o-23_24-vesenniy-sem.-MAY.xlsx
@@ -11,6 +11,8 @@
     <sheet name="1 курс СПО" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2 курс " sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2 курс СПО" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3 курс СПО" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="4 курс" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,7 +25,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="m/dd/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,6 +129,12 @@
       <charset val="204"/>
       <color rgb="00000000"/>
       <sz val="20"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="5">
@@ -727,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
@@ -1040,6 +1048,90 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
@@ -2153,7 +2245,11 @@
           <t>Алгоритмизация и программирование (СПЗ)</t>
         </is>
       </c>
-      <c r="E68" s="36" t="inlineStr"/>
+      <c r="E68" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Операционные системы (СПЗ) </t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="30" t="n"/>
@@ -2164,7 +2260,11 @@
           <t>ст.пр Киселев Ф.В., ауд. 507</t>
         </is>
       </c>
-      <c r="E69" s="32" t="inlineStr"/>
+      <c r="E69" s="32" t="inlineStr">
+        <is>
+          <t>Пьянкова Л.М., ауд. 509</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
       <c r="A70" s="30" t="n"/>
@@ -2179,7 +2279,11 @@
           <t>Алгоритмизация и программирование (СПЗ)</t>
         </is>
       </c>
-      <c r="E70" s="36" t="inlineStr"/>
+      <c r="E70" s="37" t="inlineStr">
+        <is>
+          <t>Операционные системы (СПЗ)</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="30" t="n"/>
@@ -2190,7 +2294,11 @@
           <t>ст.пр Киселев Ф.В., ауд. 507</t>
         </is>
       </c>
-      <c r="E71" s="32" t="inlineStr"/>
+      <c r="E71" s="32" t="inlineStr">
+        <is>
+          <t>Пьянкова Л.М., ауд. 509</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="30" t="n"/>
@@ -3197,22 +3305,14 @@
         </is>
       </c>
       <c r="D158" s="36" t="inlineStr"/>
-      <c r="E158" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Операционные системы (СПЗ) </t>
-        </is>
-      </c>
+      <c r="E158" s="37" t="inlineStr"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="30" t="n"/>
       <c r="B159" s="30" t="n"/>
       <c r="C159" s="42" t="n"/>
       <c r="D159" s="32" t="inlineStr"/>
-      <c r="E159" s="32" t="inlineStr">
-        <is>
-          <t>Пьянкова Л.М., ауд. 505</t>
-        </is>
-      </c>
+      <c r="E159" s="32" t="inlineStr"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="30" t="n"/>
@@ -3223,22 +3323,14 @@
         </is>
       </c>
       <c r="D160" s="36" t="inlineStr"/>
-      <c r="E160" s="37" t="inlineStr">
-        <is>
-          <t>Операционные системы (СПЗ)</t>
-        </is>
-      </c>
+      <c r="E160" s="37" t="inlineStr"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="30" t="n"/>
       <c r="B161" s="30" t="n"/>
       <c r="C161" s="42" t="n"/>
       <c r="D161" s="32" t="inlineStr"/>
-      <c r="E161" s="32" t="inlineStr">
-        <is>
-          <t>Пьянкова Л.М., ауд. 505</t>
-        </is>
-      </c>
+      <c r="E161" s="32" t="inlineStr"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="30" t="n"/>
@@ -6888,14 +6980,22 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D74" s="37" t="inlineStr"/>
+      <c r="D74" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Операционные системы (СПЗ) </t>
+        </is>
+      </c>
       <c r="E74" s="2" t="inlineStr"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="30" t="n"/>
       <c r="B75" s="30" t="n"/>
       <c r="C75" s="42" t="n"/>
-      <c r="D75" s="32" t="inlineStr"/>
+      <c r="D75" s="32" t="inlineStr">
+        <is>
+          <t>Пьянкова Л.М., ауд. 509</t>
+        </is>
+      </c>
       <c r="E75" s="2" t="inlineStr"/>
     </row>
     <row r="76" ht="20.25" customHeight="1">
@@ -6906,14 +7006,22 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D76" s="36" t="inlineStr"/>
+      <c r="D76" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Операционные системы (СПЗ) </t>
+        </is>
+      </c>
       <c r="E76" s="2" t="inlineStr"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="30" t="n"/>
       <c r="B77" s="30" t="n"/>
       <c r="C77" s="42" t="n"/>
-      <c r="D77" s="32" t="inlineStr"/>
+      <c r="D77" s="32" t="inlineStr">
+        <is>
+          <t>Пьянкова Л.М., ауд. 509</t>
+        </is>
+      </c>
       <c r="E77" s="2" t="inlineStr"/>
     </row>
     <row r="78" ht="21.75" customHeight="1">
@@ -7870,22 +7978,14 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D164" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Операционные системы (СПЗ) </t>
-        </is>
-      </c>
+      <c r="D164" s="37" t="inlineStr"/>
       <c r="E164" s="2" t="inlineStr"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="30" t="n"/>
       <c r="B165" s="30" t="n"/>
       <c r="C165" s="42" t="n"/>
-      <c r="D165" s="32" t="inlineStr">
-        <is>
-          <t>Пьянкова Л.М., ауд. 505</t>
-        </is>
-      </c>
+      <c r="D165" s="32" t="inlineStr"/>
       <c r="E165" s="2" t="inlineStr"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
@@ -7896,22 +7996,14 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D166" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Операционные системы (СПЗ) </t>
-        </is>
-      </c>
+      <c r="D166" s="37" t="inlineStr"/>
       <c r="E166" s="2" t="inlineStr"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="30" t="n"/>
       <c r="B167" s="30" t="n"/>
       <c r="C167" s="42" t="n"/>
-      <c r="D167" s="32" t="inlineStr">
-        <is>
-          <t>Пьянкова Л.М., ауд. 505</t>
-        </is>
-      </c>
+      <c r="D167" s="32" t="inlineStr"/>
       <c r="E167" s="2" t="inlineStr"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
@@ -19298,4 +19390,764 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5.42578125" customWidth="1" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" min="2" max="2"/>
+    <col width="10.85546875" customWidth="1" min="3" max="3"/>
+    <col width="61.7109375" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr"/>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    УТВЕРЖДАЮ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr"/>
+      <c r="D8" s="82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                  Проректор по учебной работе </t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="82" t="inlineStr">
+        <is>
+          <t>Мансуров Р.Е.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="83" t="inlineStr">
+        <is>
+          <t>"25 "  августа 2023 г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Выписка из расписания</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>на весенний семестр 2023/24 учебного года</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Факультет информационных технологий</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="10" t="inlineStr"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Форма обучения: очная </t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="84" t="inlineStr">
+        <is>
+          <t>3 курс СПО</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="14" t="inlineStr">
+        <is>
+          <t>День недели</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C15" s="55" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="D15" s="85" t="inlineStr">
+        <is>
+          <t>15 неделя</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="18" t="n"/>
+      <c r="D16" s="20" t="inlineStr">
+        <is>
+          <t>о.ИДс 23.1/Б3-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>направление</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="86" t="inlineStr">
+        <is>
+          <t>Пи</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A18" s="21" t="inlineStr">
+        <is>
+          <t>чел.</t>
+        </is>
+      </c>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="56" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>пятница</t>
+        </is>
+      </c>
+      <c r="B19" s="26" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C19" s="40" t="inlineStr">
+        <is>
+          <t>8:20-9:50</t>
+        </is>
+      </c>
+      <c r="D19" s="87" t="inlineStr"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="30" t="n"/>
+      <c r="B20" s="30" t="n"/>
+      <c r="C20" s="42" t="n"/>
+      <c r="D20" s="88" t="inlineStr"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="30" t="n"/>
+      <c r="C21" s="44" t="inlineStr">
+        <is>
+          <t>10:00-11:30</t>
+        </is>
+      </c>
+      <c r="D21" s="89" t="inlineStr">
+        <is>
+          <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="30" t="n"/>
+      <c r="B22" s="30" t="n"/>
+      <c r="C22" s="42" t="n"/>
+      <c r="D22" s="90" t="inlineStr">
+        <is>
+          <t>декан Зайцев С.А.. ауд. 505</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="30" t="n"/>
+      <c r="C23" s="44" t="inlineStr">
+        <is>
+          <t>11:40-13:10</t>
+        </is>
+      </c>
+      <c r="D23" s="89" t="inlineStr"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="30" t="n"/>
+      <c r="C24" s="42" t="n"/>
+      <c r="D24" s="91" t="inlineStr"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="30" t="n"/>
+      <c r="B25" s="30" t="n"/>
+      <c r="C25" s="44" t="inlineStr">
+        <is>
+          <t>13:45-15:15</t>
+        </is>
+      </c>
+      <c r="D25" s="89" t="inlineStr"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="30" t="n"/>
+      <c r="B26" s="30" t="n"/>
+      <c r="C26" s="42" t="n"/>
+      <c r="D26" s="92" t="inlineStr"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="30" t="n"/>
+      <c r="C27" s="44" t="inlineStr">
+        <is>
+          <t>15:25-16:55</t>
+        </is>
+      </c>
+      <c r="D27" s="89" t="inlineStr"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="30" t="n"/>
+      <c r="C28" s="42" t="n"/>
+      <c r="D28" s="91" t="inlineStr"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="30" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>17:05-18:35</t>
+        </is>
+      </c>
+      <c r="D29" s="89" t="inlineStr"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="18" t="n"/>
+      <c r="B30" s="18" t="n"/>
+      <c r="C30" s="18" t="n"/>
+      <c r="D30" s="93" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5.28515625" customWidth="1" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" min="3" max="3"/>
+    <col width="39.140625" customWidth="1" min="4" max="4"/>
+    <col width="39.28515625" customWidth="1" min="5" max="5"/>
+    <col width="40.7109375" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="3" t="inlineStr"/>
+      <c r="E1" s="3" t="inlineStr"/>
+      <c r="F1" s="3" t="inlineStr"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="1" t="inlineStr"/>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    УТВЕРЖДАЮ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                  Проректор по учебной работе </t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Мансуров Р.Е.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>"25 "  августа 2023 г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Выписка из расписания</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>на весенний семестр 2023/24 учебного года</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Факультет информационных технологий</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="10" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr"/>
+      <c r="F13" s="94" t="inlineStr">
+        <is>
+          <t>4 курс</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>Форма обучения: очная</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="12" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr"/>
+      <c r="F14" s="7" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="14" t="inlineStr">
+        <is>
+          <t>День недели</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="C15" s="55" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="D15" s="95" t="inlineStr">
+        <is>
+          <t>15 неделя</t>
+        </is>
+      </c>
+      <c r="E15" s="22" t="n"/>
+      <c r="F15" s="17" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="18" t="n"/>
+      <c r="D16" s="20" t="inlineStr">
+        <is>
+          <t>ИД 23.1/Б1-20</t>
+        </is>
+      </c>
+      <c r="E16" s="20" t="inlineStr">
+        <is>
+          <t>ИД 23.1/Б2-20</t>
+        </is>
+      </c>
+      <c r="F16" s="20" t="inlineStr">
+        <is>
+          <t>ИД 23.2/Б2-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>направление</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="n"/>
+      <c r="C17" s="17" t="n"/>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>Пи</t>
+        </is>
+      </c>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Пи</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>Пи</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A18" s="21" t="inlineStr">
+        <is>
+          <t>чел.</t>
+        </is>
+      </c>
+      <c r="B18" s="22" t="n"/>
+      <c r="C18" s="17" t="n"/>
+      <c r="D18" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>понедельник</t>
+        </is>
+      </c>
+      <c r="B19" s="26" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C19" s="40" t="inlineStr">
+        <is>
+          <t>8:20-9:50</t>
+        </is>
+      </c>
+      <c r="D19" s="96" t="inlineStr"/>
+      <c r="E19" s="60" t="inlineStr"/>
+      <c r="F19" s="60" t="inlineStr"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="30" t="n"/>
+      <c r="B20" s="30" t="n"/>
+      <c r="C20" s="42" t="n"/>
+      <c r="D20" s="97" t="inlineStr"/>
+      <c r="E20" s="98" t="inlineStr"/>
+      <c r="F20" s="98" t="inlineStr"/>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="30" t="n"/>
+      <c r="C21" s="44" t="inlineStr">
+        <is>
+          <t>10:00-11:30</t>
+        </is>
+      </c>
+      <c r="D21" s="99" t="inlineStr">
+        <is>
+          <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
+        </is>
+      </c>
+      <c r="E21" s="89" t="inlineStr">
+        <is>
+          <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
+        </is>
+      </c>
+      <c r="F21" s="89" t="inlineStr">
+        <is>
+          <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="30" t="n"/>
+      <c r="B22" s="30" t="n"/>
+      <c r="C22" s="42" t="n"/>
+      <c r="D22" s="100" t="inlineStr">
+        <is>
+          <t>декан Зайцев С.А.. ауд. 505</t>
+        </is>
+      </c>
+      <c r="E22" s="90" t="inlineStr">
+        <is>
+          <t>ст.пр. Простомолотов А.С., ауд. 512</t>
+        </is>
+      </c>
+      <c r="F22" s="90" t="inlineStr">
+        <is>
+          <t>зав.каф. Сурина Е.Е., ауд. 520</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="30" t="n"/>
+      <c r="C23" s="44" t="inlineStr">
+        <is>
+          <t>11:40-13:10</t>
+        </is>
+      </c>
+      <c r="D23" s="99" t="inlineStr"/>
+      <c r="E23" s="91" t="inlineStr"/>
+      <c r="F23" s="49" t="inlineStr"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="30" t="n"/>
+      <c r="C24" s="42" t="n"/>
+      <c r="D24" s="100" t="inlineStr"/>
+      <c r="E24" s="90" t="inlineStr"/>
+      <c r="F24" s="90" t="inlineStr"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="30" t="n"/>
+      <c r="B25" s="30" t="n"/>
+      <c r="C25" s="44" t="inlineStr">
+        <is>
+          <t>13:45-15:15</t>
+        </is>
+      </c>
+      <c r="D25" s="101" t="inlineStr"/>
+      <c r="E25" s="91" t="inlineStr"/>
+      <c r="F25" s="91" t="inlineStr"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="30" t="n"/>
+      <c r="B26" s="30" t="n"/>
+      <c r="C26" s="42" t="n"/>
+      <c r="D26" s="100" t="inlineStr"/>
+      <c r="E26" s="90" t="inlineStr"/>
+      <c r="F26" s="90" t="inlineStr"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="30" t="n"/>
+      <c r="C27" s="44" t="inlineStr">
+        <is>
+          <t>15:25-16:55</t>
+        </is>
+      </c>
+      <c r="D27" s="101" t="inlineStr"/>
+      <c r="E27" s="91" t="inlineStr"/>
+      <c r="F27" s="91" t="inlineStr"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="30" t="n"/>
+      <c r="C28" s="42" t="n"/>
+      <c r="D28" s="100" t="inlineStr"/>
+      <c r="E28" s="90" t="inlineStr"/>
+      <c r="F28" s="90" t="inlineStr"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="30" t="n"/>
+      <c r="C29" s="45" t="inlineStr">
+        <is>
+          <t>17:05-18:35</t>
+        </is>
+      </c>
+      <c r="D29" s="101" t="inlineStr"/>
+      <c r="E29" s="57" t="inlineStr"/>
+      <c r="F29" s="57" t="inlineStr"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A30" s="18" t="n"/>
+      <c r="B30" s="18" t="n"/>
+      <c r="C30" s="18" t="n"/>
+      <c r="D30" s="102" t="inlineStr"/>
+      <c r="E30" s="93" t="inlineStr"/>
+      <c r="F30" s="93" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Raspisanie-FIT-ochnaya-f.o-23_24-vesenniy-sem.-MAY.xlsx
+++ b/Raspisanie-FIT-ochnaya-f.o-23_24-vesenniy-sem.-MAY.xlsx
@@ -25,7 +25,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="m/dd/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,6 +117,12 @@
       <charset val="204"/>
       <color rgb="00000000"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <color rgb="00FF0000"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -735,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
@@ -944,6 +950,18 @@
       <alignment horizontal="general" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -1012,7 +1030,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1046,7 +1064,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1078,7 +1096,7 @@
       <alignment horizontal="general" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1086,11 +1104,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1118,7 +1136,7 @@
       <alignment horizontal="general" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1126,7 +1144,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -2173,12 +2191,12 @@
       <c r="C63" s="42" t="n"/>
       <c r="D63" s="32" t="inlineStr">
         <is>
-          <t>ст.пр. Рязанцева Д.С., ауд. 310</t>
+          <t>ст.пр. Рязанцева Д.С., ауд. 314</t>
         </is>
       </c>
       <c r="E63" s="32" t="inlineStr">
         <is>
-          <t>ст.пр. Рязанцева Д.С., ауд. 310</t>
+          <t>ст.пр. Рязанцева Д.С., ауд. 314</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4111,7 @@
       <c r="C221" s="42" t="n"/>
       <c r="D221" s="32" t="inlineStr">
         <is>
-          <t>Киселев Ф.В., ауд. 507</t>
+          <t>Киселев Ф.В., ауд. 514</t>
         </is>
       </c>
       <c r="E221" s="32" t="inlineStr"/>
@@ -4119,7 +4137,7 @@
       <c r="C223" s="42" t="n"/>
       <c r="D223" s="32" t="inlineStr">
         <is>
-          <t>Киселев Ф.В., ауд. 507</t>
+          <t>Киселев Ф.В., ауд. 514</t>
         </is>
       </c>
       <c r="E223" s="32" t="inlineStr"/>
@@ -4132,7 +4150,11 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D224" s="36" t="inlineStr"/>
+      <c r="D224" s="36" t="inlineStr">
+        <is>
+          <t>Математика (СПЗ)</t>
+        </is>
+      </c>
       <c r="E224" s="37" t="inlineStr">
         <is>
           <t>Алгоритмизация и программирование (СПЗ)</t>
@@ -4143,10 +4165,14 @@
       <c r="A225" s="30" t="n"/>
       <c r="B225" s="30" t="n"/>
       <c r="C225" s="42" t="n"/>
-      <c r="D225" s="32" t="inlineStr"/>
+      <c r="D225" s="32" t="inlineStr">
+        <is>
+          <t>проф. Геворкян Э.А., ауд. 432</t>
+        </is>
+      </c>
       <c r="E225" s="32" t="inlineStr">
         <is>
-          <t>Киселев Ф.В., ауд. 507</t>
+          <t>Киселев Ф.В., ауд. 514</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4198,7 @@
       <c r="D227" s="32" t="inlineStr"/>
       <c r="E227" s="32" t="inlineStr">
         <is>
-          <t>Киселев Ф.В., ауд. 507</t>
+          <t>Киселев Ф.В., ауд. 514</t>
         </is>
       </c>
     </row>
@@ -4368,14 +4394,22 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D242" s="36" t="inlineStr"/>
+      <c r="D242" s="36" t="inlineStr">
+        <is>
+          <t>Математика (СПЗ)</t>
+        </is>
+      </c>
       <c r="E242" s="37" t="inlineStr"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="30" t="n"/>
       <c r="B243" s="30" t="n"/>
       <c r="C243" s="31" t="n"/>
-      <c r="D243" s="32" t="inlineStr"/>
+      <c r="D243" s="32" t="inlineStr">
+        <is>
+          <t>проф. Геворкян Э.А., ауд. 123</t>
+        </is>
+      </c>
       <c r="E243" s="32" t="inlineStr"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
@@ -4628,11 +4662,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D266" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Физическая культура и спорт (СПЗ) </t>
-        </is>
-      </c>
+      <c r="D266" s="37" t="inlineStr"/>
       <c r="E266" s="36" t="inlineStr">
         <is>
           <t>Основы концепции устойчивого развития (СПЗ)</t>
@@ -4643,11 +4673,7 @@
       <c r="A267" s="30" t="n"/>
       <c r="B267" s="30" t="n"/>
       <c r="C267" s="42" t="n"/>
-      <c r="D267" s="32" t="inlineStr">
-        <is>
-          <t>ст.пр. Пустовойтов Ю.Л., стадион</t>
-        </is>
-      </c>
+      <c r="D267" s="32" t="inlineStr"/>
       <c r="E267" s="32" t="inlineStr">
         <is>
           <t>ст.пр. Рязанцева Д.С., ауд. 314</t>
@@ -4754,14 +4780,22 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D274" s="37" t="inlineStr"/>
+      <c r="D274" s="36" t="inlineStr">
+        <is>
+          <t>Математика (СПЗ)</t>
+        </is>
+      </c>
       <c r="E274" s="36" t="inlineStr"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="30" t="n"/>
       <c r="B275" s="30" t="n"/>
       <c r="C275" s="42" t="n"/>
-      <c r="D275" s="32" t="inlineStr"/>
+      <c r="D275" s="32" t="inlineStr">
+        <is>
+          <t>проф. Геворкян Э.А., ауд. 432</t>
+        </is>
+      </c>
       <c r="E275" s="32" t="inlineStr"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
@@ -4902,7 +4936,11 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D288" s="37" t="inlineStr"/>
+      <c r="D288" s="36" t="inlineStr">
+        <is>
+          <t>Математика (СПЗ)</t>
+        </is>
+      </c>
       <c r="E288" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">Дискретная математика (СПЗ) </t>
@@ -4913,7 +4951,11 @@
       <c r="A289" s="30" t="n"/>
       <c r="B289" s="30" t="n"/>
       <c r="C289" s="42" t="n"/>
-      <c r="D289" s="32" t="inlineStr"/>
+      <c r="D289" s="32" t="inlineStr">
+        <is>
+          <t>проф. Геворкян Э.А., ауд. 123</t>
+        </is>
+      </c>
       <c r="E289" s="32" t="inlineStr">
         <is>
           <t>рук.обр.пр. Дее Е.А., ауд. 431</t>
@@ -5274,7 +5316,11 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D316" s="37" t="inlineStr"/>
+      <c r="D316" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Физическая культура и спорт (СПЗ) </t>
+        </is>
+      </c>
       <c r="E316" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve">Физическая культура и спорт (СПЗ) </t>
@@ -5285,7 +5331,11 @@
       <c r="A317" s="30" t="n"/>
       <c r="B317" s="30" t="n"/>
       <c r="C317" s="31" t="n"/>
-      <c r="D317" s="32" t="inlineStr"/>
+      <c r="D317" s="32" t="inlineStr">
+        <is>
+          <t>ст.пр. Пустовойтов Ю.Л., стадион</t>
+        </is>
+      </c>
       <c r="E317" s="32" t="inlineStr">
         <is>
           <t>ст.пр. Пустовойтов Ю.Л., стадион</t>
@@ -5488,11 +5538,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D332" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Иностранный язык (СПЗ) </t>
-        </is>
-      </c>
+      <c r="D332" s="55" t="inlineStr"/>
       <c r="E332" s="36" t="inlineStr">
         <is>
           <t>Физика (Лекция)</t>
@@ -5503,11 +5549,7 @@
       <c r="A333" s="30" t="n"/>
       <c r="B333" s="30" t="n"/>
       <c r="C333" s="42" t="n"/>
-      <c r="D333" s="32" t="inlineStr">
-        <is>
-          <t>ст.пр. Корнаухова П.И., ауд. 432</t>
-        </is>
-      </c>
+      <c r="D333" s="56" t="inlineStr"/>
       <c r="E333" s="32" t="inlineStr">
         <is>
           <t>ст.пр. Шабунаева А.Н., ауд. 314</t>
@@ -5522,22 +5564,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D334" s="37" t="inlineStr">
-        <is>
-          <t>Иностранный язык (СПЗ)</t>
-        </is>
-      </c>
+      <c r="D334" s="55" t="inlineStr"/>
       <c r="E334" s="36" t="inlineStr"/>
     </row>
     <row r="335" ht="13.5" customHeight="1" thickBot="1">
       <c r="A335" s="18" t="n"/>
       <c r="B335" s="18" t="n"/>
       <c r="C335" s="18" t="n"/>
-      <c r="D335" s="39" t="inlineStr">
-        <is>
-          <t>ст.пр. Корнаухова П.И., ауд. 432</t>
-        </is>
-      </c>
+      <c r="D335" s="57" t="inlineStr"/>
       <c r="E335" s="39" t="inlineStr"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
@@ -5709,11 +5743,7 @@
           <t xml:space="preserve">Менеджмент (Лекция) </t>
         </is>
       </c>
-      <c r="E352" s="37" t="inlineStr">
-        <is>
-          <t>Русский язык и культура речи (Лекция)</t>
-        </is>
-      </c>
+      <c r="E352" s="37" t="inlineStr"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="30" t="n"/>
@@ -5724,11 +5754,7 @@
           <t>ст.пр. Иноземцева Н.Н., ауд. 315</t>
         </is>
       </c>
-      <c r="E353" s="32" t="inlineStr">
-        <is>
-          <t>зам.зав.каф. Рюкина А.А., ауд. 314</t>
-        </is>
-      </c>
+      <c r="E353" s="32" t="inlineStr"/>
     </row>
     <row r="354" ht="25.5" customHeight="1">
       <c r="A354" s="30" t="n"/>
@@ -5772,7 +5798,11 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D356" s="36" t="inlineStr"/>
+      <c r="D356" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Иностранный язык (СПЗ) </t>
+        </is>
+      </c>
       <c r="E356" s="36" t="inlineStr">
         <is>
           <t>Математический анализ (СПЗ)</t>
@@ -5783,7 +5813,11 @@
       <c r="A357" s="30" t="n"/>
       <c r="B357" s="30" t="n"/>
       <c r="C357" s="42" t="n"/>
-      <c r="D357" s="32" t="inlineStr"/>
+      <c r="D357" s="32" t="inlineStr">
+        <is>
+          <t>ст.пр. Корнаухова П.И., ауд. 432</t>
+        </is>
+      </c>
       <c r="E357" s="32" t="inlineStr">
         <is>
           <t>проф. Геворкян Э.А., ауд. 123</t>
@@ -5798,14 +5832,22 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D358" s="36" t="inlineStr"/>
+      <c r="D358" s="37" t="inlineStr">
+        <is>
+          <t>Иностранный язык (СПЗ)</t>
+        </is>
+      </c>
       <c r="E358" s="36" t="inlineStr"/>
     </row>
     <row r="359" ht="13.5" customHeight="1" thickBot="1">
       <c r="A359" s="18" t="n"/>
       <c r="B359" s="18" t="n"/>
       <c r="C359" s="18" t="n"/>
-      <c r="D359" s="39" t="inlineStr"/>
+      <c r="D359" s="39" t="inlineStr">
+        <is>
+          <t>ст.пр. Корнаухова П.И., ауд. 432</t>
+        </is>
+      </c>
       <c r="E359" s="39" t="inlineStr"/>
     </row>
     <row r="360" ht="25.5" customHeight="1">
@@ -5853,7 +5895,11 @@
           <t>Алгоритмизация и программирование (СПЗ)</t>
         </is>
       </c>
-      <c r="E362" s="36" t="inlineStr"/>
+      <c r="E362" s="36" t="inlineStr">
+        <is>
+          <t>Математический анализ (СПЗ)</t>
+        </is>
+      </c>
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="30" t="n"/>
@@ -5864,7 +5910,11 @@
           <t>Киселев Ф.В., ауд. 507</t>
         </is>
       </c>
-      <c r="E363" s="32" t="inlineStr"/>
+      <c r="E363" s="32" t="inlineStr">
+        <is>
+          <t>проф. Геворкян Э.А., ауд. 123</t>
+        </is>
+      </c>
     </row>
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="30" t="n"/>
@@ -6407,7 +6457,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C18" s="55" t="inlineStr">
+      <c r="C18" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -6453,7 +6503,7 @@
       </c>
       <c r="B21" s="22" t="n"/>
       <c r="C21" s="17" t="n"/>
-      <c r="D21" s="56" t="n">
+      <c r="D21" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -6526,7 +6576,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D28" s="57" t="inlineStr"/>
+      <c r="D28" s="60" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -6562,14 +6612,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D32" s="58" t="inlineStr"/>
+      <c r="D32" s="61" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" thickBot="1">
       <c r="A33" s="18" t="n"/>
       <c r="B33" s="18" t="n"/>
       <c r="C33" s="18" t="n"/>
-      <c r="D33" s="59" t="inlineStr"/>
+      <c r="D33" s="62" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -6586,7 +6636,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D34" s="57" t="inlineStr"/>
+      <c r="D34" s="60" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -6622,7 +6672,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D38" s="57" t="inlineStr"/>
+      <c r="D38" s="60" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -6640,7 +6690,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D40" s="57" t="inlineStr"/>
+      <c r="D40" s="60" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -6658,7 +6708,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D42" s="57" t="inlineStr"/>
+      <c r="D42" s="60" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -6676,7 +6726,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D44" s="57" t="inlineStr"/>
+      <c r="D44" s="60" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" thickBot="1">
@@ -6700,7 +6750,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D46" s="60" t="inlineStr"/>
+      <c r="D46" s="63" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -6832,7 +6882,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D60" s="57" t="inlineStr"/>
+      <c r="D60" s="60" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -6850,7 +6900,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D62" s="57" t="inlineStr"/>
+      <c r="D62" s="60" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -6907,7 +6957,7 @@
       <c r="C67" s="42" t="n"/>
       <c r="D67" s="32" t="inlineStr">
         <is>
-          <t>ст.пр. Рязанцева Д.С., ауд. 310</t>
+          <t>ст.пр. Рязанцева Д.С., ауд. 314</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -6920,7 +6970,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D68" s="57" t="inlineStr"/>
+      <c r="D68" s="60" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
     </row>
     <row r="69" ht="13.5" customHeight="1" thickBot="1">
@@ -7090,14 +7140,14 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D82" s="61" t="inlineStr"/>
+      <c r="D82" s="64" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="30" t="n"/>
       <c r="B83" s="30" t="n"/>
       <c r="C83" s="42" t="n"/>
-      <c r="D83" s="62" t="inlineStr"/>
+      <c r="D83" s="65" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -7217,7 +7267,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C94" s="55" t="inlineStr">
+      <c r="C94" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -7263,7 +7313,7 @@
       </c>
       <c r="B97" s="22" t="n"/>
       <c r="C97" s="17" t="n"/>
-      <c r="D97" s="56" t="n">
+      <c r="D97" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
@@ -7282,7 +7332,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D98" s="57" t="inlineStr"/>
+      <c r="D98" s="60" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
@@ -7396,7 +7446,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D108" s="57" t="inlineStr"/>
+      <c r="D108" s="60" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
     </row>
     <row r="109" ht="13.5" customHeight="1" thickBot="1">
@@ -7420,7 +7470,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D110" s="60" t="inlineStr">
+      <c r="D110" s="63" t="inlineStr">
         <is>
           <t>Конфигурирование на платформе 1С:Предприятие (СПЗ)</t>
         </is>
@@ -7446,7 +7496,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D112" s="57" t="inlineStr">
+      <c r="D112" s="60" t="inlineStr">
         <is>
           <t>Конфигурирование на платформе 1С:Предприятие (СПЗ)</t>
         </is>
@@ -7472,7 +7522,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D114" s="57" t="inlineStr"/>
+      <c r="D114" s="60" t="inlineStr"/>
       <c r="E114" s="2" t="inlineStr"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
@@ -7490,7 +7540,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D116" s="57" t="inlineStr"/>
+      <c r="D116" s="60" t="inlineStr"/>
       <c r="E116" s="2" t="inlineStr"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
@@ -7508,7 +7558,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D118" s="57" t="inlineStr"/>
+      <c r="D118" s="60" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
@@ -7526,14 +7576,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D120" s="57" t="inlineStr"/>
+      <c r="D120" s="60" t="inlineStr"/>
       <c r="E120" s="2" t="inlineStr"/>
     </row>
     <row r="121" ht="13.5" customHeight="1" thickBot="1">
       <c r="A121" s="18" t="n"/>
       <c r="B121" s="18" t="n"/>
       <c r="C121" s="18" t="n"/>
-      <c r="D121" s="59" t="inlineStr"/>
+      <c r="D121" s="62" t="inlineStr"/>
       <c r="E121" s="2" t="inlineStr"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
@@ -7550,7 +7600,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D122" s="60" t="inlineStr"/>
+      <c r="D122" s="63" t="inlineStr"/>
       <c r="E122" s="2" t="inlineStr"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
@@ -7638,7 +7688,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D130" s="57" t="inlineStr">
+      <c r="D130" s="60" t="inlineStr">
         <is>
           <t>Программирование на платформе 1С:Предприятие (СПЗ)</t>
         </is>
@@ -7664,7 +7714,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D132" s="57" t="inlineStr">
+      <c r="D132" s="60" t="inlineStr">
         <is>
           <t xml:space="preserve">Программирование на платформе 1С:Предприятие (СПЗ) </t>
         </is>
@@ -7696,7 +7746,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D134" s="60" t="inlineStr"/>
+      <c r="D134" s="63" t="inlineStr"/>
       <c r="E134" s="2" t="inlineStr"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
@@ -7750,7 +7800,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D140" s="57" t="inlineStr"/>
+      <c r="D140" s="60" t="inlineStr"/>
       <c r="E140" s="2" t="inlineStr"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
@@ -7817,7 +7867,7 @@
       <c r="A147" s="30" t="n"/>
       <c r="B147" s="30" t="n"/>
       <c r="C147" s="42" t="n"/>
-      <c r="D147" s="63" t="inlineStr"/>
+      <c r="D147" s="66" t="inlineStr"/>
       <c r="E147" s="2" t="inlineStr"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
@@ -7931,7 +7981,7 @@
       <c r="A159" s="30" t="n"/>
       <c r="B159" s="30" t="n"/>
       <c r="C159" s="42" t="n"/>
-      <c r="D159" s="63" t="inlineStr"/>
+      <c r="D159" s="66" t="inlineStr"/>
       <c r="E159" s="2" t="inlineStr"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
@@ -8014,14 +8064,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D168" s="64" t="inlineStr"/>
+      <c r="D168" s="67" t="inlineStr"/>
       <c r="E168" s="2" t="inlineStr"/>
     </row>
     <row r="169" ht="13.5" customHeight="1" thickBot="1">
       <c r="A169" s="18" t="n"/>
       <c r="B169" s="18" t="n"/>
       <c r="C169" s="18" t="n"/>
-      <c r="D169" s="65" t="inlineStr"/>
+      <c r="D169" s="68" t="inlineStr"/>
       <c r="E169" s="2" t="inlineStr"/>
     </row>
     <row r="170" ht="15" customHeight="1" thickBot="1">
@@ -8035,7 +8085,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C170" s="55" t="inlineStr">
+      <c r="C170" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -8081,7 +8131,7 @@
       </c>
       <c r="B173" s="22" t="n"/>
       <c r="C173" s="17" t="n"/>
-      <c r="D173" s="56" t="n">
+      <c r="D173" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -8154,7 +8204,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D180" s="57" t="inlineStr"/>
+      <c r="D180" s="60" t="inlineStr"/>
       <c r="E180" s="2" t="inlineStr"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
@@ -8190,14 +8240,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D184" s="58" t="inlineStr"/>
+      <c r="D184" s="61" t="inlineStr"/>
       <c r="E184" s="2" t="inlineStr"/>
     </row>
     <row r="185" ht="13.5" customHeight="1" thickBot="1">
       <c r="A185" s="18" t="n"/>
       <c r="B185" s="18" t="n"/>
       <c r="C185" s="18" t="n"/>
-      <c r="D185" s="59" t="inlineStr"/>
+      <c r="D185" s="62" t="inlineStr"/>
       <c r="E185" s="2" t="inlineStr"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
@@ -8214,7 +8264,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D186" s="57" t="inlineStr"/>
+      <c r="D186" s="60" t="inlineStr"/>
       <c r="E186" s="2" t="inlineStr"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
@@ -8250,7 +8300,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D190" s="57" t="inlineStr"/>
+      <c r="D190" s="60" t="inlineStr"/>
       <c r="E190" s="2" t="inlineStr"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
@@ -8268,7 +8318,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D192" s="57" t="inlineStr"/>
+      <c r="D192" s="60" t="inlineStr"/>
       <c r="E192" s="2" t="inlineStr"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
@@ -8286,7 +8336,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D194" s="57" t="inlineStr"/>
+      <c r="D194" s="60" t="inlineStr"/>
       <c r="E194" s="2" t="inlineStr"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
@@ -8304,7 +8354,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D196" s="57" t="inlineStr"/>
+      <c r="D196" s="60" t="inlineStr"/>
       <c r="E196" s="2" t="inlineStr"/>
     </row>
     <row r="197" ht="13.5" customHeight="1" thickBot="1">
@@ -8328,7 +8378,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D198" s="60" t="inlineStr"/>
+      <c r="D198" s="63" t="inlineStr"/>
       <c r="E198" s="2" t="inlineStr"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
@@ -8484,7 +8534,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D212" s="57" t="inlineStr"/>
+      <c r="D212" s="60" t="inlineStr"/>
       <c r="E212" s="2" t="inlineStr"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
@@ -8502,7 +8552,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D214" s="57" t="inlineStr"/>
+      <c r="D214" s="60" t="inlineStr"/>
       <c r="E214" s="2" t="inlineStr"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
@@ -8564,7 +8614,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D220" s="57" t="inlineStr"/>
+      <c r="D220" s="60" t="inlineStr"/>
       <c r="E220" s="2" t="inlineStr"/>
     </row>
     <row r="221" ht="13.5" customHeight="1" thickBot="1">
@@ -8673,7 +8723,7 @@
       <c r="C231" s="42" t="n"/>
       <c r="D231" s="32" t="inlineStr">
         <is>
-          <t>Киселев Ф.В., ауд. 507</t>
+          <t>Киселев Ф.В., ауд. 514</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr"/>
@@ -8699,7 +8749,7 @@
       <c r="C233" s="18" t="n"/>
       <c r="D233" s="32" t="inlineStr">
         <is>
-          <t>Киселев Ф.В., ауд. 507</t>
+          <t>Киселев Ф.В., ауд. 514</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr"/>
@@ -8718,14 +8768,14 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D234" s="61" t="inlineStr"/>
+      <c r="D234" s="64" t="inlineStr"/>
       <c r="E234" s="2" t="inlineStr"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="30" t="n"/>
       <c r="B235" s="30" t="n"/>
       <c r="C235" s="42" t="n"/>
-      <c r="D235" s="62" t="inlineStr"/>
+      <c r="D235" s="65" t="inlineStr"/>
       <c r="E235" s="2" t="inlineStr"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
@@ -8736,14 +8786,14 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D236" s="66" t="inlineStr"/>
+      <c r="D236" s="69" t="inlineStr"/>
       <c r="E236" s="2" t="inlineStr"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="30" t="n"/>
       <c r="B237" s="30" t="n"/>
       <c r="C237" s="42" t="n"/>
-      <c r="D237" s="67" t="inlineStr"/>
+      <c r="D237" s="70" t="inlineStr"/>
       <c r="E237" s="2" t="inlineStr"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
@@ -8829,7 +8879,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C246" s="55" t="inlineStr">
+      <c r="C246" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -8875,7 +8925,7 @@
       </c>
       <c r="B249" s="22" t="n"/>
       <c r="C249" s="17" t="n"/>
-      <c r="D249" s="56" t="n">
+      <c r="D249" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E249" s="2" t="inlineStr"/>
@@ -8894,7 +8944,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D250" s="57" t="inlineStr"/>
+      <c r="D250" s="60" t="inlineStr"/>
       <c r="E250" s="2" t="inlineStr"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
@@ -9000,7 +9050,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D260" s="57" t="inlineStr"/>
+      <c r="D260" s="60" t="inlineStr"/>
       <c r="E260" s="2" t="inlineStr"/>
     </row>
     <row r="261" ht="13.5" customHeight="1" thickBot="1">
@@ -9024,7 +9074,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D262" s="60" t="inlineStr"/>
+      <c r="D262" s="63" t="inlineStr"/>
       <c r="E262" s="2" t="inlineStr"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
@@ -9068,7 +9118,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D266" s="57" t="inlineStr">
+      <c r="D266" s="60" t="inlineStr">
         <is>
           <t>Программирование на платформе 1С:Предприятие (Консультация)</t>
         </is>
@@ -9094,7 +9144,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D268" s="57" t="inlineStr"/>
+      <c r="D268" s="60" t="inlineStr"/>
       <c r="E268" s="2" t="inlineStr"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
@@ -9112,7 +9162,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D270" s="57" t="inlineStr"/>
+      <c r="D270" s="60" t="inlineStr"/>
       <c r="E270" s="2" t="inlineStr"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
@@ -9130,14 +9180,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D272" s="57" t="inlineStr"/>
+      <c r="D272" s="60" t="inlineStr"/>
       <c r="E272" s="2" t="inlineStr"/>
     </row>
     <row r="273" ht="13.5" customHeight="1" thickBot="1">
       <c r="A273" s="18" t="n"/>
       <c r="B273" s="18" t="n"/>
       <c r="C273" s="18" t="n"/>
-      <c r="D273" s="59" t="inlineStr"/>
+      <c r="D273" s="62" t="inlineStr"/>
       <c r="E273" s="2" t="inlineStr"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
@@ -9154,7 +9204,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D274" s="60" t="inlineStr"/>
+      <c r="D274" s="63" t="inlineStr"/>
       <c r="E274" s="2" t="inlineStr"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
@@ -9242,7 +9292,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D282" s="57" t="inlineStr">
+      <c r="D282" s="60" t="inlineStr">
         <is>
           <t>Программирование на платформе 1С:Предприятие (СПЗ)</t>
         </is>
@@ -9268,7 +9318,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D284" s="57" t="inlineStr">
+      <c r="D284" s="60" t="inlineStr">
         <is>
           <t xml:space="preserve">Программирование на платформе 1С:Предприятие (СПЗ) </t>
         </is>
@@ -9300,7 +9350,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D286" s="60" t="inlineStr"/>
+      <c r="D286" s="63" t="inlineStr"/>
       <c r="E286" s="2" t="inlineStr"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
@@ -9362,7 +9412,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D292" s="57" t="inlineStr"/>
+      <c r="D292" s="60" t="inlineStr"/>
       <c r="E292" s="2" t="inlineStr"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
@@ -9429,7 +9479,7 @@
       <c r="A299" s="30" t="n"/>
       <c r="B299" s="30" t="n"/>
       <c r="C299" s="42" t="n"/>
-      <c r="D299" s="63" t="inlineStr"/>
+      <c r="D299" s="66" t="inlineStr"/>
       <c r="E299" s="2" t="inlineStr"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
@@ -9575,7 +9625,7 @@
       <c r="A311" s="30" t="n"/>
       <c r="B311" s="30" t="n"/>
       <c r="C311" s="42" t="n"/>
-      <c r="D311" s="63" t="inlineStr"/>
+      <c r="D311" s="66" t="inlineStr"/>
       <c r="E311" s="2" t="inlineStr"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
@@ -9674,14 +9724,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D320" s="64" t="inlineStr"/>
+      <c r="D320" s="67" t="inlineStr"/>
       <c r="E320" s="2" t="inlineStr"/>
     </row>
     <row r="321" ht="13.5" customHeight="1" thickBot="1">
       <c r="A321" s="18" t="n"/>
       <c r="B321" s="18" t="n"/>
       <c r="C321" s="18" t="n"/>
-      <c r="D321" s="65" t="inlineStr"/>
+      <c r="D321" s="68" t="inlineStr"/>
       <c r="E321" s="2" t="inlineStr"/>
     </row>
     <row r="322" ht="15" customHeight="1" thickBot="1">
@@ -9695,7 +9745,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C322" s="55" t="inlineStr">
+      <c r="C322" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -9741,7 +9791,7 @@
       </c>
       <c r="B325" s="22" t="n"/>
       <c r="C325" s="17" t="n"/>
-      <c r="D325" s="56" t="n">
+      <c r="D325" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E325" s="2" t="inlineStr"/>
@@ -9822,7 +9872,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D332" s="57" t="inlineStr"/>
+      <c r="D332" s="60" t="inlineStr"/>
       <c r="E332" s="2" t="inlineStr"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
@@ -9858,14 +9908,14 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D336" s="58" t="inlineStr"/>
+      <c r="D336" s="61" t="inlineStr"/>
       <c r="E336" s="2" t="inlineStr"/>
     </row>
     <row r="337" ht="13.5" customHeight="1" thickBot="1">
       <c r="A337" s="18" t="n"/>
       <c r="B337" s="18" t="n"/>
       <c r="C337" s="18" t="n"/>
-      <c r="D337" s="59" t="inlineStr"/>
+      <c r="D337" s="62" t="inlineStr"/>
       <c r="E337" s="2" t="inlineStr"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
@@ -9882,7 +9932,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D338" s="57" t="inlineStr"/>
+      <c r="D338" s="60" t="inlineStr"/>
       <c r="E338" s="2" t="inlineStr"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
@@ -9918,7 +9968,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D342" s="57" t="inlineStr"/>
+      <c r="D342" s="60" t="inlineStr"/>
       <c r="E342" s="2" t="inlineStr"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
@@ -9936,7 +9986,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D344" s="57" t="inlineStr"/>
+      <c r="D344" s="60" t="inlineStr"/>
       <c r="E344" s="2" t="inlineStr"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
@@ -9954,7 +10004,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D346" s="57" t="inlineStr"/>
+      <c r="D346" s="60" t="inlineStr"/>
       <c r="E346" s="2" t="inlineStr"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
@@ -9972,7 +10022,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D348" s="57" t="inlineStr"/>
+      <c r="D348" s="60" t="inlineStr"/>
       <c r="E348" s="2" t="inlineStr"/>
     </row>
     <row r="349" ht="13.5" customHeight="1" thickBot="1">
@@ -9996,7 +10046,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D350" s="60" t="inlineStr"/>
+      <c r="D350" s="63" t="inlineStr"/>
       <c r="E350" s="2" t="inlineStr"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
@@ -10128,7 +10178,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D364" s="57" t="inlineStr"/>
+      <c r="D364" s="60" t="inlineStr"/>
       <c r="E364" s="2" t="inlineStr"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
@@ -10146,7 +10196,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D366" s="57" t="inlineStr"/>
+      <c r="D366" s="60" t="inlineStr"/>
       <c r="E366" s="2" t="inlineStr"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
@@ -10216,14 +10266,22 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D372" s="57" t="inlineStr"/>
+      <c r="D372" s="36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основы концепции устойчивого развития (СПЗ) </t>
+        </is>
+      </c>
       <c r="E372" s="2" t="inlineStr"/>
     </row>
     <row r="373" ht="13.5" customHeight="1" thickBot="1">
       <c r="A373" s="18" t="n"/>
       <c r="B373" s="18" t="n"/>
       <c r="C373" s="18" t="n"/>
-      <c r="D373" s="50" t="inlineStr"/>
+      <c r="D373" s="32" t="inlineStr">
+        <is>
+          <t>ст.пр. Рязанцева Д.С., ауд. 310</t>
+        </is>
+      </c>
       <c r="E373" s="2" t="inlineStr"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
@@ -10294,14 +10352,22 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D380" s="36" t="inlineStr"/>
+      <c r="D380" s="36" t="inlineStr">
+        <is>
+          <t>Математический анализ (СПЗ)</t>
+        </is>
+      </c>
       <c r="E380" s="2" t="inlineStr"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="30" t="n"/>
       <c r="B381" s="30" t="n"/>
       <c r="C381" s="42" t="n"/>
-      <c r="D381" s="32" t="inlineStr"/>
+      <c r="D381" s="32" t="inlineStr">
+        <is>
+          <t>проф. Геворкян Э.А., ауд. 123</t>
+        </is>
+      </c>
       <c r="E381" s="2" t="inlineStr"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
@@ -10894,8 +10960,8 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D20" s="60" t="inlineStr"/>
-      <c r="E20" s="60" t="inlineStr"/>
+      <c r="D20" s="63" t="inlineStr"/>
+      <c r="E20" s="63" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -10962,7 +11028,7 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="30" t="n"/>
       <c r="C27" s="31" t="n"/>
-      <c r="D27" s="68" t="inlineStr"/>
+      <c r="D27" s="71" t="inlineStr"/>
       <c r="E27" s="50" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
     </row>
@@ -10974,8 +11040,8 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D28" s="57" t="inlineStr"/>
-      <c r="E28" s="57" t="inlineStr"/>
+      <c r="D28" s="60" t="inlineStr"/>
+      <c r="E28" s="60" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -10994,16 +11060,16 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D30" s="57" t="inlineStr"/>
-      <c r="E30" s="57" t="inlineStr"/>
+      <c r="D30" s="60" t="inlineStr"/>
+      <c r="E30" s="60" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A31" s="18" t="n"/>
       <c r="B31" s="18" t="n"/>
       <c r="C31" s="19" t="n"/>
-      <c r="D31" s="59" t="inlineStr"/>
-      <c r="E31" s="59" t="inlineStr"/>
+      <c r="D31" s="62" t="inlineStr"/>
+      <c r="E31" s="62" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -11040,8 +11106,8 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D34" s="57" t="inlineStr"/>
-      <c r="E34" s="57" t="inlineStr"/>
+      <c r="D34" s="60" t="inlineStr"/>
+      <c r="E34" s="60" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -11060,8 +11126,8 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D36" s="57" t="inlineStr"/>
-      <c r="E36" s="57" t="inlineStr"/>
+      <c r="D36" s="60" t="inlineStr"/>
+      <c r="E36" s="60" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -11080,8 +11146,8 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D38" s="57" t="inlineStr"/>
-      <c r="E38" s="57" t="inlineStr"/>
+      <c r="D38" s="60" t="inlineStr"/>
+      <c r="E38" s="60" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -11100,8 +11166,8 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D40" s="57" t="inlineStr"/>
-      <c r="E40" s="57" t="inlineStr"/>
+      <c r="D40" s="60" t="inlineStr"/>
+      <c r="E40" s="60" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -11129,7 +11195,7 @@
       <c r="B43" s="18" t="n"/>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="39" t="inlineStr"/>
-      <c r="E43" s="69" t="inlineStr"/>
+      <c r="E43" s="72" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -11166,8 +11232,8 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D46" s="57" t="inlineStr"/>
-      <c r="E46" s="57" t="inlineStr"/>
+      <c r="D46" s="60" t="inlineStr"/>
+      <c r="E46" s="60" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -11186,7 +11252,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D48" s="57" t="inlineStr"/>
+      <c r="D48" s="60" t="inlineStr"/>
       <c r="E48" s="37" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
     </row>
@@ -11206,7 +11272,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D50" s="57" t="inlineStr"/>
+      <c r="D50" s="60" t="inlineStr"/>
       <c r="E50" s="37" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
     </row>
@@ -11227,7 +11293,7 @@
         </is>
       </c>
       <c r="D52" s="37" t="inlineStr"/>
-      <c r="E52" s="57" t="inlineStr"/>
+      <c r="E52" s="60" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -11247,7 +11313,7 @@
         </is>
       </c>
       <c r="D54" s="37" t="inlineStr"/>
-      <c r="E54" s="57" t="inlineStr"/>
+      <c r="E54" s="60" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
     </row>
     <row r="55" ht="13.5" customHeight="1" thickBot="1">
@@ -11272,8 +11338,8 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D56" s="60" t="inlineStr"/>
-      <c r="E56" s="70" t="inlineStr"/>
+      <c r="D56" s="63" t="inlineStr"/>
+      <c r="E56" s="73" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -11281,7 +11347,7 @@
       <c r="B57" s="30" t="n"/>
       <c r="C57" s="42" t="n"/>
       <c r="D57" s="50" t="inlineStr"/>
-      <c r="E57" s="71" t="inlineStr"/>
+      <c r="E57" s="74" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -11292,8 +11358,8 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D58" s="57" t="inlineStr"/>
-      <c r="E58" s="57" t="inlineStr"/>
+      <c r="D58" s="60" t="inlineStr"/>
+      <c r="E58" s="60" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -11312,8 +11378,8 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D60" s="57" t="inlineStr"/>
-      <c r="E60" s="57" t="inlineStr"/>
+      <c r="D60" s="60" t="inlineStr"/>
+      <c r="E60" s="60" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -11332,8 +11398,8 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D62" s="57" t="inlineStr"/>
-      <c r="E62" s="57" t="inlineStr"/>
+      <c r="D62" s="60" t="inlineStr"/>
+      <c r="E62" s="60" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -11352,8 +11418,8 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D64" s="57" t="inlineStr"/>
-      <c r="E64" s="57" t="inlineStr"/>
+      <c r="D64" s="60" t="inlineStr"/>
+      <c r="E64" s="60" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -11372,8 +11438,8 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D66" s="57" t="inlineStr"/>
-      <c r="E66" s="57" t="inlineStr"/>
+      <c r="D66" s="60" t="inlineStr"/>
+      <c r="E66" s="60" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
     </row>
     <row r="67" ht="13.5" customHeight="1" thickBot="1">
@@ -11398,7 +11464,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D68" s="60" t="inlineStr">
+      <c r="D68" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">Высокоуровневые методы программирования (СПЗ) </t>
         </is>
@@ -11434,7 +11500,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D70" s="57" t="inlineStr">
+      <c r="D70" s="60" t="inlineStr">
         <is>
           <t xml:space="preserve">Высокоуровневые методы программирования (СПЗ) </t>
         </is>
@@ -11475,7 +11541,7 @@
           <t>Иностранный язык (СПЗ)</t>
         </is>
       </c>
-      <c r="E72" s="57" t="inlineStr">
+      <c r="E72" s="60" t="inlineStr">
         <is>
           <t xml:space="preserve">Высокоуровневые методы программирования (СПЗ) </t>
         </is>
@@ -11511,7 +11577,7 @@
           <t>Иностранный язык (СПЗ)</t>
         </is>
       </c>
-      <c r="E74" s="57" t="inlineStr">
+      <c r="E74" s="60" t="inlineStr">
         <is>
           <t xml:space="preserve">Высокоуровневые методы программирования (СПЗ) </t>
         </is>
@@ -11562,7 +11628,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D78" s="57" t="inlineStr"/>
+      <c r="D78" s="60" t="inlineStr"/>
       <c r="E78" s="53" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
     </row>
@@ -11570,7 +11636,7 @@
       <c r="A79" s="18" t="n"/>
       <c r="B79" s="18" t="n"/>
       <c r="C79" s="18" t="n"/>
-      <c r="D79" s="59" t="inlineStr"/>
+      <c r="D79" s="62" t="inlineStr"/>
       <c r="E79" s="54" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
     </row>
@@ -11608,8 +11674,8 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D82" s="57" t="inlineStr"/>
-      <c r="E82" s="57" t="inlineStr"/>
+      <c r="D82" s="60" t="inlineStr"/>
+      <c r="E82" s="60" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -11629,7 +11695,7 @@
         </is>
       </c>
       <c r="D84" s="37" t="inlineStr"/>
-      <c r="E84" s="57" t="inlineStr"/>
+      <c r="E84" s="60" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -11649,7 +11715,7 @@
         </is>
       </c>
       <c r="D86" s="49" t="inlineStr"/>
-      <c r="E86" s="57" t="inlineStr"/>
+      <c r="E86" s="60" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -11668,8 +11734,8 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D88" s="57" t="inlineStr"/>
-      <c r="E88" s="57" t="inlineStr"/>
+      <c r="D88" s="60" t="inlineStr"/>
+      <c r="E88" s="60" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -11688,8 +11754,8 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D90" s="57" t="inlineStr"/>
-      <c r="E90" s="57" t="inlineStr"/>
+      <c r="D90" s="60" t="inlineStr"/>
+      <c r="E90" s="60" t="inlineStr"/>
       <c r="F90" s="2" t="inlineStr"/>
     </row>
     <row r="91" ht="13.5" customHeight="1" thickBot="1">
@@ -11790,19 +11856,19 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D96" s="72" t="inlineStr">
+      <c r="D96" s="75" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
       </c>
-      <c r="E96" s="73" t="n"/>
+      <c r="E96" s="76" t="n"/>
       <c r="F96" s="2" t="inlineStr"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="30" t="n"/>
       <c r="B97" s="30" t="n"/>
       <c r="C97" s="31" t="n"/>
-      <c r="D97" s="74" t="n"/>
+      <c r="D97" s="77" t="n"/>
       <c r="E97" s="7" t="n"/>
       <c r="F97" s="2" t="inlineStr"/>
     </row>
@@ -11814,7 +11880,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D98" s="74" t="n"/>
+      <c r="D98" s="77" t="n"/>
       <c r="E98" s="7" t="n"/>
       <c r="F98" s="2" t="inlineStr"/>
     </row>
@@ -11822,7 +11888,7 @@
       <c r="A99" s="30" t="n"/>
       <c r="B99" s="30" t="n"/>
       <c r="C99" s="31" t="n"/>
-      <c r="D99" s="74" t="n"/>
+      <c r="D99" s="77" t="n"/>
       <c r="E99" s="7" t="n"/>
       <c r="F99" s="2" t="inlineStr"/>
     </row>
@@ -11834,7 +11900,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D100" s="74" t="n"/>
+      <c r="D100" s="77" t="n"/>
       <c r="E100" s="7" t="n"/>
       <c r="F100" s="2" t="inlineStr"/>
     </row>
@@ -11842,7 +11908,7 @@
       <c r="A101" s="30" t="n"/>
       <c r="B101" s="30" t="n"/>
       <c r="C101" s="31" t="n"/>
-      <c r="D101" s="74" t="n"/>
+      <c r="D101" s="77" t="n"/>
       <c r="E101" s="7" t="n"/>
       <c r="F101" s="2" t="inlineStr"/>
     </row>
@@ -11854,7 +11920,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D102" s="74" t="n"/>
+      <c r="D102" s="77" t="n"/>
       <c r="E102" s="7" t="n"/>
       <c r="F102" s="2" t="inlineStr"/>
     </row>
@@ -11862,7 +11928,7 @@
       <c r="A103" s="30" t="n"/>
       <c r="B103" s="30" t="n"/>
       <c r="C103" s="31" t="n"/>
-      <c r="D103" s="74" t="n"/>
+      <c r="D103" s="77" t="n"/>
       <c r="E103" s="7" t="n"/>
       <c r="F103" s="2" t="inlineStr"/>
     </row>
@@ -11874,7 +11940,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D104" s="74" t="n"/>
+      <c r="D104" s="77" t="n"/>
       <c r="E104" s="7" t="n"/>
       <c r="F104" s="2" t="inlineStr"/>
     </row>
@@ -11882,7 +11948,7 @@
       <c r="A105" s="30" t="n"/>
       <c r="B105" s="30" t="n"/>
       <c r="C105" s="31" t="n"/>
-      <c r="D105" s="74" t="n"/>
+      <c r="D105" s="77" t="n"/>
       <c r="E105" s="7" t="n"/>
       <c r="F105" s="2" t="inlineStr"/>
     </row>
@@ -11894,7 +11960,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D106" s="74" t="n"/>
+      <c r="D106" s="77" t="n"/>
       <c r="E106" s="7" t="n"/>
       <c r="F106" s="2" t="inlineStr"/>
     </row>
@@ -11902,7 +11968,7 @@
       <c r="A107" s="18" t="n"/>
       <c r="B107" s="18" t="n"/>
       <c r="C107" s="19" t="n"/>
-      <c r="D107" s="74" t="n"/>
+      <c r="D107" s="77" t="n"/>
       <c r="E107" s="7" t="n"/>
       <c r="F107" s="2" t="inlineStr"/>
     </row>
@@ -11920,7 +11986,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D108" s="74" t="n"/>
+      <c r="D108" s="77" t="n"/>
       <c r="E108" s="7" t="n"/>
       <c r="F108" s="2" t="inlineStr"/>
     </row>
@@ -11928,7 +11994,7 @@
       <c r="A109" s="30" t="n"/>
       <c r="B109" s="30" t="n"/>
       <c r="C109" s="42" t="n"/>
-      <c r="D109" s="74" t="n"/>
+      <c r="D109" s="77" t="n"/>
       <c r="E109" s="7" t="n"/>
       <c r="F109" s="2" t="inlineStr"/>
     </row>
@@ -11940,7 +12006,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D110" s="74" t="n"/>
+      <c r="D110" s="77" t="n"/>
       <c r="E110" s="7" t="n"/>
       <c r="F110" s="2" t="inlineStr"/>
     </row>
@@ -11948,9 +12014,9 @@
       <c r="A111" s="30" t="n"/>
       <c r="B111" s="30" t="n"/>
       <c r="C111" s="42" t="n"/>
-      <c r="D111" s="74" t="n"/>
+      <c r="D111" s="77" t="n"/>
       <c r="E111" s="7" t="n"/>
-      <c r="F111" s="75" t="inlineStr"/>
+      <c r="F111" s="78" t="inlineStr"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="30" t="n"/>
@@ -11960,7 +12026,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D112" s="74" t="n"/>
+      <c r="D112" s="77" t="n"/>
       <c r="E112" s="7" t="n"/>
       <c r="F112" s="2" t="inlineStr"/>
     </row>
@@ -11968,7 +12034,7 @@
       <c r="A113" s="30" t="n"/>
       <c r="B113" s="30" t="n"/>
       <c r="C113" s="42" t="n"/>
-      <c r="D113" s="74" t="n"/>
+      <c r="D113" s="77" t="n"/>
       <c r="E113" s="7" t="n"/>
       <c r="F113" s="2" t="inlineStr"/>
     </row>
@@ -11980,7 +12046,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D114" s="74" t="n"/>
+      <c r="D114" s="77" t="n"/>
       <c r="E114" s="7" t="n"/>
       <c r="F114" s="2" t="inlineStr"/>
     </row>
@@ -11988,7 +12054,7 @@
       <c r="A115" s="30" t="n"/>
       <c r="B115" s="30" t="n"/>
       <c r="C115" s="42" t="n"/>
-      <c r="D115" s="74" t="n"/>
+      <c r="D115" s="77" t="n"/>
       <c r="E115" s="7" t="n"/>
       <c r="F115" s="2" t="inlineStr"/>
     </row>
@@ -12000,7 +12066,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D116" s="74" t="n"/>
+      <c r="D116" s="77" t="n"/>
       <c r="E116" s="7" t="n"/>
       <c r="F116" s="2" t="inlineStr"/>
     </row>
@@ -12008,7 +12074,7 @@
       <c r="A117" s="30" t="n"/>
       <c r="B117" s="30" t="n"/>
       <c r="C117" s="42" t="n"/>
-      <c r="D117" s="74" t="n"/>
+      <c r="D117" s="77" t="n"/>
       <c r="E117" s="7" t="n"/>
       <c r="F117" s="2" t="inlineStr"/>
     </row>
@@ -12020,7 +12086,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D118" s="74" t="n"/>
+      <c r="D118" s="77" t="n"/>
       <c r="E118" s="7" t="n"/>
       <c r="F118" s="2" t="inlineStr"/>
     </row>
@@ -12028,7 +12094,7 @@
       <c r="A119" s="18" t="n"/>
       <c r="B119" s="18" t="n"/>
       <c r="C119" s="18" t="n"/>
-      <c r="D119" s="74" t="n"/>
+      <c r="D119" s="77" t="n"/>
       <c r="E119" s="7" t="n"/>
       <c r="F119" s="2" t="inlineStr"/>
     </row>
@@ -12046,7 +12112,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D120" s="74" t="n"/>
+      <c r="D120" s="77" t="n"/>
       <c r="E120" s="7" t="n"/>
       <c r="F120" s="2" t="inlineStr"/>
     </row>
@@ -12054,7 +12120,7 @@
       <c r="A121" s="30" t="n"/>
       <c r="B121" s="30" t="n"/>
       <c r="C121" s="42" t="n"/>
-      <c r="D121" s="74" t="n"/>
+      <c r="D121" s="77" t="n"/>
       <c r="E121" s="7" t="n"/>
       <c r="F121" s="2" t="inlineStr"/>
     </row>
@@ -12066,7 +12132,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D122" s="74" t="n"/>
+      <c r="D122" s="77" t="n"/>
       <c r="E122" s="7" t="n"/>
       <c r="F122" s="2" t="inlineStr"/>
     </row>
@@ -12074,7 +12140,7 @@
       <c r="A123" s="30" t="n"/>
       <c r="B123" s="30" t="n"/>
       <c r="C123" s="42" t="n"/>
-      <c r="D123" s="74" t="n"/>
+      <c r="D123" s="77" t="n"/>
       <c r="E123" s="7" t="n"/>
       <c r="F123" s="2" t="inlineStr"/>
     </row>
@@ -12086,7 +12152,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D124" s="74" t="n"/>
+      <c r="D124" s="77" t="n"/>
       <c r="E124" s="7" t="n"/>
       <c r="F124" s="2" t="inlineStr"/>
     </row>
@@ -12094,7 +12160,7 @@
       <c r="A125" s="30" t="n"/>
       <c r="B125" s="30" t="n"/>
       <c r="C125" s="42" t="n"/>
-      <c r="D125" s="74" t="n"/>
+      <c r="D125" s="77" t="n"/>
       <c r="E125" s="7" t="n"/>
       <c r="F125" s="2" t="inlineStr"/>
     </row>
@@ -12106,7 +12172,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D126" s="74" t="n"/>
+      <c r="D126" s="77" t="n"/>
       <c r="E126" s="7" t="n"/>
       <c r="F126" s="2" t="inlineStr"/>
     </row>
@@ -12114,7 +12180,7 @@
       <c r="A127" s="30" t="n"/>
       <c r="B127" s="30" t="n"/>
       <c r="C127" s="42" t="n"/>
-      <c r="D127" s="74" t="n"/>
+      <c r="D127" s="77" t="n"/>
       <c r="E127" s="7" t="n"/>
       <c r="F127" s="2" t="inlineStr"/>
     </row>
@@ -12126,7 +12192,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D128" s="74" t="n"/>
+      <c r="D128" s="77" t="n"/>
       <c r="E128" s="7" t="n"/>
       <c r="F128" s="2" t="inlineStr"/>
     </row>
@@ -12134,7 +12200,7 @@
       <c r="A129" s="30" t="n"/>
       <c r="B129" s="30" t="n"/>
       <c r="C129" s="42" t="n"/>
-      <c r="D129" s="74" t="n"/>
+      <c r="D129" s="77" t="n"/>
       <c r="E129" s="7" t="n"/>
       <c r="F129" s="2" t="inlineStr"/>
     </row>
@@ -12146,7 +12212,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D130" s="74" t="n"/>
+      <c r="D130" s="77" t="n"/>
       <c r="E130" s="7" t="n"/>
       <c r="F130" s="2" t="inlineStr"/>
     </row>
@@ -12154,7 +12220,7 @@
       <c r="A131" s="18" t="n"/>
       <c r="B131" s="18" t="n"/>
       <c r="C131" s="18" t="n"/>
-      <c r="D131" s="74" t="n"/>
+      <c r="D131" s="77" t="n"/>
       <c r="E131" s="7" t="n"/>
       <c r="F131" s="2" t="inlineStr"/>
     </row>
@@ -12172,7 +12238,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D132" s="74" t="n"/>
+      <c r="D132" s="77" t="n"/>
       <c r="E132" s="7" t="n"/>
       <c r="F132" s="2" t="inlineStr"/>
     </row>
@@ -12180,7 +12246,7 @@
       <c r="A133" s="30" t="n"/>
       <c r="B133" s="30" t="n"/>
       <c r="C133" s="42" t="n"/>
-      <c r="D133" s="74" t="n"/>
+      <c r="D133" s="77" t="n"/>
       <c r="E133" s="7" t="n"/>
       <c r="F133" s="2" t="inlineStr"/>
     </row>
@@ -12192,7 +12258,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D134" s="74" t="n"/>
+      <c r="D134" s="77" t="n"/>
       <c r="E134" s="7" t="n"/>
       <c r="F134" s="2" t="inlineStr"/>
     </row>
@@ -12200,7 +12266,7 @@
       <c r="A135" s="30" t="n"/>
       <c r="B135" s="30" t="n"/>
       <c r="C135" s="42" t="n"/>
-      <c r="D135" s="74" t="n"/>
+      <c r="D135" s="77" t="n"/>
       <c r="E135" s="7" t="n"/>
       <c r="F135" s="2" t="inlineStr"/>
     </row>
@@ -12212,7 +12278,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D136" s="74" t="n"/>
+      <c r="D136" s="77" t="n"/>
       <c r="E136" s="7" t="n"/>
       <c r="F136" s="2" t="inlineStr"/>
     </row>
@@ -12220,7 +12286,7 @@
       <c r="A137" s="30" t="n"/>
       <c r="B137" s="30" t="n"/>
       <c r="C137" s="42" t="n"/>
-      <c r="D137" s="74" t="n"/>
+      <c r="D137" s="77" t="n"/>
       <c r="E137" s="7" t="n"/>
       <c r="F137" s="2" t="inlineStr"/>
     </row>
@@ -12232,7 +12298,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D138" s="74" t="n"/>
+      <c r="D138" s="77" t="n"/>
       <c r="E138" s="7" t="n"/>
       <c r="F138" s="2" t="inlineStr"/>
     </row>
@@ -12240,7 +12306,7 @@
       <c r="A139" s="30" t="n"/>
       <c r="B139" s="30" t="n"/>
       <c r="C139" s="42" t="n"/>
-      <c r="D139" s="74" t="n"/>
+      <c r="D139" s="77" t="n"/>
       <c r="E139" s="7" t="n"/>
       <c r="F139" s="2" t="inlineStr"/>
     </row>
@@ -12252,7 +12318,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D140" s="74" t="n"/>
+      <c r="D140" s="77" t="n"/>
       <c r="E140" s="7" t="n"/>
       <c r="F140" s="2" t="inlineStr"/>
     </row>
@@ -12260,7 +12326,7 @@
       <c r="A141" s="30" t="n"/>
       <c r="B141" s="30" t="n"/>
       <c r="C141" s="42" t="n"/>
-      <c r="D141" s="74" t="n"/>
+      <c r="D141" s="77" t="n"/>
       <c r="E141" s="7" t="n"/>
       <c r="F141" s="2" t="inlineStr"/>
     </row>
@@ -12272,7 +12338,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D142" s="74" t="n"/>
+      <c r="D142" s="77" t="n"/>
       <c r="E142" s="7" t="n"/>
       <c r="F142" s="2" t="inlineStr"/>
     </row>
@@ -12280,7 +12346,7 @@
       <c r="A143" s="18" t="n"/>
       <c r="B143" s="18" t="n"/>
       <c r="C143" s="18" t="n"/>
-      <c r="D143" s="74" t="n"/>
+      <c r="D143" s="77" t="n"/>
       <c r="E143" s="7" t="n"/>
       <c r="F143" s="2" t="inlineStr"/>
     </row>
@@ -12298,7 +12364,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D144" s="74" t="n"/>
+      <c r="D144" s="77" t="n"/>
       <c r="E144" s="7" t="n"/>
       <c r="F144" s="2" t="inlineStr"/>
     </row>
@@ -12306,7 +12372,7 @@
       <c r="A145" s="30" t="n"/>
       <c r="B145" s="30" t="n"/>
       <c r="C145" s="42" t="n"/>
-      <c r="D145" s="74" t="n"/>
+      <c r="D145" s="77" t="n"/>
       <c r="E145" s="7" t="n"/>
       <c r="F145" s="2" t="inlineStr"/>
     </row>
@@ -12318,7 +12384,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D146" s="74" t="n"/>
+      <c r="D146" s="77" t="n"/>
       <c r="E146" s="7" t="n"/>
       <c r="F146" s="2" t="inlineStr"/>
     </row>
@@ -12326,7 +12392,7 @@
       <c r="A147" s="30" t="n"/>
       <c r="B147" s="30" t="n"/>
       <c r="C147" s="42" t="n"/>
-      <c r="D147" s="74" t="n"/>
+      <c r="D147" s="77" t="n"/>
       <c r="E147" s="7" t="n"/>
       <c r="F147" s="2" t="inlineStr"/>
     </row>
@@ -12338,7 +12404,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D148" s="74" t="n"/>
+      <c r="D148" s="77" t="n"/>
       <c r="E148" s="7" t="n"/>
       <c r="F148" s="2" t="inlineStr"/>
     </row>
@@ -12346,7 +12412,7 @@
       <c r="A149" s="30" t="n"/>
       <c r="B149" s="30" t="n"/>
       <c r="C149" s="42" t="n"/>
-      <c r="D149" s="74" t="n"/>
+      <c r="D149" s="77" t="n"/>
       <c r="E149" s="7" t="n"/>
       <c r="F149" s="2" t="inlineStr"/>
     </row>
@@ -12358,7 +12424,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D150" s="74" t="n"/>
+      <c r="D150" s="77" t="n"/>
       <c r="E150" s="7" t="n"/>
       <c r="F150" s="2" t="inlineStr"/>
     </row>
@@ -12366,7 +12432,7 @@
       <c r="A151" s="30" t="n"/>
       <c r="B151" s="30" t="n"/>
       <c r="C151" s="42" t="n"/>
-      <c r="D151" s="74" t="n"/>
+      <c r="D151" s="77" t="n"/>
       <c r="E151" s="7" t="n"/>
       <c r="F151" s="2" t="inlineStr"/>
     </row>
@@ -12378,7 +12444,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D152" s="74" t="n"/>
+      <c r="D152" s="77" t="n"/>
       <c r="E152" s="7" t="n"/>
       <c r="F152" s="2" t="inlineStr"/>
     </row>
@@ -12386,7 +12452,7 @@
       <c r="A153" s="30" t="n"/>
       <c r="B153" s="30" t="n"/>
       <c r="C153" s="42" t="n"/>
-      <c r="D153" s="74" t="n"/>
+      <c r="D153" s="77" t="n"/>
       <c r="E153" s="7" t="n"/>
       <c r="F153" s="2" t="inlineStr"/>
     </row>
@@ -12398,7 +12464,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D154" s="74" t="n"/>
+      <c r="D154" s="77" t="n"/>
       <c r="E154" s="7" t="n"/>
       <c r="F154" s="2" t="inlineStr"/>
     </row>
@@ -12500,19 +12566,19 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D160" s="72" t="inlineStr">
+      <c r="D160" s="75" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
       </c>
-      <c r="E160" s="73" t="n"/>
+      <c r="E160" s="76" t="n"/>
       <c r="F160" s="2" t="inlineStr"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="30" t="n"/>
       <c r="B161" s="30" t="n"/>
       <c r="C161" s="31" t="n"/>
-      <c r="D161" s="74" t="n"/>
+      <c r="D161" s="77" t="n"/>
       <c r="E161" s="7" t="n"/>
       <c r="F161" s="2" t="inlineStr"/>
     </row>
@@ -12524,7 +12590,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D162" s="74" t="n"/>
+      <c r="D162" s="77" t="n"/>
       <c r="E162" s="7" t="n"/>
       <c r="F162" s="2" t="inlineStr"/>
     </row>
@@ -12532,7 +12598,7 @@
       <c r="A163" s="30" t="n"/>
       <c r="B163" s="30" t="n"/>
       <c r="C163" s="31" t="n"/>
-      <c r="D163" s="74" t="n"/>
+      <c r="D163" s="77" t="n"/>
       <c r="E163" s="7" t="n"/>
       <c r="F163" s="2" t="inlineStr"/>
     </row>
@@ -12544,7 +12610,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D164" s="74" t="n"/>
+      <c r="D164" s="77" t="n"/>
       <c r="E164" s="7" t="n"/>
       <c r="F164" s="2" t="inlineStr"/>
     </row>
@@ -12552,7 +12618,7 @@
       <c r="A165" s="30" t="n"/>
       <c r="B165" s="30" t="n"/>
       <c r="C165" s="31" t="n"/>
-      <c r="D165" s="74" t="n"/>
+      <c r="D165" s="77" t="n"/>
       <c r="E165" s="7" t="n"/>
       <c r="F165" s="2" t="inlineStr"/>
     </row>
@@ -12564,7 +12630,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D166" s="74" t="n"/>
+      <c r="D166" s="77" t="n"/>
       <c r="E166" s="7" t="n"/>
       <c r="F166" s="2" t="inlineStr"/>
     </row>
@@ -12572,7 +12638,7 @@
       <c r="A167" s="30" t="n"/>
       <c r="B167" s="30" t="n"/>
       <c r="C167" s="31" t="n"/>
-      <c r="D167" s="74" t="n"/>
+      <c r="D167" s="77" t="n"/>
       <c r="E167" s="7" t="n"/>
       <c r="F167" s="2" t="inlineStr"/>
     </row>
@@ -12584,7 +12650,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D168" s="74" t="n"/>
+      <c r="D168" s="77" t="n"/>
       <c r="E168" s="7" t="n"/>
       <c r="F168" s="2" t="inlineStr"/>
     </row>
@@ -12592,7 +12658,7 @@
       <c r="A169" s="30" t="n"/>
       <c r="B169" s="30" t="n"/>
       <c r="C169" s="31" t="n"/>
-      <c r="D169" s="74" t="n"/>
+      <c r="D169" s="77" t="n"/>
       <c r="E169" s="7" t="n"/>
       <c r="F169" s="2" t="inlineStr"/>
     </row>
@@ -12604,7 +12670,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D170" s="74" t="n"/>
+      <c r="D170" s="77" t="n"/>
       <c r="E170" s="7" t="n"/>
       <c r="F170" s="2" t="inlineStr"/>
     </row>
@@ -12612,7 +12678,7 @@
       <c r="A171" s="18" t="n"/>
       <c r="B171" s="18" t="n"/>
       <c r="C171" s="19" t="n"/>
-      <c r="D171" s="74" t="n"/>
+      <c r="D171" s="77" t="n"/>
       <c r="E171" s="7" t="n"/>
       <c r="F171" s="2" t="inlineStr"/>
     </row>
@@ -12630,7 +12696,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D172" s="74" t="n"/>
+      <c r="D172" s="77" t="n"/>
       <c r="E172" s="7" t="n"/>
       <c r="F172" s="2" t="inlineStr"/>
     </row>
@@ -12638,7 +12704,7 @@
       <c r="A173" s="30" t="n"/>
       <c r="B173" s="30" t="n"/>
       <c r="C173" s="42" t="n"/>
-      <c r="D173" s="74" t="n"/>
+      <c r="D173" s="77" t="n"/>
       <c r="E173" s="7" t="n"/>
       <c r="F173" s="2" t="inlineStr"/>
     </row>
@@ -12650,7 +12716,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D174" s="74" t="n"/>
+      <c r="D174" s="77" t="n"/>
       <c r="E174" s="7" t="n"/>
       <c r="F174" s="2" t="inlineStr"/>
     </row>
@@ -12658,7 +12724,7 @@
       <c r="A175" s="30" t="n"/>
       <c r="B175" s="30" t="n"/>
       <c r="C175" s="42" t="n"/>
-      <c r="D175" s="74" t="n"/>
+      <c r="D175" s="77" t="n"/>
       <c r="E175" s="7" t="n"/>
       <c r="F175" s="2" t="inlineStr"/>
     </row>
@@ -12670,7 +12736,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D176" s="74" t="n"/>
+      <c r="D176" s="77" t="n"/>
       <c r="E176" s="7" t="n"/>
       <c r="F176" s="2" t="inlineStr"/>
     </row>
@@ -12678,7 +12744,7 @@
       <c r="A177" s="30" t="n"/>
       <c r="B177" s="30" t="n"/>
       <c r="C177" s="42" t="n"/>
-      <c r="D177" s="74" t="n"/>
+      <c r="D177" s="77" t="n"/>
       <c r="E177" s="7" t="n"/>
       <c r="F177" s="2" t="inlineStr"/>
     </row>
@@ -12690,7 +12756,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D178" s="74" t="n"/>
+      <c r="D178" s="77" t="n"/>
       <c r="E178" s="7" t="n"/>
       <c r="F178" s="2" t="inlineStr"/>
     </row>
@@ -12698,7 +12764,7 @@
       <c r="A179" s="30" t="n"/>
       <c r="B179" s="30" t="n"/>
       <c r="C179" s="42" t="n"/>
-      <c r="D179" s="74" t="n"/>
+      <c r="D179" s="77" t="n"/>
       <c r="E179" s="7" t="n"/>
       <c r="F179" s="2" t="inlineStr"/>
     </row>
@@ -12710,7 +12776,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D180" s="74" t="n"/>
+      <c r="D180" s="77" t="n"/>
       <c r="E180" s="7" t="n"/>
       <c r="F180" s="2" t="inlineStr"/>
     </row>
@@ -12718,7 +12784,7 @@
       <c r="A181" s="30" t="n"/>
       <c r="B181" s="30" t="n"/>
       <c r="C181" s="42" t="n"/>
-      <c r="D181" s="74" t="n"/>
+      <c r="D181" s="77" t="n"/>
       <c r="E181" s="7" t="n"/>
       <c r="F181" s="2" t="inlineStr"/>
     </row>
@@ -12730,7 +12796,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D182" s="74" t="n"/>
+      <c r="D182" s="77" t="n"/>
       <c r="E182" s="7" t="n"/>
       <c r="F182" s="2" t="inlineStr"/>
     </row>
@@ -12738,7 +12804,7 @@
       <c r="A183" s="18" t="n"/>
       <c r="B183" s="18" t="n"/>
       <c r="C183" s="18" t="n"/>
-      <c r="D183" s="74" t="n"/>
+      <c r="D183" s="77" t="n"/>
       <c r="E183" s="7" t="n"/>
       <c r="F183" s="2" t="inlineStr"/>
     </row>
@@ -12756,7 +12822,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D184" s="74" t="n"/>
+      <c r="D184" s="77" t="n"/>
       <c r="E184" s="7" t="n"/>
       <c r="F184" s="2" t="inlineStr"/>
     </row>
@@ -12764,7 +12830,7 @@
       <c r="A185" s="30" t="n"/>
       <c r="B185" s="30" t="n"/>
       <c r="C185" s="42" t="n"/>
-      <c r="D185" s="74" t="n"/>
+      <c r="D185" s="77" t="n"/>
       <c r="E185" s="7" t="n"/>
       <c r="F185" s="2" t="inlineStr"/>
     </row>
@@ -12776,7 +12842,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D186" s="74" t="n"/>
+      <c r="D186" s="77" t="n"/>
       <c r="E186" s="7" t="n"/>
       <c r="F186" s="2" t="inlineStr"/>
     </row>
@@ -12784,7 +12850,7 @@
       <c r="A187" s="30" t="n"/>
       <c r="B187" s="30" t="n"/>
       <c r="C187" s="42" t="n"/>
-      <c r="D187" s="74" t="n"/>
+      <c r="D187" s="77" t="n"/>
       <c r="E187" s="7" t="n"/>
       <c r="F187" s="2" t="inlineStr"/>
     </row>
@@ -12796,7 +12862,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D188" s="74" t="n"/>
+      <c r="D188" s="77" t="n"/>
       <c r="E188" s="7" t="n"/>
       <c r="F188" s="2" t="inlineStr"/>
     </row>
@@ -12804,7 +12870,7 @@
       <c r="A189" s="30" t="n"/>
       <c r="B189" s="30" t="n"/>
       <c r="C189" s="42" t="n"/>
-      <c r="D189" s="74" t="n"/>
+      <c r="D189" s="77" t="n"/>
       <c r="E189" s="7" t="n"/>
       <c r="F189" s="2" t="inlineStr"/>
     </row>
@@ -12816,7 +12882,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D190" s="74" t="n"/>
+      <c r="D190" s="77" t="n"/>
       <c r="E190" s="7" t="n"/>
       <c r="F190" s="2" t="inlineStr"/>
     </row>
@@ -12824,7 +12890,7 @@
       <c r="A191" s="30" t="n"/>
       <c r="B191" s="30" t="n"/>
       <c r="C191" s="42" t="n"/>
-      <c r="D191" s="74" t="n"/>
+      <c r="D191" s="77" t="n"/>
       <c r="E191" s="7" t="n"/>
       <c r="F191" s="2" t="inlineStr"/>
     </row>
@@ -12836,7 +12902,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D192" s="74" t="n"/>
+      <c r="D192" s="77" t="n"/>
       <c r="E192" s="7" t="n"/>
       <c r="F192" s="2" t="inlineStr"/>
     </row>
@@ -12844,7 +12910,7 @@
       <c r="A193" s="30" t="n"/>
       <c r="B193" s="30" t="n"/>
       <c r="C193" s="42" t="n"/>
-      <c r="D193" s="74" t="n"/>
+      <c r="D193" s="77" t="n"/>
       <c r="E193" s="7" t="n"/>
       <c r="F193" s="2" t="inlineStr"/>
     </row>
@@ -12856,7 +12922,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D194" s="74" t="n"/>
+      <c r="D194" s="77" t="n"/>
       <c r="E194" s="7" t="n"/>
       <c r="F194" s="2" t="inlineStr"/>
     </row>
@@ -12864,7 +12930,7 @@
       <c r="A195" s="18" t="n"/>
       <c r="B195" s="18" t="n"/>
       <c r="C195" s="18" t="n"/>
-      <c r="D195" s="74" t="n"/>
+      <c r="D195" s="77" t="n"/>
       <c r="E195" s="7" t="n"/>
       <c r="F195" s="2" t="inlineStr"/>
     </row>
@@ -12882,7 +12948,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D196" s="74" t="n"/>
+      <c r="D196" s="77" t="n"/>
       <c r="E196" s="7" t="n"/>
       <c r="F196" s="2" t="inlineStr"/>
     </row>
@@ -12890,7 +12956,7 @@
       <c r="A197" s="30" t="n"/>
       <c r="B197" s="30" t="n"/>
       <c r="C197" s="42" t="n"/>
-      <c r="D197" s="74" t="n"/>
+      <c r="D197" s="77" t="n"/>
       <c r="E197" s="7" t="n"/>
       <c r="F197" s="2" t="inlineStr"/>
     </row>
@@ -12902,7 +12968,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D198" s="74" t="n"/>
+      <c r="D198" s="77" t="n"/>
       <c r="E198" s="7" t="n"/>
       <c r="F198" s="2" t="inlineStr"/>
     </row>
@@ -12910,7 +12976,7 @@
       <c r="A199" s="30" t="n"/>
       <c r="B199" s="30" t="n"/>
       <c r="C199" s="42" t="n"/>
-      <c r="D199" s="74" t="n"/>
+      <c r="D199" s="77" t="n"/>
       <c r="E199" s="7" t="n"/>
       <c r="F199" s="2" t="inlineStr"/>
     </row>
@@ -12922,7 +12988,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D200" s="74" t="n"/>
+      <c r="D200" s="77" t="n"/>
       <c r="E200" s="7" t="n"/>
       <c r="F200" s="2" t="inlineStr"/>
     </row>
@@ -12930,7 +12996,7 @@
       <c r="A201" s="30" t="n"/>
       <c r="B201" s="30" t="n"/>
       <c r="C201" s="42" t="n"/>
-      <c r="D201" s="74" t="n"/>
+      <c r="D201" s="77" t="n"/>
       <c r="E201" s="7" t="n"/>
       <c r="F201" s="2" t="inlineStr"/>
     </row>
@@ -12942,7 +13008,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D202" s="74" t="n"/>
+      <c r="D202" s="77" t="n"/>
       <c r="E202" s="7" t="n"/>
       <c r="F202" s="2" t="inlineStr"/>
     </row>
@@ -12950,7 +13016,7 @@
       <c r="A203" s="30" t="n"/>
       <c r="B203" s="30" t="n"/>
       <c r="C203" s="42" t="n"/>
-      <c r="D203" s="74" t="n"/>
+      <c r="D203" s="77" t="n"/>
       <c r="E203" s="7" t="n"/>
       <c r="F203" s="2" t="inlineStr"/>
     </row>
@@ -12962,7 +13028,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D204" s="74" t="n"/>
+      <c r="D204" s="77" t="n"/>
       <c r="E204" s="7" t="n"/>
       <c r="F204" s="2" t="inlineStr"/>
     </row>
@@ -12970,7 +13036,7 @@
       <c r="A205" s="30" t="n"/>
       <c r="B205" s="30" t="n"/>
       <c r="C205" s="42" t="n"/>
-      <c r="D205" s="74" t="n"/>
+      <c r="D205" s="77" t="n"/>
       <c r="E205" s="7" t="n"/>
       <c r="F205" s="2" t="inlineStr"/>
     </row>
@@ -12982,7 +13048,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D206" s="74" t="n"/>
+      <c r="D206" s="77" t="n"/>
       <c r="E206" s="7" t="n"/>
       <c r="F206" s="2" t="inlineStr"/>
     </row>
@@ -12990,7 +13056,7 @@
       <c r="A207" s="18" t="n"/>
       <c r="B207" s="18" t="n"/>
       <c r="C207" s="18" t="n"/>
-      <c r="D207" s="74" t="n"/>
+      <c r="D207" s="77" t="n"/>
       <c r="E207" s="7" t="n"/>
       <c r="F207" s="2" t="inlineStr"/>
     </row>
@@ -13008,7 +13074,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D208" s="74" t="n"/>
+      <c r="D208" s="77" t="n"/>
       <c r="E208" s="7" t="n"/>
       <c r="F208" s="2" t="inlineStr"/>
     </row>
@@ -13016,7 +13082,7 @@
       <c r="A209" s="30" t="n"/>
       <c r="B209" s="30" t="n"/>
       <c r="C209" s="42" t="n"/>
-      <c r="D209" s="74" t="n"/>
+      <c r="D209" s="77" t="n"/>
       <c r="E209" s="7" t="n"/>
       <c r="F209" s="2" t="inlineStr"/>
     </row>
@@ -13028,7 +13094,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D210" s="74" t="n"/>
+      <c r="D210" s="77" t="n"/>
       <c r="E210" s="7" t="n"/>
       <c r="F210" s="2" t="inlineStr"/>
     </row>
@@ -13036,7 +13102,7 @@
       <c r="A211" s="30" t="n"/>
       <c r="B211" s="30" t="n"/>
       <c r="C211" s="42" t="n"/>
-      <c r="D211" s="74" t="n"/>
+      <c r="D211" s="77" t="n"/>
       <c r="E211" s="7" t="n"/>
       <c r="F211" s="2" t="inlineStr"/>
     </row>
@@ -13048,7 +13114,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D212" s="74" t="n"/>
+      <c r="D212" s="77" t="n"/>
       <c r="E212" s="7" t="n"/>
       <c r="F212" s="2" t="inlineStr"/>
     </row>
@@ -13056,7 +13122,7 @@
       <c r="A213" s="30" t="n"/>
       <c r="B213" s="30" t="n"/>
       <c r="C213" s="42" t="n"/>
-      <c r="D213" s="74" t="n"/>
+      <c r="D213" s="77" t="n"/>
       <c r="E213" s="7" t="n"/>
       <c r="F213" s="2" t="inlineStr"/>
     </row>
@@ -13068,7 +13134,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D214" s="74" t="n"/>
+      <c r="D214" s="77" t="n"/>
       <c r="E214" s="7" t="n"/>
       <c r="F214" s="2" t="inlineStr"/>
     </row>
@@ -13076,7 +13142,7 @@
       <c r="A215" s="30" t="n"/>
       <c r="B215" s="30" t="n"/>
       <c r="C215" s="42" t="n"/>
-      <c r="D215" s="74" t="n"/>
+      <c r="D215" s="77" t="n"/>
       <c r="E215" s="7" t="n"/>
       <c r="F215" s="2" t="inlineStr"/>
     </row>
@@ -13088,7 +13154,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D216" s="74" t="n"/>
+      <c r="D216" s="77" t="n"/>
       <c r="E216" s="7" t="n"/>
       <c r="F216" s="2" t="inlineStr"/>
     </row>
@@ -13096,7 +13162,7 @@
       <c r="A217" s="30" t="n"/>
       <c r="B217" s="30" t="n"/>
       <c r="C217" s="42" t="n"/>
-      <c r="D217" s="74" t="n"/>
+      <c r="D217" s="77" t="n"/>
       <c r="E217" s="7" t="n"/>
       <c r="F217" s="2" t="inlineStr"/>
     </row>
@@ -13108,7 +13174,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D218" s="74" t="n"/>
+      <c r="D218" s="77" t="n"/>
       <c r="E218" s="7" t="n"/>
       <c r="F218" s="2" t="inlineStr"/>
     </row>
@@ -13210,19 +13276,19 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D224" s="72" t="inlineStr">
+      <c r="D224" s="75" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
       </c>
-      <c r="E224" s="73" t="n"/>
+      <c r="E224" s="76" t="n"/>
       <c r="F224" s="2" t="inlineStr"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="30" t="n"/>
       <c r="B225" s="30" t="n"/>
       <c r="C225" s="31" t="n"/>
-      <c r="D225" s="74" t="n"/>
+      <c r="D225" s="77" t="n"/>
       <c r="E225" s="7" t="n"/>
       <c r="F225" s="2" t="inlineStr"/>
     </row>
@@ -13234,7 +13300,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D226" s="74" t="n"/>
+      <c r="D226" s="77" t="n"/>
       <c r="E226" s="7" t="n"/>
       <c r="F226" s="2" t="inlineStr"/>
     </row>
@@ -13242,7 +13308,7 @@
       <c r="A227" s="30" t="n"/>
       <c r="B227" s="30" t="n"/>
       <c r="C227" s="31" t="n"/>
-      <c r="D227" s="74" t="n"/>
+      <c r="D227" s="77" t="n"/>
       <c r="E227" s="7" t="n"/>
       <c r="F227" s="2" t="inlineStr"/>
     </row>
@@ -13254,7 +13320,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D228" s="74" t="n"/>
+      <c r="D228" s="77" t="n"/>
       <c r="E228" s="7" t="n"/>
       <c r="F228" s="2" t="inlineStr"/>
     </row>
@@ -13262,7 +13328,7 @@
       <c r="A229" s="30" t="n"/>
       <c r="B229" s="30" t="n"/>
       <c r="C229" s="31" t="n"/>
-      <c r="D229" s="74" t="n"/>
+      <c r="D229" s="77" t="n"/>
       <c r="E229" s="7" t="n"/>
       <c r="F229" s="2" t="inlineStr"/>
     </row>
@@ -13274,7 +13340,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D230" s="74" t="n"/>
+      <c r="D230" s="77" t="n"/>
       <c r="E230" s="7" t="n"/>
       <c r="F230" s="2" t="inlineStr"/>
     </row>
@@ -13282,7 +13348,7 @@
       <c r="A231" s="30" t="n"/>
       <c r="B231" s="30" t="n"/>
       <c r="C231" s="31" t="n"/>
-      <c r="D231" s="74" t="n"/>
+      <c r="D231" s="77" t="n"/>
       <c r="E231" s="7" t="n"/>
       <c r="F231" s="2" t="inlineStr"/>
     </row>
@@ -13294,7 +13360,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D232" s="74" t="n"/>
+      <c r="D232" s="77" t="n"/>
       <c r="E232" s="7" t="n"/>
       <c r="F232" s="2" t="inlineStr"/>
     </row>
@@ -13302,7 +13368,7 @@
       <c r="A233" s="30" t="n"/>
       <c r="B233" s="30" t="n"/>
       <c r="C233" s="31" t="n"/>
-      <c r="D233" s="74" t="n"/>
+      <c r="D233" s="77" t="n"/>
       <c r="E233" s="7" t="n"/>
       <c r="F233" s="2" t="inlineStr"/>
     </row>
@@ -13314,7 +13380,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D234" s="74" t="n"/>
+      <c r="D234" s="77" t="n"/>
       <c r="E234" s="7" t="n"/>
       <c r="F234" s="2" t="inlineStr"/>
     </row>
@@ -13322,7 +13388,7 @@
       <c r="A235" s="18" t="n"/>
       <c r="B235" s="18" t="n"/>
       <c r="C235" s="19" t="n"/>
-      <c r="D235" s="74" t="n"/>
+      <c r="D235" s="77" t="n"/>
       <c r="E235" s="7" t="n"/>
       <c r="F235" s="2" t="inlineStr"/>
     </row>
@@ -13340,7 +13406,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D236" s="74" t="n"/>
+      <c r="D236" s="77" t="n"/>
       <c r="E236" s="7" t="n"/>
       <c r="F236" s="2" t="inlineStr"/>
     </row>
@@ -13348,7 +13414,7 @@
       <c r="A237" s="30" t="n"/>
       <c r="B237" s="30" t="n"/>
       <c r="C237" s="42" t="n"/>
-      <c r="D237" s="74" t="n"/>
+      <c r="D237" s="77" t="n"/>
       <c r="E237" s="7" t="n"/>
       <c r="F237" s="2" t="inlineStr"/>
     </row>
@@ -13360,7 +13426,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D238" s="74" t="n"/>
+      <c r="D238" s="77" t="n"/>
       <c r="E238" s="7" t="n"/>
       <c r="F238" s="2" t="inlineStr"/>
     </row>
@@ -13368,7 +13434,7 @@
       <c r="A239" s="30" t="n"/>
       <c r="B239" s="30" t="n"/>
       <c r="C239" s="42" t="n"/>
-      <c r="D239" s="74" t="n"/>
+      <c r="D239" s="77" t="n"/>
       <c r="E239" s="7" t="n"/>
       <c r="F239" s="2" t="inlineStr"/>
     </row>
@@ -13380,7 +13446,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D240" s="74" t="n"/>
+      <c r="D240" s="77" t="n"/>
       <c r="E240" s="7" t="n"/>
       <c r="F240" s="2" t="inlineStr"/>
     </row>
@@ -13388,7 +13454,7 @@
       <c r="A241" s="30" t="n"/>
       <c r="B241" s="30" t="n"/>
       <c r="C241" s="42" t="n"/>
-      <c r="D241" s="74" t="n"/>
+      <c r="D241" s="77" t="n"/>
       <c r="E241" s="7" t="n"/>
       <c r="F241" s="2" t="inlineStr"/>
     </row>
@@ -13400,7 +13466,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D242" s="74" t="n"/>
+      <c r="D242" s="77" t="n"/>
       <c r="E242" s="7" t="n"/>
       <c r="F242" s="2" t="inlineStr"/>
     </row>
@@ -13408,7 +13474,7 @@
       <c r="A243" s="30" t="n"/>
       <c r="B243" s="30" t="n"/>
       <c r="C243" s="42" t="n"/>
-      <c r="D243" s="74" t="n"/>
+      <c r="D243" s="77" t="n"/>
       <c r="E243" s="7" t="n"/>
       <c r="F243" s="2" t="inlineStr"/>
     </row>
@@ -13420,7 +13486,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D244" s="74" t="n"/>
+      <c r="D244" s="77" t="n"/>
       <c r="E244" s="7" t="n"/>
       <c r="F244" s="2" t="inlineStr"/>
     </row>
@@ -13428,7 +13494,7 @@
       <c r="A245" s="30" t="n"/>
       <c r="B245" s="30" t="n"/>
       <c r="C245" s="42" t="n"/>
-      <c r="D245" s="74" t="n"/>
+      <c r="D245" s="77" t="n"/>
       <c r="E245" s="7" t="n"/>
       <c r="F245" s="2" t="inlineStr"/>
     </row>
@@ -13440,7 +13506,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D246" s="74" t="n"/>
+      <c r="D246" s="77" t="n"/>
       <c r="E246" s="7" t="n"/>
       <c r="F246" s="2" t="inlineStr"/>
     </row>
@@ -13448,7 +13514,7 @@
       <c r="A247" s="18" t="n"/>
       <c r="B247" s="18" t="n"/>
       <c r="C247" s="18" t="n"/>
-      <c r="D247" s="74" t="n"/>
+      <c r="D247" s="77" t="n"/>
       <c r="E247" s="7" t="n"/>
       <c r="F247" s="2" t="inlineStr"/>
     </row>
@@ -13466,7 +13532,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D248" s="74" t="n"/>
+      <c r="D248" s="77" t="n"/>
       <c r="E248" s="7" t="n"/>
       <c r="F248" s="2" t="inlineStr"/>
     </row>
@@ -13474,7 +13540,7 @@
       <c r="A249" s="30" t="n"/>
       <c r="B249" s="30" t="n"/>
       <c r="C249" s="42" t="n"/>
-      <c r="D249" s="74" t="n"/>
+      <c r="D249" s="77" t="n"/>
       <c r="E249" s="7" t="n"/>
       <c r="F249" s="2" t="inlineStr"/>
     </row>
@@ -13486,7 +13552,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D250" s="74" t="n"/>
+      <c r="D250" s="77" t="n"/>
       <c r="E250" s="7" t="n"/>
       <c r="F250" s="2" t="inlineStr"/>
     </row>
@@ -13494,7 +13560,7 @@
       <c r="A251" s="30" t="n"/>
       <c r="B251" s="30" t="n"/>
       <c r="C251" s="42" t="n"/>
-      <c r="D251" s="74" t="n"/>
+      <c r="D251" s="77" t="n"/>
       <c r="E251" s="7" t="n"/>
       <c r="F251" s="2" t="inlineStr"/>
     </row>
@@ -13506,7 +13572,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D252" s="74" t="n"/>
+      <c r="D252" s="77" t="n"/>
       <c r="E252" s="7" t="n"/>
       <c r="F252" s="2" t="inlineStr"/>
     </row>
@@ -13514,7 +13580,7 @@
       <c r="A253" s="30" t="n"/>
       <c r="B253" s="30" t="n"/>
       <c r="C253" s="42" t="n"/>
-      <c r="D253" s="74" t="n"/>
+      <c r="D253" s="77" t="n"/>
       <c r="E253" s="7" t="n"/>
       <c r="F253" s="2" t="inlineStr"/>
     </row>
@@ -13526,7 +13592,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D254" s="74" t="n"/>
+      <c r="D254" s="77" t="n"/>
       <c r="E254" s="7" t="n"/>
       <c r="F254" s="2" t="inlineStr"/>
     </row>
@@ -13534,7 +13600,7 @@
       <c r="A255" s="30" t="n"/>
       <c r="B255" s="30" t="n"/>
       <c r="C255" s="42" t="n"/>
-      <c r="D255" s="74" t="n"/>
+      <c r="D255" s="77" t="n"/>
       <c r="E255" s="7" t="n"/>
       <c r="F255" s="2" t="inlineStr"/>
     </row>
@@ -13546,7 +13612,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D256" s="74" t="n"/>
+      <c r="D256" s="77" t="n"/>
       <c r="E256" s="7" t="n"/>
       <c r="F256" s="2" t="inlineStr"/>
     </row>
@@ -13554,7 +13620,7 @@
       <c r="A257" s="30" t="n"/>
       <c r="B257" s="30" t="n"/>
       <c r="C257" s="42" t="n"/>
-      <c r="D257" s="74" t="n"/>
+      <c r="D257" s="77" t="n"/>
       <c r="E257" s="7" t="n"/>
       <c r="F257" s="2" t="inlineStr"/>
     </row>
@@ -13566,7 +13632,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D258" s="74" t="n"/>
+      <c r="D258" s="77" t="n"/>
       <c r="E258" s="7" t="n"/>
       <c r="F258" s="2" t="inlineStr"/>
     </row>
@@ -13574,7 +13640,7 @@
       <c r="A259" s="18" t="n"/>
       <c r="B259" s="18" t="n"/>
       <c r="C259" s="18" t="n"/>
-      <c r="D259" s="74" t="n"/>
+      <c r="D259" s="77" t="n"/>
       <c r="E259" s="7" t="n"/>
       <c r="F259" s="2" t="inlineStr"/>
     </row>
@@ -13592,7 +13658,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D260" s="74" t="n"/>
+      <c r="D260" s="77" t="n"/>
       <c r="E260" s="7" t="n"/>
       <c r="F260" s="2" t="inlineStr"/>
     </row>
@@ -13600,7 +13666,7 @@
       <c r="A261" s="30" t="n"/>
       <c r="B261" s="30" t="n"/>
       <c r="C261" s="42" t="n"/>
-      <c r="D261" s="74" t="n"/>
+      <c r="D261" s="77" t="n"/>
       <c r="E261" s="7" t="n"/>
       <c r="F261" s="2" t="inlineStr"/>
     </row>
@@ -13612,7 +13678,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D262" s="74" t="n"/>
+      <c r="D262" s="77" t="n"/>
       <c r="E262" s="7" t="n"/>
       <c r="F262" s="2" t="inlineStr"/>
     </row>
@@ -13620,7 +13686,7 @@
       <c r="A263" s="30" t="n"/>
       <c r="B263" s="30" t="n"/>
       <c r="C263" s="42" t="n"/>
-      <c r="D263" s="74" t="n"/>
+      <c r="D263" s="77" t="n"/>
       <c r="E263" s="7" t="n"/>
       <c r="F263" s="2" t="inlineStr"/>
     </row>
@@ -13632,7 +13698,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D264" s="74" t="n"/>
+      <c r="D264" s="77" t="n"/>
       <c r="E264" s="7" t="n"/>
       <c r="F264" s="2" t="inlineStr"/>
     </row>
@@ -13640,7 +13706,7 @@
       <c r="A265" s="30" t="n"/>
       <c r="B265" s="30" t="n"/>
       <c r="C265" s="42" t="n"/>
-      <c r="D265" s="74" t="n"/>
+      <c r="D265" s="77" t="n"/>
       <c r="E265" s="7" t="n"/>
       <c r="F265" s="2" t="inlineStr"/>
     </row>
@@ -13652,7 +13718,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D266" s="74" t="n"/>
+      <c r="D266" s="77" t="n"/>
       <c r="E266" s="7" t="n"/>
       <c r="F266" s="2" t="inlineStr"/>
     </row>
@@ -13660,7 +13726,7 @@
       <c r="A267" s="30" t="n"/>
       <c r="B267" s="30" t="n"/>
       <c r="C267" s="42" t="n"/>
-      <c r="D267" s="74" t="n"/>
+      <c r="D267" s="77" t="n"/>
       <c r="E267" s="7" t="n"/>
       <c r="F267" s="2" t="inlineStr"/>
     </row>
@@ -13672,7 +13738,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D268" s="74" t="n"/>
+      <c r="D268" s="77" t="n"/>
       <c r="E268" s="7" t="n"/>
       <c r="F268" s="2" t="inlineStr"/>
     </row>
@@ -13680,7 +13746,7 @@
       <c r="A269" s="30" t="n"/>
       <c r="B269" s="30" t="n"/>
       <c r="C269" s="42" t="n"/>
-      <c r="D269" s="74" t="n"/>
+      <c r="D269" s="77" t="n"/>
       <c r="E269" s="7" t="n"/>
       <c r="F269" s="2" t="inlineStr"/>
     </row>
@@ -13692,7 +13758,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D270" s="74" t="n"/>
+      <c r="D270" s="77" t="n"/>
       <c r="E270" s="7" t="n"/>
       <c r="F270" s="2" t="inlineStr"/>
     </row>
@@ -13700,7 +13766,7 @@
       <c r="A271" s="18" t="n"/>
       <c r="B271" s="18" t="n"/>
       <c r="C271" s="18" t="n"/>
-      <c r="D271" s="74" t="n"/>
+      <c r="D271" s="77" t="n"/>
       <c r="E271" s="7" t="n"/>
       <c r="F271" s="2" t="inlineStr"/>
     </row>
@@ -13718,7 +13784,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D272" s="74" t="n"/>
+      <c r="D272" s="77" t="n"/>
       <c r="E272" s="7" t="n"/>
       <c r="F272" s="2" t="inlineStr"/>
     </row>
@@ -13726,7 +13792,7 @@
       <c r="A273" s="30" t="n"/>
       <c r="B273" s="30" t="n"/>
       <c r="C273" s="42" t="n"/>
-      <c r="D273" s="74" t="n"/>
+      <c r="D273" s="77" t="n"/>
       <c r="E273" s="7" t="n"/>
       <c r="F273" s="2" t="inlineStr"/>
     </row>
@@ -13738,7 +13804,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D274" s="74" t="n"/>
+      <c r="D274" s="77" t="n"/>
       <c r="E274" s="7" t="n"/>
       <c r="F274" s="2" t="inlineStr"/>
     </row>
@@ -13746,7 +13812,7 @@
       <c r="A275" s="30" t="n"/>
       <c r="B275" s="30" t="n"/>
       <c r="C275" s="42" t="n"/>
-      <c r="D275" s="74" t="n"/>
+      <c r="D275" s="77" t="n"/>
       <c r="E275" s="7" t="n"/>
       <c r="F275" s="2" t="inlineStr"/>
     </row>
@@ -13758,7 +13824,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D276" s="74" t="n"/>
+      <c r="D276" s="77" t="n"/>
       <c r="E276" s="7" t="n"/>
       <c r="F276" s="2" t="inlineStr"/>
     </row>
@@ -13766,7 +13832,7 @@
       <c r="A277" s="30" t="n"/>
       <c r="B277" s="30" t="n"/>
       <c r="C277" s="42" t="n"/>
-      <c r="D277" s="74" t="n"/>
+      <c r="D277" s="77" t="n"/>
       <c r="E277" s="7" t="n"/>
       <c r="F277" s="2" t="inlineStr"/>
     </row>
@@ -13778,7 +13844,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D278" s="74" t="n"/>
+      <c r="D278" s="77" t="n"/>
       <c r="E278" s="7" t="n"/>
       <c r="F278" s="2" t="inlineStr"/>
     </row>
@@ -13786,7 +13852,7 @@
       <c r="A279" s="30" t="n"/>
       <c r="B279" s="30" t="n"/>
       <c r="C279" s="42" t="n"/>
-      <c r="D279" s="74" t="n"/>
+      <c r="D279" s="77" t="n"/>
       <c r="E279" s="7" t="n"/>
       <c r="F279" s="2" t="inlineStr"/>
     </row>
@@ -13798,7 +13864,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D280" s="74" t="n"/>
+      <c r="D280" s="77" t="n"/>
       <c r="E280" s="7" t="n"/>
       <c r="F280" s="2" t="inlineStr"/>
     </row>
@@ -13806,7 +13872,7 @@
       <c r="A281" s="30" t="n"/>
       <c r="B281" s="30" t="n"/>
       <c r="C281" s="42" t="n"/>
-      <c r="D281" s="74" t="n"/>
+      <c r="D281" s="77" t="n"/>
       <c r="E281" s="7" t="n"/>
       <c r="F281" s="2" t="inlineStr"/>
     </row>
@@ -13818,7 +13884,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D282" s="74" t="n"/>
+      <c r="D282" s="77" t="n"/>
       <c r="E282" s="7" t="n"/>
       <c r="F282" s="2" t="inlineStr"/>
     </row>
@@ -13920,19 +13986,19 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D288" s="72" t="inlineStr">
+      <c r="D288" s="75" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
       </c>
-      <c r="E288" s="73" t="n"/>
+      <c r="E288" s="76" t="n"/>
       <c r="F288" s="2" t="inlineStr"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="30" t="n"/>
       <c r="B289" s="30" t="n"/>
       <c r="C289" s="31" t="n"/>
-      <c r="D289" s="74" t="n"/>
+      <c r="D289" s="77" t="n"/>
       <c r="E289" s="7" t="n"/>
       <c r="F289" s="2" t="inlineStr"/>
     </row>
@@ -13944,7 +14010,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D290" s="74" t="n"/>
+      <c r="D290" s="77" t="n"/>
       <c r="E290" s="7" t="n"/>
       <c r="F290" s="2" t="inlineStr"/>
     </row>
@@ -13952,7 +14018,7 @@
       <c r="A291" s="30" t="n"/>
       <c r="B291" s="30" t="n"/>
       <c r="C291" s="31" t="n"/>
-      <c r="D291" s="74" t="n"/>
+      <c r="D291" s="77" t="n"/>
       <c r="E291" s="7" t="n"/>
       <c r="F291" s="2" t="inlineStr"/>
     </row>
@@ -13964,7 +14030,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D292" s="74" t="n"/>
+      <c r="D292" s="77" t="n"/>
       <c r="E292" s="7" t="n"/>
       <c r="F292" s="2" t="inlineStr"/>
     </row>
@@ -13972,7 +14038,7 @@
       <c r="A293" s="30" t="n"/>
       <c r="B293" s="30" t="n"/>
       <c r="C293" s="31" t="n"/>
-      <c r="D293" s="74" t="n"/>
+      <c r="D293" s="77" t="n"/>
       <c r="E293" s="7" t="n"/>
       <c r="F293" s="2" t="inlineStr"/>
     </row>
@@ -13984,7 +14050,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D294" s="74" t="n"/>
+      <c r="D294" s="77" t="n"/>
       <c r="E294" s="7" t="n"/>
       <c r="F294" s="2" t="inlineStr"/>
     </row>
@@ -13992,7 +14058,7 @@
       <c r="A295" s="30" t="n"/>
       <c r="B295" s="30" t="n"/>
       <c r="C295" s="31" t="n"/>
-      <c r="D295" s="74" t="n"/>
+      <c r="D295" s="77" t="n"/>
       <c r="E295" s="7" t="n"/>
       <c r="F295" s="2" t="inlineStr"/>
     </row>
@@ -14004,7 +14070,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D296" s="74" t="n"/>
+      <c r="D296" s="77" t="n"/>
       <c r="E296" s="7" t="n"/>
       <c r="F296" s="2" t="inlineStr"/>
     </row>
@@ -14012,7 +14078,7 @@
       <c r="A297" s="30" t="n"/>
       <c r="B297" s="30" t="n"/>
       <c r="C297" s="31" t="n"/>
-      <c r="D297" s="74" t="n"/>
+      <c r="D297" s="77" t="n"/>
       <c r="E297" s="7" t="n"/>
       <c r="F297" s="2" t="inlineStr"/>
     </row>
@@ -14024,7 +14090,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D298" s="74" t="n"/>
+      <c r="D298" s="77" t="n"/>
       <c r="E298" s="7" t="n"/>
       <c r="F298" s="2" t="inlineStr"/>
     </row>
@@ -14032,7 +14098,7 @@
       <c r="A299" s="18" t="n"/>
       <c r="B299" s="18" t="n"/>
       <c r="C299" s="19" t="n"/>
-      <c r="D299" s="74" t="n"/>
+      <c r="D299" s="77" t="n"/>
       <c r="E299" s="7" t="n"/>
       <c r="F299" s="2" t="inlineStr"/>
     </row>
@@ -14050,7 +14116,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D300" s="74" t="n"/>
+      <c r="D300" s="77" t="n"/>
       <c r="E300" s="7" t="n"/>
       <c r="F300" s="2" t="inlineStr"/>
     </row>
@@ -14058,7 +14124,7 @@
       <c r="A301" s="30" t="n"/>
       <c r="B301" s="30" t="n"/>
       <c r="C301" s="42" t="n"/>
-      <c r="D301" s="74" t="n"/>
+      <c r="D301" s="77" t="n"/>
       <c r="E301" s="7" t="n"/>
       <c r="F301" s="2" t="inlineStr"/>
     </row>
@@ -14070,7 +14136,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D302" s="74" t="n"/>
+      <c r="D302" s="77" t="n"/>
       <c r="E302" s="7" t="n"/>
       <c r="F302" s="2" t="inlineStr"/>
     </row>
@@ -14078,7 +14144,7 @@
       <c r="A303" s="30" t="n"/>
       <c r="B303" s="30" t="n"/>
       <c r="C303" s="42" t="n"/>
-      <c r="D303" s="74" t="n"/>
+      <c r="D303" s="77" t="n"/>
       <c r="E303" s="7" t="n"/>
       <c r="F303" s="2" t="inlineStr"/>
     </row>
@@ -14090,7 +14156,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D304" s="74" t="n"/>
+      <c r="D304" s="77" t="n"/>
       <c r="E304" s="7" t="n"/>
       <c r="F304" s="2" t="inlineStr"/>
     </row>
@@ -14098,7 +14164,7 @@
       <c r="A305" s="30" t="n"/>
       <c r="B305" s="30" t="n"/>
       <c r="C305" s="42" t="n"/>
-      <c r="D305" s="74" t="n"/>
+      <c r="D305" s="77" t="n"/>
       <c r="E305" s="7" t="n"/>
       <c r="F305" s="2" t="inlineStr"/>
     </row>
@@ -14110,7 +14176,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D306" s="74" t="n"/>
+      <c r="D306" s="77" t="n"/>
       <c r="E306" s="7" t="n"/>
       <c r="F306" s="2" t="inlineStr"/>
     </row>
@@ -14118,7 +14184,7 @@
       <c r="A307" s="30" t="n"/>
       <c r="B307" s="30" t="n"/>
       <c r="C307" s="42" t="n"/>
-      <c r="D307" s="74" t="n"/>
+      <c r="D307" s="77" t="n"/>
       <c r="E307" s="7" t="n"/>
       <c r="F307" s="2" t="inlineStr"/>
     </row>
@@ -14130,7 +14196,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D308" s="74" t="n"/>
+      <c r="D308" s="77" t="n"/>
       <c r="E308" s="7" t="n"/>
       <c r="F308" s="2" t="inlineStr"/>
     </row>
@@ -14138,7 +14204,7 @@
       <c r="A309" s="30" t="n"/>
       <c r="B309" s="30" t="n"/>
       <c r="C309" s="42" t="n"/>
-      <c r="D309" s="74" t="n"/>
+      <c r="D309" s="77" t="n"/>
       <c r="E309" s="7" t="n"/>
       <c r="F309" s="2" t="inlineStr"/>
     </row>
@@ -14150,7 +14216,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D310" s="74" t="n"/>
+      <c r="D310" s="77" t="n"/>
       <c r="E310" s="7" t="n"/>
       <c r="F310" s="2" t="inlineStr"/>
     </row>
@@ -14158,7 +14224,7 @@
       <c r="A311" s="18" t="n"/>
       <c r="B311" s="18" t="n"/>
       <c r="C311" s="18" t="n"/>
-      <c r="D311" s="74" t="n"/>
+      <c r="D311" s="77" t="n"/>
       <c r="E311" s="7" t="n"/>
       <c r="F311" s="2" t="inlineStr"/>
     </row>
@@ -14176,7 +14242,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D312" s="74" t="n"/>
+      <c r="D312" s="77" t="n"/>
       <c r="E312" s="7" t="n"/>
       <c r="F312" s="2" t="inlineStr"/>
     </row>
@@ -14184,7 +14250,7 @@
       <c r="A313" s="30" t="n"/>
       <c r="B313" s="30" t="n"/>
       <c r="C313" s="42" t="n"/>
-      <c r="D313" s="74" t="n"/>
+      <c r="D313" s="77" t="n"/>
       <c r="E313" s="7" t="n"/>
       <c r="F313" s="2" t="inlineStr"/>
     </row>
@@ -14196,7 +14262,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D314" s="74" t="n"/>
+      <c r="D314" s="77" t="n"/>
       <c r="E314" s="7" t="n"/>
       <c r="F314" s="2" t="inlineStr"/>
     </row>
@@ -14204,7 +14270,7 @@
       <c r="A315" s="30" t="n"/>
       <c r="B315" s="30" t="n"/>
       <c r="C315" s="42" t="n"/>
-      <c r="D315" s="74" t="n"/>
+      <c r="D315" s="77" t="n"/>
       <c r="E315" s="7" t="n"/>
       <c r="F315" s="2" t="inlineStr"/>
     </row>
@@ -14216,7 +14282,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D316" s="74" t="n"/>
+      <c r="D316" s="77" t="n"/>
       <c r="E316" s="7" t="n"/>
       <c r="F316" s="2" t="inlineStr"/>
     </row>
@@ -14224,7 +14290,7 @@
       <c r="A317" s="30" t="n"/>
       <c r="B317" s="30" t="n"/>
       <c r="C317" s="42" t="n"/>
-      <c r="D317" s="74" t="n"/>
+      <c r="D317" s="77" t="n"/>
       <c r="E317" s="7" t="n"/>
       <c r="F317" s="2" t="inlineStr"/>
     </row>
@@ -14236,7 +14302,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D318" s="74" t="n"/>
+      <c r="D318" s="77" t="n"/>
       <c r="E318" s="7" t="n"/>
       <c r="F318" s="2" t="inlineStr"/>
     </row>
@@ -14244,7 +14310,7 @@
       <c r="A319" s="30" t="n"/>
       <c r="B319" s="30" t="n"/>
       <c r="C319" s="42" t="n"/>
-      <c r="D319" s="74" t="n"/>
+      <c r="D319" s="77" t="n"/>
       <c r="E319" s="7" t="n"/>
       <c r="F319" s="2" t="inlineStr"/>
     </row>
@@ -14256,7 +14322,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D320" s="74" t="n"/>
+      <c r="D320" s="77" t="n"/>
       <c r="E320" s="7" t="n"/>
       <c r="F320" s="2" t="inlineStr"/>
     </row>
@@ -14264,7 +14330,7 @@
       <c r="A321" s="30" t="n"/>
       <c r="B321" s="30" t="n"/>
       <c r="C321" s="42" t="n"/>
-      <c r="D321" s="74" t="n"/>
+      <c r="D321" s="77" t="n"/>
       <c r="E321" s="7" t="n"/>
       <c r="F321" s="2" t="inlineStr"/>
     </row>
@@ -14276,7 +14342,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D322" s="74" t="n"/>
+      <c r="D322" s="77" t="n"/>
       <c r="E322" s="7" t="n"/>
       <c r="F322" s="2" t="inlineStr"/>
     </row>
@@ -14284,7 +14350,7 @@
       <c r="A323" s="18" t="n"/>
       <c r="B323" s="18" t="n"/>
       <c r="C323" s="18" t="n"/>
-      <c r="D323" s="74" t="n"/>
+      <c r="D323" s="77" t="n"/>
       <c r="E323" s="7" t="n"/>
       <c r="F323" s="2" t="inlineStr"/>
     </row>
@@ -14302,7 +14368,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D324" s="74" t="n"/>
+      <c r="D324" s="77" t="n"/>
       <c r="E324" s="7" t="n"/>
       <c r="F324" s="2" t="inlineStr"/>
     </row>
@@ -14310,7 +14376,7 @@
       <c r="A325" s="30" t="n"/>
       <c r="B325" s="30" t="n"/>
       <c r="C325" s="42" t="n"/>
-      <c r="D325" s="74" t="n"/>
+      <c r="D325" s="77" t="n"/>
       <c r="E325" s="7" t="n"/>
       <c r="F325" s="2" t="inlineStr"/>
     </row>
@@ -14322,7 +14388,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D326" s="74" t="n"/>
+      <c r="D326" s="77" t="n"/>
       <c r="E326" s="7" t="n"/>
       <c r="F326" s="2" t="inlineStr"/>
     </row>
@@ -14330,7 +14396,7 @@
       <c r="A327" s="30" t="n"/>
       <c r="B327" s="30" t="n"/>
       <c r="C327" s="42" t="n"/>
-      <c r="D327" s="74" t="n"/>
+      <c r="D327" s="77" t="n"/>
       <c r="E327" s="7" t="n"/>
       <c r="F327" s="2" t="inlineStr"/>
     </row>
@@ -14342,7 +14408,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D328" s="74" t="n"/>
+      <c r="D328" s="77" t="n"/>
       <c r="E328" s="7" t="n"/>
       <c r="F328" s="2" t="inlineStr"/>
     </row>
@@ -14350,7 +14416,7 @@
       <c r="A329" s="30" t="n"/>
       <c r="B329" s="30" t="n"/>
       <c r="C329" s="42" t="n"/>
-      <c r="D329" s="74" t="n"/>
+      <c r="D329" s="77" t="n"/>
       <c r="E329" s="7" t="n"/>
       <c r="F329" s="2" t="inlineStr"/>
     </row>
@@ -14362,7 +14428,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D330" s="74" t="n"/>
+      <c r="D330" s="77" t="n"/>
       <c r="E330" s="7" t="n"/>
       <c r="F330" s="2" t="inlineStr"/>
     </row>
@@ -14370,7 +14436,7 @@
       <c r="A331" s="30" t="n"/>
       <c r="B331" s="30" t="n"/>
       <c r="C331" s="42" t="n"/>
-      <c r="D331" s="74" t="n"/>
+      <c r="D331" s="77" t="n"/>
       <c r="E331" s="7" t="n"/>
       <c r="F331" s="2" t="inlineStr"/>
     </row>
@@ -14382,7 +14448,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D332" s="74" t="n"/>
+      <c r="D332" s="77" t="n"/>
       <c r="E332" s="7" t="n"/>
       <c r="F332" s="2" t="inlineStr"/>
     </row>
@@ -14390,7 +14456,7 @@
       <c r="A333" s="30" t="n"/>
       <c r="B333" s="30" t="n"/>
       <c r="C333" s="42" t="n"/>
-      <c r="D333" s="74" t="n"/>
+      <c r="D333" s="77" t="n"/>
       <c r="E333" s="7" t="n"/>
       <c r="F333" s="2" t="inlineStr"/>
     </row>
@@ -14402,7 +14468,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D334" s="74" t="n"/>
+      <c r="D334" s="77" t="n"/>
       <c r="E334" s="7" t="n"/>
       <c r="F334" s="2" t="inlineStr"/>
     </row>
@@ -14410,7 +14476,7 @@
       <c r="A335" s="18" t="n"/>
       <c r="B335" s="18" t="n"/>
       <c r="C335" s="18" t="n"/>
-      <c r="D335" s="74" t="n"/>
+      <c r="D335" s="77" t="n"/>
       <c r="E335" s="7" t="n"/>
       <c r="F335" s="2" t="inlineStr"/>
     </row>
@@ -14428,7 +14494,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D336" s="74" t="n"/>
+      <c r="D336" s="77" t="n"/>
       <c r="E336" s="7" t="n"/>
       <c r="F336" s="2" t="inlineStr"/>
     </row>
@@ -14436,7 +14502,7 @@
       <c r="A337" s="30" t="n"/>
       <c r="B337" s="30" t="n"/>
       <c r="C337" s="42" t="n"/>
-      <c r="D337" s="74" t="n"/>
+      <c r="D337" s="77" t="n"/>
       <c r="E337" s="7" t="n"/>
       <c r="F337" s="2" t="inlineStr"/>
     </row>
@@ -14448,7 +14514,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D338" s="74" t="n"/>
+      <c r="D338" s="77" t="n"/>
       <c r="E338" s="7" t="n"/>
       <c r="F338" s="2" t="inlineStr"/>
     </row>
@@ -14456,7 +14522,7 @@
       <c r="A339" s="30" t="n"/>
       <c r="B339" s="30" t="n"/>
       <c r="C339" s="42" t="n"/>
-      <c r="D339" s="74" t="n"/>
+      <c r="D339" s="77" t="n"/>
       <c r="E339" s="7" t="n"/>
       <c r="F339" s="2" t="inlineStr"/>
     </row>
@@ -14468,7 +14534,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D340" s="74" t="n"/>
+      <c r="D340" s="77" t="n"/>
       <c r="E340" s="7" t="n"/>
       <c r="F340" s="2" t="inlineStr"/>
     </row>
@@ -14476,7 +14542,7 @@
       <c r="A341" s="30" t="n"/>
       <c r="B341" s="30" t="n"/>
       <c r="C341" s="42" t="n"/>
-      <c r="D341" s="74" t="n"/>
+      <c r="D341" s="77" t="n"/>
       <c r="E341" s="7" t="n"/>
       <c r="F341" s="2" t="inlineStr"/>
     </row>
@@ -14488,7 +14554,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D342" s="74" t="n"/>
+      <c r="D342" s="77" t="n"/>
       <c r="E342" s="7" t="n"/>
       <c r="F342" s="2" t="inlineStr"/>
     </row>
@@ -14496,7 +14562,7 @@
       <c r="A343" s="30" t="n"/>
       <c r="B343" s="30" t="n"/>
       <c r="C343" s="42" t="n"/>
-      <c r="D343" s="74" t="n"/>
+      <c r="D343" s="77" t="n"/>
       <c r="E343" s="7" t="n"/>
       <c r="F343" s="2" t="inlineStr"/>
     </row>
@@ -14508,7 +14574,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D344" s="74" t="n"/>
+      <c r="D344" s="77" t="n"/>
       <c r="E344" s="7" t="n"/>
       <c r="F344" s="2" t="inlineStr"/>
     </row>
@@ -14516,7 +14582,7 @@
       <c r="A345" s="30" t="n"/>
       <c r="B345" s="30" t="n"/>
       <c r="C345" s="42" t="n"/>
-      <c r="D345" s="74" t="n"/>
+      <c r="D345" s="77" t="n"/>
       <c r="E345" s="7" t="n"/>
       <c r="F345" s="2" t="inlineStr"/>
     </row>
@@ -14528,7 +14594,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D346" s="74" t="n"/>
+      <c r="D346" s="77" t="n"/>
       <c r="E346" s="7" t="n"/>
       <c r="F346" s="2" t="inlineStr"/>
     </row>
@@ -14982,7 +15048,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C16" s="55" t="inlineStr">
+      <c r="C16" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -15031,7 +15097,7 @@
       </c>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="17" t="n"/>
-      <c r="D19" s="56" t="n">
+      <c r="D19" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -15051,7 +15117,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D20" s="76" t="inlineStr"/>
+      <c r="D20" s="79" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
     </row>
@@ -15059,7 +15125,7 @@
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="30" t="n"/>
       <c r="C21" s="42" t="n"/>
-      <c r="D21" s="77" t="inlineStr"/>
+      <c r="D21" s="80" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
     </row>
@@ -15099,7 +15165,7 @@
       <c r="A25" s="30" t="n"/>
       <c r="B25" s="30" t="n"/>
       <c r="C25" s="42" t="n"/>
-      <c r="D25" s="68" t="inlineStr"/>
+      <c r="D25" s="71" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
     </row>
@@ -15119,7 +15185,7 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="30" t="n"/>
       <c r="C27" s="42" t="n"/>
-      <c r="D27" s="78" t="inlineStr"/>
+      <c r="D27" s="81" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
     </row>
@@ -15151,7 +15217,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D30" s="79" t="inlineStr"/>
+      <c r="D30" s="82" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
     </row>
@@ -15197,7 +15263,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D34" s="57" t="inlineStr"/>
+      <c r="D34" s="60" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
     </row>
@@ -15217,7 +15283,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D36" s="57" t="inlineStr"/>
+      <c r="D36" s="60" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
     </row>
@@ -15371,7 +15437,7 @@
       <c r="A51" s="30" t="n"/>
       <c r="B51" s="30" t="n"/>
       <c r="C51" s="42" t="n"/>
-      <c r="D51" s="68" t="inlineStr"/>
+      <c r="D51" s="71" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
     </row>
@@ -15391,7 +15457,7 @@
       <c r="A53" s="30" t="n"/>
       <c r="B53" s="30" t="n"/>
       <c r="C53" s="42" t="n"/>
-      <c r="D53" s="68" t="inlineStr"/>
+      <c r="D53" s="71" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
     </row>
@@ -15449,7 +15515,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D58" s="57" t="inlineStr"/>
+      <c r="D58" s="60" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
     </row>
@@ -15469,7 +15535,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D60" s="57" t="inlineStr"/>
+      <c r="D60" s="60" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
     </row>
@@ -15489,7 +15555,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D62" s="57" t="inlineStr"/>
+      <c r="D62" s="60" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
     </row>
@@ -15509,7 +15575,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D64" s="57" t="inlineStr"/>
+      <c r="D64" s="60" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
     </row>
@@ -15537,7 +15603,7 @@
       <c r="A67" s="18" t="n"/>
       <c r="B67" s="18" t="n"/>
       <c r="C67" s="18" t="n"/>
-      <c r="D67" s="59" t="inlineStr"/>
+      <c r="D67" s="62" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
     </row>
@@ -15555,7 +15621,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D68" s="60" t="inlineStr"/>
+      <c r="D68" s="63" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
     </row>
@@ -15575,7 +15641,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D70" s="57" t="inlineStr"/>
+      <c r="D70" s="60" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
     </row>
@@ -15623,7 +15689,7 @@
       <c r="A75" s="30" t="n"/>
       <c r="B75" s="30" t="n"/>
       <c r="C75" s="42" t="n"/>
-      <c r="D75" s="80" t="inlineStr"/>
+      <c r="D75" s="83" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
     </row>
@@ -15663,7 +15729,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D78" s="57" t="inlineStr">
+      <c r="D78" s="60" t="inlineStr">
         <is>
           <t>Высокоуровневые методы программирования (СПЗ)</t>
         </is>
@@ -15675,7 +15741,7 @@
       <c r="A79" s="18" t="n"/>
       <c r="B79" s="18" t="n"/>
       <c r="C79" s="18" t="n"/>
-      <c r="D79" s="59" t="inlineStr">
+      <c r="D79" s="62" t="inlineStr">
         <is>
           <t>Преображенский М.В., ауд. 514</t>
         </is>
@@ -15820,7 +15886,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C92" s="55" t="inlineStr">
+      <c r="C92" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -15869,7 +15935,7 @@
       </c>
       <c r="B95" s="22" t="n"/>
       <c r="C95" s="17" t="n"/>
-      <c r="D95" s="56" t="n">
+      <c r="D95" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
@@ -15889,7 +15955,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D96" s="81" t="inlineStr">
+      <c r="D96" s="84" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
@@ -15901,7 +15967,7 @@
       <c r="A97" s="30" t="n"/>
       <c r="B97" s="30" t="n"/>
       <c r="C97" s="42" t="n"/>
-      <c r="D97" s="74" t="n"/>
+      <c r="D97" s="77" t="n"/>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
     </row>
@@ -15913,7 +15979,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D98" s="74" t="n"/>
+      <c r="D98" s="77" t="n"/>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
     </row>
@@ -15921,7 +15987,7 @@
       <c r="A99" s="30" t="n"/>
       <c r="B99" s="30" t="n"/>
       <c r="C99" s="42" t="n"/>
-      <c r="D99" s="74" t="n"/>
+      <c r="D99" s="77" t="n"/>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
     </row>
@@ -15933,7 +15999,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D100" s="74" t="n"/>
+      <c r="D100" s="77" t="n"/>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
     </row>
@@ -15941,7 +16007,7 @@
       <c r="A101" s="30" t="n"/>
       <c r="B101" s="30" t="n"/>
       <c r="C101" s="42" t="n"/>
-      <c r="D101" s="74" t="n"/>
+      <c r="D101" s="77" t="n"/>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
     </row>
@@ -15953,7 +16019,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D102" s="74" t="n"/>
+      <c r="D102" s="77" t="n"/>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
     </row>
@@ -15961,7 +16027,7 @@
       <c r="A103" s="30" t="n"/>
       <c r="B103" s="30" t="n"/>
       <c r="C103" s="42" t="n"/>
-      <c r="D103" s="74" t="n"/>
+      <c r="D103" s="77" t="n"/>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
     </row>
@@ -15973,7 +16039,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D104" s="74" t="n"/>
+      <c r="D104" s="77" t="n"/>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
     </row>
@@ -15981,7 +16047,7 @@
       <c r="A105" s="30" t="n"/>
       <c r="B105" s="30" t="n"/>
       <c r="C105" s="42" t="n"/>
-      <c r="D105" s="74" t="n"/>
+      <c r="D105" s="77" t="n"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
     </row>
@@ -15993,7 +16059,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D106" s="74" t="n"/>
+      <c r="D106" s="77" t="n"/>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
     </row>
@@ -16001,7 +16067,7 @@
       <c r="A107" s="18" t="n"/>
       <c r="B107" s="18" t="n"/>
       <c r="C107" s="18" t="n"/>
-      <c r="D107" s="74" t="n"/>
+      <c r="D107" s="77" t="n"/>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
     </row>
@@ -16019,7 +16085,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D108" s="74" t="n"/>
+      <c r="D108" s="77" t="n"/>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
     </row>
@@ -16027,7 +16093,7 @@
       <c r="A109" s="30" t="n"/>
       <c r="B109" s="30" t="n"/>
       <c r="C109" s="42" t="n"/>
-      <c r="D109" s="74" t="n"/>
+      <c r="D109" s="77" t="n"/>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
     </row>
@@ -16039,7 +16105,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D110" s="74" t="n"/>
+      <c r="D110" s="77" t="n"/>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
     </row>
@@ -16047,7 +16113,7 @@
       <c r="A111" s="30" t="n"/>
       <c r="B111" s="30" t="n"/>
       <c r="C111" s="42" t="n"/>
-      <c r="D111" s="74" t="n"/>
+      <c r="D111" s="77" t="n"/>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
     </row>
@@ -16059,7 +16125,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D112" s="74" t="n"/>
+      <c r="D112" s="77" t="n"/>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
     </row>
@@ -16067,7 +16133,7 @@
       <c r="A113" s="30" t="n"/>
       <c r="B113" s="30" t="n"/>
       <c r="C113" s="42" t="n"/>
-      <c r="D113" s="74" t="n"/>
+      <c r="D113" s="77" t="n"/>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
     </row>
@@ -16079,7 +16145,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D114" s="74" t="n"/>
+      <c r="D114" s="77" t="n"/>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
     </row>
@@ -16087,7 +16153,7 @@
       <c r="A115" s="30" t="n"/>
       <c r="B115" s="30" t="n"/>
       <c r="C115" s="42" t="n"/>
-      <c r="D115" s="74" t="n"/>
+      <c r="D115" s="77" t="n"/>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
     </row>
@@ -16099,7 +16165,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D116" s="74" t="n"/>
+      <c r="D116" s="77" t="n"/>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
     </row>
@@ -16107,7 +16173,7 @@
       <c r="A117" s="30" t="n"/>
       <c r="B117" s="30" t="n"/>
       <c r="C117" s="42" t="n"/>
-      <c r="D117" s="74" t="n"/>
+      <c r="D117" s="77" t="n"/>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
     </row>
@@ -16119,7 +16185,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D118" s="74" t="n"/>
+      <c r="D118" s="77" t="n"/>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
     </row>
@@ -16127,7 +16193,7 @@
       <c r="A119" s="18" t="n"/>
       <c r="B119" s="18" t="n"/>
       <c r="C119" s="18" t="n"/>
-      <c r="D119" s="74" t="n"/>
+      <c r="D119" s="77" t="n"/>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
     </row>
@@ -16145,7 +16211,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D120" s="74" t="n"/>
+      <c r="D120" s="77" t="n"/>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
     </row>
@@ -16153,7 +16219,7 @@
       <c r="A121" s="30" t="n"/>
       <c r="B121" s="30" t="n"/>
       <c r="C121" s="42" t="n"/>
-      <c r="D121" s="74" t="n"/>
+      <c r="D121" s="77" t="n"/>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
     </row>
@@ -16165,7 +16231,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D122" s="74" t="n"/>
+      <c r="D122" s="77" t="n"/>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
     </row>
@@ -16173,7 +16239,7 @@
       <c r="A123" s="30" t="n"/>
       <c r="B123" s="30" t="n"/>
       <c r="C123" s="42" t="n"/>
-      <c r="D123" s="74" t="n"/>
+      <c r="D123" s="77" t="n"/>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
     </row>
@@ -16185,7 +16251,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D124" s="74" t="n"/>
+      <c r="D124" s="77" t="n"/>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
     </row>
@@ -16193,7 +16259,7 @@
       <c r="A125" s="30" t="n"/>
       <c r="B125" s="30" t="n"/>
       <c r="C125" s="42" t="n"/>
-      <c r="D125" s="74" t="n"/>
+      <c r="D125" s="77" t="n"/>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
     </row>
@@ -16205,7 +16271,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D126" s="74" t="n"/>
+      <c r="D126" s="77" t="n"/>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
     </row>
@@ -16213,7 +16279,7 @@
       <c r="A127" s="30" t="n"/>
       <c r="B127" s="30" t="n"/>
       <c r="C127" s="42" t="n"/>
-      <c r="D127" s="74" t="n"/>
+      <c r="D127" s="77" t="n"/>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
     </row>
@@ -16225,7 +16291,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D128" s="74" t="n"/>
+      <c r="D128" s="77" t="n"/>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
     </row>
@@ -16233,7 +16299,7 @@
       <c r="A129" s="30" t="n"/>
       <c r="B129" s="30" t="n"/>
       <c r="C129" s="42" t="n"/>
-      <c r="D129" s="74" t="n"/>
+      <c r="D129" s="77" t="n"/>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
     </row>
@@ -16245,7 +16311,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D130" s="74" t="n"/>
+      <c r="D130" s="77" t="n"/>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
     </row>
@@ -16253,7 +16319,7 @@
       <c r="A131" s="18" t="n"/>
       <c r="B131" s="18" t="n"/>
       <c r="C131" s="18" t="n"/>
-      <c r="D131" s="74" t="n"/>
+      <c r="D131" s="77" t="n"/>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
     </row>
@@ -16271,7 +16337,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D132" s="74" t="n"/>
+      <c r="D132" s="77" t="n"/>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
     </row>
@@ -16279,7 +16345,7 @@
       <c r="A133" s="30" t="n"/>
       <c r="B133" s="30" t="n"/>
       <c r="C133" s="42" t="n"/>
-      <c r="D133" s="74" t="n"/>
+      <c r="D133" s="77" t="n"/>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
     </row>
@@ -16291,7 +16357,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D134" s="74" t="n"/>
+      <c r="D134" s="77" t="n"/>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
     </row>
@@ -16299,7 +16365,7 @@
       <c r="A135" s="30" t="n"/>
       <c r="B135" s="30" t="n"/>
       <c r="C135" s="42" t="n"/>
-      <c r="D135" s="74" t="n"/>
+      <c r="D135" s="77" t="n"/>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
     </row>
@@ -16311,7 +16377,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D136" s="74" t="n"/>
+      <c r="D136" s="77" t="n"/>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
     </row>
@@ -16319,7 +16385,7 @@
       <c r="A137" s="30" t="n"/>
       <c r="B137" s="30" t="n"/>
       <c r="C137" s="42" t="n"/>
-      <c r="D137" s="74" t="n"/>
+      <c r="D137" s="77" t="n"/>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
     </row>
@@ -16331,7 +16397,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D138" s="74" t="n"/>
+      <c r="D138" s="77" t="n"/>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
     </row>
@@ -16339,7 +16405,7 @@
       <c r="A139" s="30" t="n"/>
       <c r="B139" s="30" t="n"/>
       <c r="C139" s="42" t="n"/>
-      <c r="D139" s="74" t="n"/>
+      <c r="D139" s="77" t="n"/>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
     </row>
@@ -16351,7 +16417,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D140" s="74" t="n"/>
+      <c r="D140" s="77" t="n"/>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
     </row>
@@ -16359,7 +16425,7 @@
       <c r="A141" s="30" t="n"/>
       <c r="B141" s="30" t="n"/>
       <c r="C141" s="42" t="n"/>
-      <c r="D141" s="74" t="n"/>
+      <c r="D141" s="77" t="n"/>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
     </row>
@@ -16371,7 +16437,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D142" s="74" t="n"/>
+      <c r="D142" s="77" t="n"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
     </row>
@@ -16379,7 +16445,7 @@
       <c r="A143" s="18" t="n"/>
       <c r="B143" s="18" t="n"/>
       <c r="C143" s="18" t="n"/>
-      <c r="D143" s="74" t="n"/>
+      <c r="D143" s="77" t="n"/>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
     </row>
@@ -16397,7 +16463,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D144" s="74" t="n"/>
+      <c r="D144" s="77" t="n"/>
       <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
     </row>
@@ -16405,7 +16471,7 @@
       <c r="A145" s="30" t="n"/>
       <c r="B145" s="30" t="n"/>
       <c r="C145" s="42" t="n"/>
-      <c r="D145" s="74" t="n"/>
+      <c r="D145" s="77" t="n"/>
       <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
     </row>
@@ -16417,7 +16483,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D146" s="74" t="n"/>
+      <c r="D146" s="77" t="n"/>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
     </row>
@@ -16425,7 +16491,7 @@
       <c r="A147" s="30" t="n"/>
       <c r="B147" s="30" t="n"/>
       <c r="C147" s="42" t="n"/>
-      <c r="D147" s="74" t="n"/>
+      <c r="D147" s="77" t="n"/>
       <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
     </row>
@@ -16437,7 +16503,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D148" s="74" t="n"/>
+      <c r="D148" s="77" t="n"/>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
     </row>
@@ -16445,7 +16511,7 @@
       <c r="A149" s="30" t="n"/>
       <c r="B149" s="30" t="n"/>
       <c r="C149" s="42" t="n"/>
-      <c r="D149" s="74" t="n"/>
+      <c r="D149" s="77" t="n"/>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
     </row>
@@ -16457,7 +16523,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D150" s="74" t="n"/>
+      <c r="D150" s="77" t="n"/>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
     </row>
@@ -16465,7 +16531,7 @@
       <c r="A151" s="30" t="n"/>
       <c r="B151" s="30" t="n"/>
       <c r="C151" s="42" t="n"/>
-      <c r="D151" s="74" t="n"/>
+      <c r="D151" s="77" t="n"/>
       <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
     </row>
@@ -16477,7 +16543,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D152" s="74" t="n"/>
+      <c r="D152" s="77" t="n"/>
       <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
     </row>
@@ -16485,7 +16551,7 @@
       <c r="A153" s="30" t="n"/>
       <c r="B153" s="30" t="n"/>
       <c r="C153" s="42" t="n"/>
-      <c r="D153" s="74" t="n"/>
+      <c r="D153" s="77" t="n"/>
       <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
     </row>
@@ -16497,7 +16563,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D154" s="74" t="n"/>
+      <c r="D154" s="77" t="n"/>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
     </row>
@@ -16505,7 +16571,7 @@
       <c r="A155" s="18" t="n"/>
       <c r="B155" s="18" t="n"/>
       <c r="C155" s="18" t="n"/>
-      <c r="D155" s="74" t="n"/>
+      <c r="D155" s="77" t="n"/>
       <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
     </row>
@@ -16523,7 +16589,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D156" s="74" t="n"/>
+      <c r="D156" s="77" t="n"/>
       <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
     </row>
@@ -16531,7 +16597,7 @@
       <c r="A157" s="30" t="n"/>
       <c r="B157" s="30" t="n"/>
       <c r="C157" s="42" t="n"/>
-      <c r="D157" s="74" t="n"/>
+      <c r="D157" s="77" t="n"/>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
     </row>
@@ -16543,7 +16609,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D158" s="74" t="n"/>
+      <c r="D158" s="77" t="n"/>
       <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
     </row>
@@ -16551,7 +16617,7 @@
       <c r="A159" s="30" t="n"/>
       <c r="B159" s="30" t="n"/>
       <c r="C159" s="42" t="n"/>
-      <c r="D159" s="74" t="n"/>
+      <c r="D159" s="77" t="n"/>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
     </row>
@@ -16563,7 +16629,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D160" s="74" t="n"/>
+      <c r="D160" s="77" t="n"/>
       <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
     </row>
@@ -16571,7 +16637,7 @@
       <c r="A161" s="30" t="n"/>
       <c r="B161" s="30" t="n"/>
       <c r="C161" s="42" t="n"/>
-      <c r="D161" s="74" t="n"/>
+      <c r="D161" s="77" t="n"/>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
     </row>
@@ -16583,7 +16649,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D162" s="74" t="n"/>
+      <c r="D162" s="77" t="n"/>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
     </row>
@@ -16591,7 +16657,7 @@
       <c r="A163" s="30" t="n"/>
       <c r="B163" s="30" t="n"/>
       <c r="C163" s="42" t="n"/>
-      <c r="D163" s="74" t="n"/>
+      <c r="D163" s="77" t="n"/>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
     </row>
@@ -16603,7 +16669,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D164" s="74" t="n"/>
+      <c r="D164" s="77" t="n"/>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
     </row>
@@ -16611,7 +16677,7 @@
       <c r="A165" s="30" t="n"/>
       <c r="B165" s="30" t="n"/>
       <c r="C165" s="42" t="n"/>
-      <c r="D165" s="74" t="n"/>
+      <c r="D165" s="77" t="n"/>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
     </row>
@@ -16623,7 +16689,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D166" s="74" t="n"/>
+      <c r="D166" s="77" t="n"/>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
     </row>
@@ -16646,7 +16712,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C168" s="55" t="inlineStr">
+      <c r="C168" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -16695,7 +16761,7 @@
       </c>
       <c r="B171" s="22" t="n"/>
       <c r="C171" s="17" t="n"/>
-      <c r="D171" s="56" t="n">
+      <c r="D171" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -16715,7 +16781,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D172" s="81" t="inlineStr">
+      <c r="D172" s="84" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
@@ -16727,7 +16793,7 @@
       <c r="A173" s="30" t="n"/>
       <c r="B173" s="30" t="n"/>
       <c r="C173" s="42" t="n"/>
-      <c r="D173" s="74" t="n"/>
+      <c r="D173" s="77" t="n"/>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
     </row>
@@ -16739,7 +16805,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D174" s="74" t="n"/>
+      <c r="D174" s="77" t="n"/>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
     </row>
@@ -16747,7 +16813,7 @@
       <c r="A175" s="30" t="n"/>
       <c r="B175" s="30" t="n"/>
       <c r="C175" s="42" t="n"/>
-      <c r="D175" s="74" t="n"/>
+      <c r="D175" s="77" t="n"/>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
     </row>
@@ -16759,7 +16825,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D176" s="74" t="n"/>
+      <c r="D176" s="77" t="n"/>
       <c r="E176" s="2" t="inlineStr"/>
       <c r="F176" s="2" t="inlineStr"/>
     </row>
@@ -16767,7 +16833,7 @@
       <c r="A177" s="30" t="n"/>
       <c r="B177" s="30" t="n"/>
       <c r="C177" s="42" t="n"/>
-      <c r="D177" s="74" t="n"/>
+      <c r="D177" s="77" t="n"/>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
     </row>
@@ -16779,7 +16845,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D178" s="74" t="n"/>
+      <c r="D178" s="77" t="n"/>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
     </row>
@@ -16787,7 +16853,7 @@
       <c r="A179" s="30" t="n"/>
       <c r="B179" s="30" t="n"/>
       <c r="C179" s="42" t="n"/>
-      <c r="D179" s="74" t="n"/>
+      <c r="D179" s="77" t="n"/>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
     </row>
@@ -16799,7 +16865,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D180" s="74" t="n"/>
+      <c r="D180" s="77" t="n"/>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
     </row>
@@ -16807,7 +16873,7 @@
       <c r="A181" s="30" t="n"/>
       <c r="B181" s="30" t="n"/>
       <c r="C181" s="42" t="n"/>
-      <c r="D181" s="74" t="n"/>
+      <c r="D181" s="77" t="n"/>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
     </row>
@@ -16819,7 +16885,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D182" s="74" t="n"/>
+      <c r="D182" s="77" t="n"/>
       <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
     </row>
@@ -16827,7 +16893,7 @@
       <c r="A183" s="18" t="n"/>
       <c r="B183" s="18" t="n"/>
       <c r="C183" s="18" t="n"/>
-      <c r="D183" s="74" t="n"/>
+      <c r="D183" s="77" t="n"/>
       <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
     </row>
@@ -16845,7 +16911,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D184" s="74" t="n"/>
+      <c r="D184" s="77" t="n"/>
       <c r="E184" s="2" t="inlineStr"/>
       <c r="F184" s="2" t="inlineStr"/>
     </row>
@@ -16853,7 +16919,7 @@
       <c r="A185" s="30" t="n"/>
       <c r="B185" s="30" t="n"/>
       <c r="C185" s="42" t="n"/>
-      <c r="D185" s="74" t="n"/>
+      <c r="D185" s="77" t="n"/>
       <c r="E185" s="2" t="inlineStr"/>
       <c r="F185" s="2" t="inlineStr"/>
     </row>
@@ -16865,7 +16931,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D186" s="74" t="n"/>
+      <c r="D186" s="77" t="n"/>
       <c r="E186" s="2" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr"/>
     </row>
@@ -16873,7 +16939,7 @@
       <c r="A187" s="30" t="n"/>
       <c r="B187" s="30" t="n"/>
       <c r="C187" s="42" t="n"/>
-      <c r="D187" s="74" t="n"/>
+      <c r="D187" s="77" t="n"/>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
     </row>
@@ -16885,7 +16951,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D188" s="74" t="n"/>
+      <c r="D188" s="77" t="n"/>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
     </row>
@@ -16893,7 +16959,7 @@
       <c r="A189" s="30" t="n"/>
       <c r="B189" s="30" t="n"/>
       <c r="C189" s="42" t="n"/>
-      <c r="D189" s="74" t="n"/>
+      <c r="D189" s="77" t="n"/>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
     </row>
@@ -16905,7 +16971,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D190" s="74" t="n"/>
+      <c r="D190" s="77" t="n"/>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
     </row>
@@ -16913,7 +16979,7 @@
       <c r="A191" s="30" t="n"/>
       <c r="B191" s="30" t="n"/>
       <c r="C191" s="42" t="n"/>
-      <c r="D191" s="74" t="n"/>
+      <c r="D191" s="77" t="n"/>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
     </row>
@@ -16925,7 +16991,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D192" s="74" t="n"/>
+      <c r="D192" s="77" t="n"/>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
     </row>
@@ -16933,7 +16999,7 @@
       <c r="A193" s="30" t="n"/>
       <c r="B193" s="30" t="n"/>
       <c r="C193" s="42" t="n"/>
-      <c r="D193" s="74" t="n"/>
+      <c r="D193" s="77" t="n"/>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
     </row>
@@ -16945,7 +17011,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D194" s="74" t="n"/>
+      <c r="D194" s="77" t="n"/>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
     </row>
@@ -16953,7 +17019,7 @@
       <c r="A195" s="18" t="n"/>
       <c r="B195" s="18" t="n"/>
       <c r="C195" s="18" t="n"/>
-      <c r="D195" s="74" t="n"/>
+      <c r="D195" s="77" t="n"/>
       <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
     </row>
@@ -16971,7 +17037,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D196" s="74" t="n"/>
+      <c r="D196" s="77" t="n"/>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
     </row>
@@ -16979,7 +17045,7 @@
       <c r="A197" s="30" t="n"/>
       <c r="B197" s="30" t="n"/>
       <c r="C197" s="42" t="n"/>
-      <c r="D197" s="74" t="n"/>
+      <c r="D197" s="77" t="n"/>
       <c r="E197" s="2" t="inlineStr"/>
       <c r="F197" s="2" t="inlineStr"/>
     </row>
@@ -16991,7 +17057,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D198" s="74" t="n"/>
+      <c r="D198" s="77" t="n"/>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
     </row>
@@ -16999,7 +17065,7 @@
       <c r="A199" s="30" t="n"/>
       <c r="B199" s="30" t="n"/>
       <c r="C199" s="42" t="n"/>
-      <c r="D199" s="74" t="n"/>
+      <c r="D199" s="77" t="n"/>
       <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
     </row>
@@ -17011,7 +17077,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D200" s="74" t="n"/>
+      <c r="D200" s="77" t="n"/>
       <c r="E200" s="2" t="inlineStr"/>
       <c r="F200" s="2" t="inlineStr"/>
     </row>
@@ -17019,7 +17085,7 @@
       <c r="A201" s="30" t="n"/>
       <c r="B201" s="30" t="n"/>
       <c r="C201" s="42" t="n"/>
-      <c r="D201" s="74" t="n"/>
+      <c r="D201" s="77" t="n"/>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
     </row>
@@ -17031,7 +17097,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D202" s="74" t="n"/>
+      <c r="D202" s="77" t="n"/>
       <c r="E202" s="2" t="inlineStr"/>
       <c r="F202" s="2" t="inlineStr"/>
     </row>
@@ -17039,7 +17105,7 @@
       <c r="A203" s="30" t="n"/>
       <c r="B203" s="30" t="n"/>
       <c r="C203" s="42" t="n"/>
-      <c r="D203" s="74" t="n"/>
+      <c r="D203" s="77" t="n"/>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
     </row>
@@ -17051,7 +17117,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D204" s="74" t="n"/>
+      <c r="D204" s="77" t="n"/>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
     </row>
@@ -17059,7 +17125,7 @@
       <c r="A205" s="30" t="n"/>
       <c r="B205" s="30" t="n"/>
       <c r="C205" s="42" t="n"/>
-      <c r="D205" s="74" t="n"/>
+      <c r="D205" s="77" t="n"/>
       <c r="E205" s="2" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr"/>
     </row>
@@ -17071,7 +17137,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D206" s="74" t="n"/>
+      <c r="D206" s="77" t="n"/>
       <c r="E206" s="2" t="inlineStr"/>
       <c r="F206" s="2" t="inlineStr"/>
     </row>
@@ -17079,7 +17145,7 @@
       <c r="A207" s="18" t="n"/>
       <c r="B207" s="18" t="n"/>
       <c r="C207" s="18" t="n"/>
-      <c r="D207" s="74" t="n"/>
+      <c r="D207" s="77" t="n"/>
       <c r="E207" s="2" t="inlineStr"/>
       <c r="F207" s="2" t="inlineStr"/>
     </row>
@@ -17097,7 +17163,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D208" s="74" t="n"/>
+      <c r="D208" s="77" t="n"/>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
     </row>
@@ -17105,7 +17171,7 @@
       <c r="A209" s="30" t="n"/>
       <c r="B209" s="30" t="n"/>
       <c r="C209" s="42" t="n"/>
-      <c r="D209" s="74" t="n"/>
+      <c r="D209" s="77" t="n"/>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
     </row>
@@ -17117,7 +17183,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D210" s="74" t="n"/>
+      <c r="D210" s="77" t="n"/>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
     </row>
@@ -17125,7 +17191,7 @@
       <c r="A211" s="30" t="n"/>
       <c r="B211" s="30" t="n"/>
       <c r="C211" s="42" t="n"/>
-      <c r="D211" s="74" t="n"/>
+      <c r="D211" s="77" t="n"/>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
     </row>
@@ -17137,7 +17203,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D212" s="74" t="n"/>
+      <c r="D212" s="77" t="n"/>
       <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
     </row>
@@ -17145,7 +17211,7 @@
       <c r="A213" s="30" t="n"/>
       <c r="B213" s="30" t="n"/>
       <c r="C213" s="42" t="n"/>
-      <c r="D213" s="74" t="n"/>
+      <c r="D213" s="77" t="n"/>
       <c r="E213" s="2" t="inlineStr"/>
       <c r="F213" s="2" t="inlineStr"/>
     </row>
@@ -17157,7 +17223,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D214" s="74" t="n"/>
+      <c r="D214" s="77" t="n"/>
       <c r="E214" s="2" t="inlineStr"/>
       <c r="F214" s="2" t="inlineStr"/>
     </row>
@@ -17165,7 +17231,7 @@
       <c r="A215" s="30" t="n"/>
       <c r="B215" s="30" t="n"/>
       <c r="C215" s="42" t="n"/>
-      <c r="D215" s="74" t="n"/>
+      <c r="D215" s="77" t="n"/>
       <c r="E215" s="2" t="inlineStr"/>
       <c r="F215" s="2" t="inlineStr"/>
     </row>
@@ -17177,7 +17243,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D216" s="74" t="n"/>
+      <c r="D216" s="77" t="n"/>
       <c r="E216" s="2" t="inlineStr"/>
       <c r="F216" s="2" t="inlineStr"/>
     </row>
@@ -17185,7 +17251,7 @@
       <c r="A217" s="30" t="n"/>
       <c r="B217" s="30" t="n"/>
       <c r="C217" s="42" t="n"/>
-      <c r="D217" s="74" t="n"/>
+      <c r="D217" s="77" t="n"/>
       <c r="E217" s="2" t="inlineStr"/>
       <c r="F217" s="2" t="inlineStr"/>
     </row>
@@ -17197,7 +17263,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D218" s="74" t="n"/>
+      <c r="D218" s="77" t="n"/>
       <c r="E218" s="2" t="inlineStr"/>
       <c r="F218" s="2" t="inlineStr"/>
     </row>
@@ -17205,7 +17271,7 @@
       <c r="A219" s="18" t="n"/>
       <c r="B219" s="18" t="n"/>
       <c r="C219" s="18" t="n"/>
-      <c r="D219" s="74" t="n"/>
+      <c r="D219" s="77" t="n"/>
       <c r="E219" s="2" t="inlineStr"/>
       <c r="F219" s="2" t="inlineStr"/>
     </row>
@@ -17223,7 +17289,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D220" s="74" t="n"/>
+      <c r="D220" s="77" t="n"/>
       <c r="E220" s="2" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr"/>
     </row>
@@ -17231,7 +17297,7 @@
       <c r="A221" s="30" t="n"/>
       <c r="B221" s="30" t="n"/>
       <c r="C221" s="42" t="n"/>
-      <c r="D221" s="74" t="n"/>
+      <c r="D221" s="77" t="n"/>
       <c r="E221" s="2" t="inlineStr"/>
       <c r="F221" s="2" t="inlineStr"/>
     </row>
@@ -17243,7 +17309,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D222" s="74" t="n"/>
+      <c r="D222" s="77" t="n"/>
       <c r="E222" s="2" t="inlineStr"/>
       <c r="F222" s="2" t="inlineStr"/>
     </row>
@@ -17251,7 +17317,7 @@
       <c r="A223" s="30" t="n"/>
       <c r="B223" s="30" t="n"/>
       <c r="C223" s="42" t="n"/>
-      <c r="D223" s="74" t="n"/>
+      <c r="D223" s="77" t="n"/>
       <c r="E223" s="2" t="inlineStr"/>
       <c r="F223" s="2" t="inlineStr"/>
     </row>
@@ -17263,7 +17329,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D224" s="74" t="n"/>
+      <c r="D224" s="77" t="n"/>
       <c r="E224" s="2" t="inlineStr"/>
       <c r="F224" s="2" t="inlineStr"/>
     </row>
@@ -17271,7 +17337,7 @@
       <c r="A225" s="30" t="n"/>
       <c r="B225" s="30" t="n"/>
       <c r="C225" s="42" t="n"/>
-      <c r="D225" s="74" t="n"/>
+      <c r="D225" s="77" t="n"/>
       <c r="E225" s="2" t="inlineStr"/>
       <c r="F225" s="2" t="inlineStr"/>
     </row>
@@ -17283,7 +17349,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D226" s="74" t="n"/>
+      <c r="D226" s="77" t="n"/>
       <c r="E226" s="2" t="inlineStr"/>
       <c r="F226" s="2" t="inlineStr"/>
     </row>
@@ -17291,7 +17357,7 @@
       <c r="A227" s="30" t="n"/>
       <c r="B227" s="30" t="n"/>
       <c r="C227" s="42" t="n"/>
-      <c r="D227" s="74" t="n"/>
+      <c r="D227" s="77" t="n"/>
       <c r="E227" s="2" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr"/>
     </row>
@@ -17303,7 +17369,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D228" s="74" t="n"/>
+      <c r="D228" s="77" t="n"/>
       <c r="E228" s="2" t="inlineStr"/>
       <c r="F228" s="2" t="inlineStr"/>
     </row>
@@ -17311,7 +17377,7 @@
       <c r="A229" s="30" t="n"/>
       <c r="B229" s="30" t="n"/>
       <c r="C229" s="42" t="n"/>
-      <c r="D229" s="74" t="n"/>
+      <c r="D229" s="77" t="n"/>
       <c r="E229" s="2" t="inlineStr"/>
       <c r="F229" s="2" t="inlineStr"/>
     </row>
@@ -17323,7 +17389,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D230" s="74" t="n"/>
+      <c r="D230" s="77" t="n"/>
       <c r="E230" s="2" t="inlineStr"/>
       <c r="F230" s="2" t="inlineStr"/>
     </row>
@@ -17331,7 +17397,7 @@
       <c r="A231" s="18" t="n"/>
       <c r="B231" s="18" t="n"/>
       <c r="C231" s="18" t="n"/>
-      <c r="D231" s="74" t="n"/>
+      <c r="D231" s="77" t="n"/>
       <c r="E231" s="2" t="inlineStr"/>
       <c r="F231" s="2" t="inlineStr"/>
     </row>
@@ -17349,7 +17415,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D232" s="74" t="n"/>
+      <c r="D232" s="77" t="n"/>
       <c r="E232" s="2" t="inlineStr"/>
       <c r="F232" s="2" t="inlineStr"/>
     </row>
@@ -17357,7 +17423,7 @@
       <c r="A233" s="30" t="n"/>
       <c r="B233" s="30" t="n"/>
       <c r="C233" s="42" t="n"/>
-      <c r="D233" s="74" t="n"/>
+      <c r="D233" s="77" t="n"/>
       <c r="E233" s="2" t="inlineStr"/>
       <c r="F233" s="2" t="inlineStr"/>
     </row>
@@ -17369,7 +17435,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D234" s="74" t="n"/>
+      <c r="D234" s="77" t="n"/>
       <c r="E234" s="2" t="inlineStr"/>
       <c r="F234" s="2" t="inlineStr"/>
     </row>
@@ -17377,7 +17443,7 @@
       <c r="A235" s="30" t="n"/>
       <c r="B235" s="30" t="n"/>
       <c r="C235" s="42" t="n"/>
-      <c r="D235" s="74" t="n"/>
+      <c r="D235" s="77" t="n"/>
       <c r="E235" s="2" t="inlineStr"/>
       <c r="F235" s="2" t="inlineStr"/>
     </row>
@@ -17389,7 +17455,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D236" s="74" t="n"/>
+      <c r="D236" s="77" t="n"/>
       <c r="E236" s="2" t="inlineStr"/>
       <c r="F236" s="2" t="inlineStr"/>
     </row>
@@ -17397,7 +17463,7 @@
       <c r="A237" s="30" t="n"/>
       <c r="B237" s="30" t="n"/>
       <c r="C237" s="42" t="n"/>
-      <c r="D237" s="74" t="n"/>
+      <c r="D237" s="77" t="n"/>
       <c r="E237" s="2" t="inlineStr"/>
       <c r="F237" s="2" t="inlineStr"/>
     </row>
@@ -17409,7 +17475,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D238" s="74" t="n"/>
+      <c r="D238" s="77" t="n"/>
       <c r="E238" s="2" t="inlineStr"/>
       <c r="F238" s="2" t="inlineStr"/>
     </row>
@@ -17417,7 +17483,7 @@
       <c r="A239" s="30" t="n"/>
       <c r="B239" s="30" t="n"/>
       <c r="C239" s="42" t="n"/>
-      <c r="D239" s="74" t="n"/>
+      <c r="D239" s="77" t="n"/>
       <c r="E239" s="2" t="inlineStr"/>
       <c r="F239" s="2" t="inlineStr"/>
     </row>
@@ -17429,7 +17495,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D240" s="74" t="n"/>
+      <c r="D240" s="77" t="n"/>
       <c r="E240" s="2" t="inlineStr"/>
       <c r="F240" s="2" t="inlineStr"/>
     </row>
@@ -17437,7 +17503,7 @@
       <c r="A241" s="30" t="n"/>
       <c r="B241" s="30" t="n"/>
       <c r="C241" s="42" t="n"/>
-      <c r="D241" s="74" t="n"/>
+      <c r="D241" s="77" t="n"/>
       <c r="E241" s="2" t="inlineStr"/>
       <c r="F241" s="2" t="inlineStr"/>
     </row>
@@ -17449,7 +17515,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D242" s="74" t="n"/>
+      <c r="D242" s="77" t="n"/>
       <c r="E242" s="2" t="inlineStr"/>
       <c r="F242" s="2" t="inlineStr"/>
     </row>
@@ -17472,7 +17538,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C244" s="55" t="inlineStr">
+      <c r="C244" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -17521,7 +17587,7 @@
       </c>
       <c r="B247" s="22" t="n"/>
       <c r="C247" s="17" t="n"/>
-      <c r="D247" s="56" t="n">
+      <c r="D247" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E247" s="2" t="inlineStr"/>
@@ -17541,7 +17607,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D248" s="81" t="inlineStr">
+      <c r="D248" s="84" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
@@ -17553,7 +17619,7 @@
       <c r="A249" s="30" t="n"/>
       <c r="B249" s="30" t="n"/>
       <c r="C249" s="42" t="n"/>
-      <c r="D249" s="74" t="n"/>
+      <c r="D249" s="77" t="n"/>
       <c r="E249" s="2" t="inlineStr"/>
       <c r="F249" s="2" t="inlineStr"/>
     </row>
@@ -17565,7 +17631,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D250" s="74" t="n"/>
+      <c r="D250" s="77" t="n"/>
       <c r="E250" s="2" t="inlineStr"/>
       <c r="F250" s="2" t="inlineStr"/>
     </row>
@@ -17573,7 +17639,7 @@
       <c r="A251" s="30" t="n"/>
       <c r="B251" s="30" t="n"/>
       <c r="C251" s="42" t="n"/>
-      <c r="D251" s="74" t="n"/>
+      <c r="D251" s="77" t="n"/>
       <c r="E251" s="2" t="inlineStr"/>
       <c r="F251" s="2" t="inlineStr"/>
     </row>
@@ -17585,7 +17651,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D252" s="74" t="n"/>
+      <c r="D252" s="77" t="n"/>
       <c r="E252" s="2" t="inlineStr"/>
       <c r="F252" s="2" t="inlineStr"/>
     </row>
@@ -17593,7 +17659,7 @@
       <c r="A253" s="30" t="n"/>
       <c r="B253" s="30" t="n"/>
       <c r="C253" s="42" t="n"/>
-      <c r="D253" s="74" t="n"/>
+      <c r="D253" s="77" t="n"/>
       <c r="E253" s="2" t="inlineStr"/>
       <c r="F253" s="2" t="inlineStr"/>
     </row>
@@ -17605,7 +17671,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D254" s="74" t="n"/>
+      <c r="D254" s="77" t="n"/>
       <c r="E254" s="2" t="inlineStr"/>
       <c r="F254" s="2" t="inlineStr"/>
     </row>
@@ -17613,7 +17679,7 @@
       <c r="A255" s="30" t="n"/>
       <c r="B255" s="30" t="n"/>
       <c r="C255" s="42" t="n"/>
-      <c r="D255" s="74" t="n"/>
+      <c r="D255" s="77" t="n"/>
       <c r="E255" s="2" t="inlineStr"/>
       <c r="F255" s="2" t="inlineStr"/>
     </row>
@@ -17625,7 +17691,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D256" s="74" t="n"/>
+      <c r="D256" s="77" t="n"/>
       <c r="E256" s="2" t="inlineStr"/>
       <c r="F256" s="2" t="inlineStr"/>
     </row>
@@ -17633,7 +17699,7 @@
       <c r="A257" s="30" t="n"/>
       <c r="B257" s="30" t="n"/>
       <c r="C257" s="42" t="n"/>
-      <c r="D257" s="74" t="n"/>
+      <c r="D257" s="77" t="n"/>
       <c r="E257" s="2" t="inlineStr"/>
       <c r="F257" s="2" t="inlineStr"/>
     </row>
@@ -17645,7 +17711,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D258" s="74" t="n"/>
+      <c r="D258" s="77" t="n"/>
       <c r="E258" s="2" t="inlineStr"/>
       <c r="F258" s="2" t="inlineStr"/>
     </row>
@@ -17653,7 +17719,7 @@
       <c r="A259" s="18" t="n"/>
       <c r="B259" s="18" t="n"/>
       <c r="C259" s="18" t="n"/>
-      <c r="D259" s="74" t="n"/>
+      <c r="D259" s="77" t="n"/>
       <c r="E259" s="2" t="inlineStr"/>
       <c r="F259" s="2" t="inlineStr"/>
     </row>
@@ -17671,7 +17737,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D260" s="74" t="n"/>
+      <c r="D260" s="77" t="n"/>
       <c r="E260" s="2" t="inlineStr"/>
       <c r="F260" s="2" t="inlineStr"/>
     </row>
@@ -17679,7 +17745,7 @@
       <c r="A261" s="30" t="n"/>
       <c r="B261" s="30" t="n"/>
       <c r="C261" s="42" t="n"/>
-      <c r="D261" s="74" t="n"/>
+      <c r="D261" s="77" t="n"/>
       <c r="E261" s="2" t="inlineStr"/>
       <c r="F261" s="2" t="inlineStr"/>
     </row>
@@ -17691,7 +17757,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D262" s="74" t="n"/>
+      <c r="D262" s="77" t="n"/>
       <c r="E262" s="2" t="inlineStr"/>
       <c r="F262" s="2" t="inlineStr"/>
     </row>
@@ -17699,7 +17765,7 @@
       <c r="A263" s="30" t="n"/>
       <c r="B263" s="30" t="n"/>
       <c r="C263" s="42" t="n"/>
-      <c r="D263" s="74" t="n"/>
+      <c r="D263" s="77" t="n"/>
       <c r="E263" s="2" t="inlineStr"/>
       <c r="F263" s="2" t="inlineStr"/>
     </row>
@@ -17711,7 +17777,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D264" s="74" t="n"/>
+      <c r="D264" s="77" t="n"/>
       <c r="E264" s="2" t="inlineStr"/>
       <c r="F264" s="2" t="inlineStr"/>
     </row>
@@ -17719,7 +17785,7 @@
       <c r="A265" s="30" t="n"/>
       <c r="B265" s="30" t="n"/>
       <c r="C265" s="42" t="n"/>
-      <c r="D265" s="74" t="n"/>
+      <c r="D265" s="77" t="n"/>
       <c r="E265" s="2" t="inlineStr"/>
       <c r="F265" s="2" t="inlineStr"/>
     </row>
@@ -17731,7 +17797,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D266" s="74" t="n"/>
+      <c r="D266" s="77" t="n"/>
       <c r="E266" s="2" t="inlineStr"/>
       <c r="F266" s="2" t="inlineStr"/>
     </row>
@@ -17739,7 +17805,7 @@
       <c r="A267" s="30" t="n"/>
       <c r="B267" s="30" t="n"/>
       <c r="C267" s="42" t="n"/>
-      <c r="D267" s="74" t="n"/>
+      <c r="D267" s="77" t="n"/>
       <c r="E267" s="2" t="inlineStr"/>
       <c r="F267" s="2" t="inlineStr"/>
     </row>
@@ -17751,7 +17817,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D268" s="74" t="n"/>
+      <c r="D268" s="77" t="n"/>
       <c r="E268" s="2" t="inlineStr"/>
       <c r="F268" s="2" t="inlineStr"/>
     </row>
@@ -17759,7 +17825,7 @@
       <c r="A269" s="30" t="n"/>
       <c r="B269" s="30" t="n"/>
       <c r="C269" s="42" t="n"/>
-      <c r="D269" s="74" t="n"/>
+      <c r="D269" s="77" t="n"/>
       <c r="E269" s="2" t="inlineStr"/>
       <c r="F269" s="2" t="inlineStr"/>
     </row>
@@ -17771,7 +17837,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D270" s="74" t="n"/>
+      <c r="D270" s="77" t="n"/>
       <c r="E270" s="2" t="inlineStr"/>
       <c r="F270" s="2" t="inlineStr"/>
     </row>
@@ -17779,7 +17845,7 @@
       <c r="A271" s="18" t="n"/>
       <c r="B271" s="18" t="n"/>
       <c r="C271" s="18" t="n"/>
-      <c r="D271" s="74" t="n"/>
+      <c r="D271" s="77" t="n"/>
       <c r="E271" s="2" t="inlineStr"/>
       <c r="F271" s="2" t="inlineStr"/>
     </row>
@@ -17797,7 +17863,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D272" s="74" t="n"/>
+      <c r="D272" s="77" t="n"/>
       <c r="E272" s="2" t="inlineStr"/>
       <c r="F272" s="2" t="inlineStr"/>
     </row>
@@ -17805,7 +17871,7 @@
       <c r="A273" s="30" t="n"/>
       <c r="B273" s="30" t="n"/>
       <c r="C273" s="42" t="n"/>
-      <c r="D273" s="74" t="n"/>
+      <c r="D273" s="77" t="n"/>
       <c r="E273" s="2" t="inlineStr"/>
       <c r="F273" s="2" t="inlineStr"/>
     </row>
@@ -17817,7 +17883,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D274" s="74" t="n"/>
+      <c r="D274" s="77" t="n"/>
       <c r="E274" s="2" t="inlineStr"/>
       <c r="F274" s="2" t="inlineStr"/>
     </row>
@@ -17825,7 +17891,7 @@
       <c r="A275" s="30" t="n"/>
       <c r="B275" s="30" t="n"/>
       <c r="C275" s="42" t="n"/>
-      <c r="D275" s="74" t="n"/>
+      <c r="D275" s="77" t="n"/>
       <c r="E275" s="2" t="inlineStr"/>
       <c r="F275" s="2" t="inlineStr"/>
     </row>
@@ -17837,7 +17903,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D276" s="74" t="n"/>
+      <c r="D276" s="77" t="n"/>
       <c r="E276" s="2" t="inlineStr"/>
       <c r="F276" s="2" t="inlineStr"/>
     </row>
@@ -17845,7 +17911,7 @@
       <c r="A277" s="30" t="n"/>
       <c r="B277" s="30" t="n"/>
       <c r="C277" s="42" t="n"/>
-      <c r="D277" s="74" t="n"/>
+      <c r="D277" s="77" t="n"/>
       <c r="E277" s="2" t="inlineStr"/>
       <c r="F277" s="2" t="inlineStr"/>
     </row>
@@ -17857,7 +17923,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D278" s="74" t="n"/>
+      <c r="D278" s="77" t="n"/>
       <c r="E278" s="2" t="inlineStr"/>
       <c r="F278" s="2" t="inlineStr"/>
     </row>
@@ -17865,7 +17931,7 @@
       <c r="A279" s="30" t="n"/>
       <c r="B279" s="30" t="n"/>
       <c r="C279" s="42" t="n"/>
-      <c r="D279" s="74" t="n"/>
+      <c r="D279" s="77" t="n"/>
       <c r="E279" s="2" t="inlineStr"/>
       <c r="F279" s="2" t="inlineStr"/>
     </row>
@@ -17877,7 +17943,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D280" s="74" t="n"/>
+      <c r="D280" s="77" t="n"/>
       <c r="E280" s="2" t="inlineStr"/>
       <c r="F280" s="2" t="inlineStr"/>
     </row>
@@ -17885,7 +17951,7 @@
       <c r="A281" s="30" t="n"/>
       <c r="B281" s="30" t="n"/>
       <c r="C281" s="42" t="n"/>
-      <c r="D281" s="74" t="n"/>
+      <c r="D281" s="77" t="n"/>
       <c r="E281" s="2" t="inlineStr"/>
       <c r="F281" s="2" t="inlineStr"/>
     </row>
@@ -17897,7 +17963,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D282" s="74" t="n"/>
+      <c r="D282" s="77" t="n"/>
       <c r="E282" s="2" t="inlineStr"/>
       <c r="F282" s="2" t="inlineStr"/>
     </row>
@@ -17905,7 +17971,7 @@
       <c r="A283" s="18" t="n"/>
       <c r="B283" s="18" t="n"/>
       <c r="C283" s="18" t="n"/>
-      <c r="D283" s="74" t="n"/>
+      <c r="D283" s="77" t="n"/>
       <c r="E283" s="2" t="inlineStr"/>
       <c r="F283" s="2" t="inlineStr"/>
     </row>
@@ -17923,7 +17989,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D284" s="74" t="n"/>
+      <c r="D284" s="77" t="n"/>
       <c r="E284" s="2" t="inlineStr"/>
       <c r="F284" s="2" t="inlineStr"/>
     </row>
@@ -17931,7 +17997,7 @@
       <c r="A285" s="30" t="n"/>
       <c r="B285" s="30" t="n"/>
       <c r="C285" s="42" t="n"/>
-      <c r="D285" s="74" t="n"/>
+      <c r="D285" s="77" t="n"/>
       <c r="E285" s="2" t="inlineStr"/>
       <c r="F285" s="2" t="inlineStr"/>
     </row>
@@ -17943,7 +18009,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D286" s="74" t="n"/>
+      <c r="D286" s="77" t="n"/>
       <c r="E286" s="2" t="inlineStr"/>
       <c r="F286" s="2" t="inlineStr"/>
     </row>
@@ -17951,7 +18017,7 @@
       <c r="A287" s="30" t="n"/>
       <c r="B287" s="30" t="n"/>
       <c r="C287" s="42" t="n"/>
-      <c r="D287" s="74" t="n"/>
+      <c r="D287" s="77" t="n"/>
       <c r="E287" s="2" t="inlineStr"/>
       <c r="F287" s="2" t="inlineStr"/>
     </row>
@@ -17963,7 +18029,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D288" s="74" t="n"/>
+      <c r="D288" s="77" t="n"/>
       <c r="E288" s="2" t="inlineStr"/>
       <c r="F288" s="2" t="inlineStr"/>
     </row>
@@ -17971,7 +18037,7 @@
       <c r="A289" s="30" t="n"/>
       <c r="B289" s="30" t="n"/>
       <c r="C289" s="42" t="n"/>
-      <c r="D289" s="74" t="n"/>
+      <c r="D289" s="77" t="n"/>
       <c r="E289" s="2" t="inlineStr"/>
       <c r="F289" s="2" t="inlineStr"/>
     </row>
@@ -17983,7 +18049,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D290" s="74" t="n"/>
+      <c r="D290" s="77" t="n"/>
       <c r="E290" s="2" t="inlineStr"/>
       <c r="F290" s="2" t="inlineStr"/>
     </row>
@@ -17991,7 +18057,7 @@
       <c r="A291" s="30" t="n"/>
       <c r="B291" s="30" t="n"/>
       <c r="C291" s="42" t="n"/>
-      <c r="D291" s="74" t="n"/>
+      <c r="D291" s="77" t="n"/>
       <c r="E291" s="2" t="inlineStr"/>
       <c r="F291" s="2" t="inlineStr"/>
     </row>
@@ -18003,7 +18069,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D292" s="74" t="n"/>
+      <c r="D292" s="77" t="n"/>
       <c r="E292" s="2" t="inlineStr"/>
       <c r="F292" s="2" t="inlineStr"/>
     </row>
@@ -18011,7 +18077,7 @@
       <c r="A293" s="30" t="n"/>
       <c r="B293" s="30" t="n"/>
       <c r="C293" s="42" t="n"/>
-      <c r="D293" s="74" t="n"/>
+      <c r="D293" s="77" t="n"/>
       <c r="E293" s="2" t="inlineStr"/>
       <c r="F293" s="2" t="inlineStr"/>
     </row>
@@ -18023,7 +18089,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D294" s="74" t="n"/>
+      <c r="D294" s="77" t="n"/>
       <c r="E294" s="2" t="inlineStr"/>
       <c r="F294" s="2" t="inlineStr"/>
     </row>
@@ -18031,7 +18097,7 @@
       <c r="A295" s="18" t="n"/>
       <c r="B295" s="18" t="n"/>
       <c r="C295" s="18" t="n"/>
-      <c r="D295" s="74" t="n"/>
+      <c r="D295" s="77" t="n"/>
       <c r="E295" s="2" t="inlineStr"/>
       <c r="F295" s="2" t="inlineStr"/>
     </row>
@@ -18049,7 +18115,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D296" s="74" t="n"/>
+      <c r="D296" s="77" t="n"/>
       <c r="E296" s="2" t="inlineStr"/>
       <c r="F296" s="2" t="inlineStr"/>
     </row>
@@ -18057,7 +18123,7 @@
       <c r="A297" s="30" t="n"/>
       <c r="B297" s="30" t="n"/>
       <c r="C297" s="42" t="n"/>
-      <c r="D297" s="74" t="n"/>
+      <c r="D297" s="77" t="n"/>
       <c r="E297" s="2" t="inlineStr"/>
       <c r="F297" s="2" t="inlineStr"/>
     </row>
@@ -18069,7 +18135,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D298" s="74" t="n"/>
+      <c r="D298" s="77" t="n"/>
       <c r="E298" s="2" t="inlineStr"/>
       <c r="F298" s="2" t="inlineStr"/>
     </row>
@@ -18077,7 +18143,7 @@
       <c r="A299" s="30" t="n"/>
       <c r="B299" s="30" t="n"/>
       <c r="C299" s="42" t="n"/>
-      <c r="D299" s="74" t="n"/>
+      <c r="D299" s="77" t="n"/>
       <c r="E299" s="2" t="inlineStr"/>
       <c r="F299" s="2" t="inlineStr"/>
     </row>
@@ -18089,7 +18155,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D300" s="74" t="n"/>
+      <c r="D300" s="77" t="n"/>
       <c r="E300" s="2" t="inlineStr"/>
       <c r="F300" s="2" t="inlineStr"/>
     </row>
@@ -18097,7 +18163,7 @@
       <c r="A301" s="30" t="n"/>
       <c r="B301" s="30" t="n"/>
       <c r="C301" s="42" t="n"/>
-      <c r="D301" s="74" t="n"/>
+      <c r="D301" s="77" t="n"/>
       <c r="E301" s="2" t="inlineStr"/>
       <c r="F301" s="2" t="inlineStr"/>
     </row>
@@ -18109,7 +18175,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D302" s="74" t="n"/>
+      <c r="D302" s="77" t="n"/>
       <c r="E302" s="2" t="inlineStr"/>
       <c r="F302" s="2" t="inlineStr"/>
     </row>
@@ -18117,7 +18183,7 @@
       <c r="A303" s="30" t="n"/>
       <c r="B303" s="30" t="n"/>
       <c r="C303" s="42" t="n"/>
-      <c r="D303" s="74" t="n"/>
+      <c r="D303" s="77" t="n"/>
       <c r="E303" s="2" t="inlineStr"/>
       <c r="F303" s="2" t="inlineStr"/>
     </row>
@@ -18129,7 +18195,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D304" s="74" t="n"/>
+      <c r="D304" s="77" t="n"/>
       <c r="E304" s="2" t="inlineStr"/>
       <c r="F304" s="2" t="inlineStr"/>
     </row>
@@ -18137,7 +18203,7 @@
       <c r="A305" s="30" t="n"/>
       <c r="B305" s="30" t="n"/>
       <c r="C305" s="42" t="n"/>
-      <c r="D305" s="74" t="n"/>
+      <c r="D305" s="77" t="n"/>
       <c r="E305" s="2" t="inlineStr"/>
       <c r="F305" s="2" t="inlineStr"/>
     </row>
@@ -18149,7 +18215,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D306" s="74" t="n"/>
+      <c r="D306" s="77" t="n"/>
       <c r="E306" s="2" t="inlineStr"/>
       <c r="F306" s="2" t="inlineStr"/>
     </row>
@@ -18157,7 +18223,7 @@
       <c r="A307" s="18" t="n"/>
       <c r="B307" s="18" t="n"/>
       <c r="C307" s="18" t="n"/>
-      <c r="D307" s="74" t="n"/>
+      <c r="D307" s="77" t="n"/>
       <c r="E307" s="2" t="inlineStr"/>
       <c r="F307" s="2" t="inlineStr"/>
     </row>
@@ -18175,7 +18241,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D308" s="74" t="n"/>
+      <c r="D308" s="77" t="n"/>
       <c r="E308" s="2" t="inlineStr"/>
       <c r="F308" s="2" t="inlineStr"/>
     </row>
@@ -18183,7 +18249,7 @@
       <c r="A309" s="30" t="n"/>
       <c r="B309" s="30" t="n"/>
       <c r="C309" s="42" t="n"/>
-      <c r="D309" s="74" t="n"/>
+      <c r="D309" s="77" t="n"/>
       <c r="E309" s="2" t="inlineStr"/>
       <c r="F309" s="2" t="inlineStr"/>
     </row>
@@ -18195,7 +18261,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D310" s="74" t="n"/>
+      <c r="D310" s="77" t="n"/>
       <c r="E310" s="2" t="inlineStr"/>
       <c r="F310" s="2" t="inlineStr"/>
     </row>
@@ -18203,7 +18269,7 @@
       <c r="A311" s="30" t="n"/>
       <c r="B311" s="30" t="n"/>
       <c r="C311" s="42" t="n"/>
-      <c r="D311" s="74" t="n"/>
+      <c r="D311" s="77" t="n"/>
       <c r="E311" s="2" t="inlineStr"/>
       <c r="F311" s="2" t="inlineStr"/>
     </row>
@@ -18215,7 +18281,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D312" s="74" t="n"/>
+      <c r="D312" s="77" t="n"/>
       <c r="E312" s="2" t="inlineStr"/>
       <c r="F312" s="2" t="inlineStr"/>
     </row>
@@ -18223,7 +18289,7 @@
       <c r="A313" s="30" t="n"/>
       <c r="B313" s="30" t="n"/>
       <c r="C313" s="42" t="n"/>
-      <c r="D313" s="74" t="n"/>
+      <c r="D313" s="77" t="n"/>
       <c r="E313" s="2" t="inlineStr"/>
       <c r="F313" s="2" t="inlineStr"/>
     </row>
@@ -18235,7 +18301,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D314" s="74" t="n"/>
+      <c r="D314" s="77" t="n"/>
       <c r="E314" s="2" t="inlineStr"/>
       <c r="F314" s="2" t="inlineStr"/>
     </row>
@@ -18243,7 +18309,7 @@
       <c r="A315" s="30" t="n"/>
       <c r="B315" s="30" t="n"/>
       <c r="C315" s="42" t="n"/>
-      <c r="D315" s="74" t="n"/>
+      <c r="D315" s="77" t="n"/>
       <c r="E315" s="2" t="inlineStr"/>
       <c r="F315" s="2" t="inlineStr"/>
     </row>
@@ -18255,7 +18321,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D316" s="74" t="n"/>
+      <c r="D316" s="77" t="n"/>
       <c r="E316" s="2" t="inlineStr"/>
       <c r="F316" s="2" t="inlineStr"/>
     </row>
@@ -18263,7 +18329,7 @@
       <c r="A317" s="30" t="n"/>
       <c r="B317" s="30" t="n"/>
       <c r="C317" s="42" t="n"/>
-      <c r="D317" s="74" t="n"/>
+      <c r="D317" s="77" t="n"/>
       <c r="E317" s="2" t="inlineStr"/>
       <c r="F317" s="2" t="inlineStr"/>
     </row>
@@ -18275,7 +18341,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D318" s="74" t="n"/>
+      <c r="D318" s="77" t="n"/>
       <c r="E318" s="2" t="inlineStr"/>
       <c r="F318" s="2" t="inlineStr"/>
     </row>
@@ -18298,7 +18364,7 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C320" s="55" t="inlineStr">
+      <c r="C320" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
@@ -18347,7 +18413,7 @@
       </c>
       <c r="B323" s="22" t="n"/>
       <c r="C323" s="17" t="n"/>
-      <c r="D323" s="56" t="n">
+      <c r="D323" s="59" t="n">
         <v>20</v>
       </c>
       <c r="E323" s="2" t="inlineStr"/>
@@ -18367,7 +18433,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D324" s="81" t="inlineStr">
+      <c r="D324" s="84" t="inlineStr">
         <is>
           <t>Практика</t>
         </is>
@@ -18379,7 +18445,7 @@
       <c r="A325" s="30" t="n"/>
       <c r="B325" s="30" t="n"/>
       <c r="C325" s="42" t="n"/>
-      <c r="D325" s="74" t="n"/>
+      <c r="D325" s="77" t="n"/>
       <c r="E325" s="2" t="inlineStr"/>
       <c r="F325" s="2" t="inlineStr"/>
     </row>
@@ -18391,7 +18457,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D326" s="74" t="n"/>
+      <c r="D326" s="77" t="n"/>
       <c r="E326" s="2" t="inlineStr"/>
       <c r="F326" s="2" t="inlineStr"/>
     </row>
@@ -18399,7 +18465,7 @@
       <c r="A327" s="30" t="n"/>
       <c r="B327" s="30" t="n"/>
       <c r="C327" s="42" t="n"/>
-      <c r="D327" s="74" t="n"/>
+      <c r="D327" s="77" t="n"/>
       <c r="E327" s="2" t="inlineStr"/>
       <c r="F327" s="2" t="inlineStr"/>
     </row>
@@ -18411,7 +18477,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D328" s="74" t="n"/>
+      <c r="D328" s="77" t="n"/>
       <c r="E328" s="2" t="inlineStr"/>
       <c r="F328" s="2" t="inlineStr"/>
     </row>
@@ -18419,7 +18485,7 @@
       <c r="A329" s="30" t="n"/>
       <c r="B329" s="30" t="n"/>
       <c r="C329" s="42" t="n"/>
-      <c r="D329" s="74" t="n"/>
+      <c r="D329" s="77" t="n"/>
       <c r="E329" s="2" t="inlineStr"/>
       <c r="F329" s="2" t="inlineStr"/>
     </row>
@@ -18431,7 +18497,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D330" s="74" t="n"/>
+      <c r="D330" s="77" t="n"/>
       <c r="E330" s="2" t="inlineStr"/>
       <c r="F330" s="2" t="inlineStr"/>
     </row>
@@ -18439,7 +18505,7 @@
       <c r="A331" s="30" t="n"/>
       <c r="B331" s="30" t="n"/>
       <c r="C331" s="42" t="n"/>
-      <c r="D331" s="74" t="n"/>
+      <c r="D331" s="77" t="n"/>
       <c r="E331" s="2" t="inlineStr"/>
       <c r="F331" s="2" t="inlineStr"/>
     </row>
@@ -18451,7 +18517,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D332" s="74" t="n"/>
+      <c r="D332" s="77" t="n"/>
       <c r="E332" s="2" t="inlineStr"/>
       <c r="F332" s="2" t="inlineStr"/>
     </row>
@@ -18459,7 +18525,7 @@
       <c r="A333" s="30" t="n"/>
       <c r="B333" s="30" t="n"/>
       <c r="C333" s="42" t="n"/>
-      <c r="D333" s="74" t="n"/>
+      <c r="D333" s="77" t="n"/>
       <c r="E333" s="2" t="inlineStr"/>
       <c r="F333" s="2" t="inlineStr"/>
     </row>
@@ -18471,7 +18537,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D334" s="74" t="n"/>
+      <c r="D334" s="77" t="n"/>
       <c r="E334" s="2" t="inlineStr"/>
       <c r="F334" s="2" t="inlineStr"/>
     </row>
@@ -18479,7 +18545,7 @@
       <c r="A335" s="18" t="n"/>
       <c r="B335" s="18" t="n"/>
       <c r="C335" s="18" t="n"/>
-      <c r="D335" s="74" t="n"/>
+      <c r="D335" s="77" t="n"/>
       <c r="E335" s="2" t="inlineStr"/>
       <c r="F335" s="2" t="inlineStr"/>
     </row>
@@ -18497,7 +18563,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D336" s="74" t="n"/>
+      <c r="D336" s="77" t="n"/>
       <c r="E336" s="2" t="inlineStr"/>
       <c r="F336" s="2" t="inlineStr"/>
     </row>
@@ -18505,7 +18571,7 @@
       <c r="A337" s="30" t="n"/>
       <c r="B337" s="30" t="n"/>
       <c r="C337" s="42" t="n"/>
-      <c r="D337" s="74" t="n"/>
+      <c r="D337" s="77" t="n"/>
       <c r="E337" s="2" t="inlineStr"/>
       <c r="F337" s="2" t="inlineStr"/>
     </row>
@@ -18517,7 +18583,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D338" s="74" t="n"/>
+      <c r="D338" s="77" t="n"/>
       <c r="E338" s="2" t="inlineStr"/>
       <c r="F338" s="2" t="inlineStr"/>
     </row>
@@ -18525,7 +18591,7 @@
       <c r="A339" s="30" t="n"/>
       <c r="B339" s="30" t="n"/>
       <c r="C339" s="42" t="n"/>
-      <c r="D339" s="74" t="n"/>
+      <c r="D339" s="77" t="n"/>
       <c r="E339" s="2" t="inlineStr"/>
       <c r="F339" s="2" t="inlineStr"/>
     </row>
@@ -18537,7 +18603,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D340" s="74" t="n"/>
+      <c r="D340" s="77" t="n"/>
       <c r="E340" s="2" t="inlineStr"/>
       <c r="F340" s="2" t="inlineStr"/>
     </row>
@@ -18545,7 +18611,7 @@
       <c r="A341" s="30" t="n"/>
       <c r="B341" s="30" t="n"/>
       <c r="C341" s="42" t="n"/>
-      <c r="D341" s="74" t="n"/>
+      <c r="D341" s="77" t="n"/>
       <c r="E341" s="2" t="inlineStr"/>
       <c r="F341" s="2" t="inlineStr"/>
     </row>
@@ -18557,7 +18623,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D342" s="74" t="n"/>
+      <c r="D342" s="77" t="n"/>
       <c r="E342" s="2" t="inlineStr"/>
       <c r="F342" s="2" t="inlineStr"/>
     </row>
@@ -18565,7 +18631,7 @@
       <c r="A343" s="30" t="n"/>
       <c r="B343" s="30" t="n"/>
       <c r="C343" s="42" t="n"/>
-      <c r="D343" s="74" t="n"/>
+      <c r="D343" s="77" t="n"/>
       <c r="E343" s="2" t="inlineStr"/>
       <c r="F343" s="2" t="inlineStr"/>
     </row>
@@ -18577,7 +18643,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D344" s="74" t="n"/>
+      <c r="D344" s="77" t="n"/>
       <c r="E344" s="2" t="inlineStr"/>
       <c r="F344" s="2" t="inlineStr"/>
     </row>
@@ -18585,7 +18651,7 @@
       <c r="A345" s="30" t="n"/>
       <c r="B345" s="30" t="n"/>
       <c r="C345" s="42" t="n"/>
-      <c r="D345" s="74" t="n"/>
+      <c r="D345" s="77" t="n"/>
       <c r="E345" s="2" t="inlineStr"/>
       <c r="F345" s="2" t="inlineStr"/>
     </row>
@@ -18597,7 +18663,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D346" s="74" t="n"/>
+      <c r="D346" s="77" t="n"/>
       <c r="E346" s="2" t="inlineStr"/>
       <c r="F346" s="2" t="inlineStr"/>
     </row>
@@ -18605,7 +18671,7 @@
       <c r="A347" s="18" t="n"/>
       <c r="B347" s="18" t="n"/>
       <c r="C347" s="18" t="n"/>
-      <c r="D347" s="74" t="n"/>
+      <c r="D347" s="77" t="n"/>
       <c r="E347" s="2" t="inlineStr"/>
       <c r="F347" s="2" t="inlineStr"/>
     </row>
@@ -18623,7 +18689,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D348" s="74" t="n"/>
+      <c r="D348" s="77" t="n"/>
       <c r="E348" s="2" t="inlineStr"/>
       <c r="F348" s="2" t="inlineStr"/>
     </row>
@@ -18631,7 +18697,7 @@
       <c r="A349" s="30" t="n"/>
       <c r="B349" s="30" t="n"/>
       <c r="C349" s="42" t="n"/>
-      <c r="D349" s="74" t="n"/>
+      <c r="D349" s="77" t="n"/>
       <c r="E349" s="2" t="inlineStr"/>
       <c r="F349" s="2" t="inlineStr"/>
     </row>
@@ -18643,7 +18709,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D350" s="74" t="n"/>
+      <c r="D350" s="77" t="n"/>
       <c r="E350" s="2" t="inlineStr"/>
       <c r="F350" s="2" t="inlineStr"/>
     </row>
@@ -18651,7 +18717,7 @@
       <c r="A351" s="30" t="n"/>
       <c r="B351" s="30" t="n"/>
       <c r="C351" s="42" t="n"/>
-      <c r="D351" s="74" t="n"/>
+      <c r="D351" s="77" t="n"/>
       <c r="E351" s="2" t="inlineStr"/>
       <c r="F351" s="2" t="inlineStr"/>
     </row>
@@ -18663,7 +18729,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D352" s="74" t="n"/>
+      <c r="D352" s="77" t="n"/>
       <c r="E352" s="2" t="inlineStr"/>
       <c r="F352" s="2" t="inlineStr"/>
     </row>
@@ -18671,7 +18737,7 @@
       <c r="A353" s="30" t="n"/>
       <c r="B353" s="30" t="n"/>
       <c r="C353" s="42" t="n"/>
-      <c r="D353" s="74" t="n"/>
+      <c r="D353" s="77" t="n"/>
       <c r="E353" s="2" t="inlineStr"/>
       <c r="F353" s="2" t="inlineStr"/>
     </row>
@@ -18683,7 +18749,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D354" s="74" t="n"/>
+      <c r="D354" s="77" t="n"/>
       <c r="E354" s="2" t="inlineStr"/>
       <c r="F354" s="2" t="inlineStr"/>
     </row>
@@ -18691,7 +18757,7 @@
       <c r="A355" s="30" t="n"/>
       <c r="B355" s="30" t="n"/>
       <c r="C355" s="42" t="n"/>
-      <c r="D355" s="74" t="n"/>
+      <c r="D355" s="77" t="n"/>
       <c r="E355" s="2" t="inlineStr"/>
       <c r="F355" s="2" t="inlineStr"/>
     </row>
@@ -18703,7 +18769,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D356" s="74" t="n"/>
+      <c r="D356" s="77" t="n"/>
       <c r="E356" s="2" t="inlineStr"/>
       <c r="F356" s="2" t="inlineStr"/>
     </row>
@@ -18711,7 +18777,7 @@
       <c r="A357" s="30" t="n"/>
       <c r="B357" s="30" t="n"/>
       <c r="C357" s="42" t="n"/>
-      <c r="D357" s="74" t="n"/>
+      <c r="D357" s="77" t="n"/>
       <c r="E357" s="2" t="inlineStr"/>
       <c r="F357" s="2" t="inlineStr"/>
     </row>
@@ -18723,7 +18789,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D358" s="74" t="n"/>
+      <c r="D358" s="77" t="n"/>
       <c r="E358" s="2" t="inlineStr"/>
       <c r="F358" s="2" t="inlineStr"/>
     </row>
@@ -18731,7 +18797,7 @@
       <c r="A359" s="18" t="n"/>
       <c r="B359" s="18" t="n"/>
       <c r="C359" s="18" t="n"/>
-      <c r="D359" s="74" t="n"/>
+      <c r="D359" s="77" t="n"/>
       <c r="E359" s="2" t="inlineStr"/>
       <c r="F359" s="2" t="inlineStr"/>
     </row>
@@ -18749,7 +18815,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D360" s="74" t="n"/>
+      <c r="D360" s="77" t="n"/>
       <c r="E360" s="2" t="inlineStr"/>
       <c r="F360" s="2" t="inlineStr"/>
     </row>
@@ -18757,7 +18823,7 @@
       <c r="A361" s="30" t="n"/>
       <c r="B361" s="30" t="n"/>
       <c r="C361" s="42" t="n"/>
-      <c r="D361" s="74" t="n"/>
+      <c r="D361" s="77" t="n"/>
       <c r="E361" s="2" t="inlineStr"/>
       <c r="F361" s="2" t="inlineStr"/>
     </row>
@@ -18769,7 +18835,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D362" s="74" t="n"/>
+      <c r="D362" s="77" t="n"/>
       <c r="E362" s="2" t="inlineStr"/>
       <c r="F362" s="2" t="inlineStr"/>
     </row>
@@ -18777,7 +18843,7 @@
       <c r="A363" s="30" t="n"/>
       <c r="B363" s="30" t="n"/>
       <c r="C363" s="42" t="n"/>
-      <c r="D363" s="74" t="n"/>
+      <c r="D363" s="77" t="n"/>
       <c r="E363" s="2" t="inlineStr"/>
       <c r="F363" s="2" t="inlineStr"/>
     </row>
@@ -18789,7 +18855,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D364" s="74" t="n"/>
+      <c r="D364" s="77" t="n"/>
       <c r="E364" s="2" t="inlineStr"/>
       <c r="F364" s="2" t="inlineStr"/>
     </row>
@@ -18797,7 +18863,7 @@
       <c r="A365" s="30" t="n"/>
       <c r="B365" s="30" t="n"/>
       <c r="C365" s="42" t="n"/>
-      <c r="D365" s="74" t="n"/>
+      <c r="D365" s="77" t="n"/>
       <c r="E365" s="2" t="inlineStr"/>
       <c r="F365" s="2" t="inlineStr"/>
     </row>
@@ -18809,7 +18875,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D366" s="74" t="n"/>
+      <c r="D366" s="77" t="n"/>
       <c r="E366" s="2" t="inlineStr"/>
       <c r="F366" s="2" t="inlineStr"/>
     </row>
@@ -18817,7 +18883,7 @@
       <c r="A367" s="30" t="n"/>
       <c r="B367" s="30" t="n"/>
       <c r="C367" s="42" t="n"/>
-      <c r="D367" s="74" t="n"/>
+      <c r="D367" s="77" t="n"/>
       <c r="E367" s="2" t="inlineStr"/>
       <c r="F367" s="2" t="inlineStr"/>
     </row>
@@ -18829,7 +18895,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D368" s="74" t="n"/>
+      <c r="D368" s="77" t="n"/>
       <c r="E368" s="2" t="inlineStr"/>
       <c r="F368" s="2" t="inlineStr"/>
     </row>
@@ -18837,7 +18903,7 @@
       <c r="A369" s="30" t="n"/>
       <c r="B369" s="30" t="n"/>
       <c r="C369" s="42" t="n"/>
-      <c r="D369" s="74" t="n"/>
+      <c r="D369" s="77" t="n"/>
       <c r="E369" s="2" t="inlineStr"/>
       <c r="F369" s="2" t="inlineStr"/>
     </row>
@@ -18849,7 +18915,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D370" s="74" t="n"/>
+      <c r="D370" s="77" t="n"/>
       <c r="E370" s="2" t="inlineStr"/>
       <c r="F370" s="2" t="inlineStr"/>
     </row>
@@ -18857,7 +18923,7 @@
       <c r="A371" s="18" t="n"/>
       <c r="B371" s="18" t="n"/>
       <c r="C371" s="18" t="n"/>
-      <c r="D371" s="74" t="n"/>
+      <c r="D371" s="77" t="n"/>
       <c r="E371" s="2" t="inlineStr"/>
       <c r="F371" s="2" t="inlineStr"/>
     </row>
@@ -18875,7 +18941,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D372" s="74" t="n"/>
+      <c r="D372" s="77" t="n"/>
       <c r="E372" s="2" t="inlineStr"/>
       <c r="F372" s="2" t="inlineStr"/>
     </row>
@@ -18883,7 +18949,7 @@
       <c r="A373" s="30" t="n"/>
       <c r="B373" s="30" t="n"/>
       <c r="C373" s="42" t="n"/>
-      <c r="D373" s="74" t="n"/>
+      <c r="D373" s="77" t="n"/>
       <c r="E373" s="2" t="inlineStr"/>
       <c r="F373" s="2" t="inlineStr"/>
     </row>
@@ -18895,7 +18961,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D374" s="74" t="n"/>
+      <c r="D374" s="77" t="n"/>
       <c r="E374" s="2" t="inlineStr"/>
       <c r="F374" s="2" t="inlineStr"/>
     </row>
@@ -18903,7 +18969,7 @@
       <c r="A375" s="30" t="n"/>
       <c r="B375" s="30" t="n"/>
       <c r="C375" s="42" t="n"/>
-      <c r="D375" s="74" t="n"/>
+      <c r="D375" s="77" t="n"/>
       <c r="E375" s="2" t="inlineStr"/>
       <c r="F375" s="2" t="inlineStr"/>
     </row>
@@ -18915,7 +18981,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D376" s="74" t="n"/>
+      <c r="D376" s="77" t="n"/>
       <c r="E376" s="2" t="inlineStr"/>
       <c r="F376" s="2" t="inlineStr"/>
     </row>
@@ -18923,7 +18989,7 @@
       <c r="A377" s="30" t="n"/>
       <c r="B377" s="30" t="n"/>
       <c r="C377" s="42" t="n"/>
-      <c r="D377" s="74" t="n"/>
+      <c r="D377" s="77" t="n"/>
       <c r="E377" s="2" t="inlineStr"/>
       <c r="F377" s="2" t="inlineStr"/>
     </row>
@@ -18935,7 +19001,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D378" s="74" t="n"/>
+      <c r="D378" s="77" t="n"/>
       <c r="E378" s="2" t="inlineStr"/>
       <c r="F378" s="2" t="inlineStr"/>
     </row>
@@ -18943,7 +19009,7 @@
       <c r="A379" s="30" t="n"/>
       <c r="B379" s="30" t="n"/>
       <c r="C379" s="42" t="n"/>
-      <c r="D379" s="74" t="n"/>
+      <c r="D379" s="77" t="n"/>
       <c r="E379" s="2" t="inlineStr"/>
       <c r="F379" s="2" t="inlineStr"/>
     </row>
@@ -18955,7 +19021,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D380" s="74" t="n"/>
+      <c r="D380" s="77" t="n"/>
       <c r="E380" s="2" t="inlineStr"/>
       <c r="F380" s="2" t="inlineStr"/>
     </row>
@@ -18963,7 +19029,7 @@
       <c r="A381" s="30" t="n"/>
       <c r="B381" s="30" t="n"/>
       <c r="C381" s="42" t="n"/>
-      <c r="D381" s="74" t="n"/>
+      <c r="D381" s="77" t="n"/>
       <c r="E381" s="2" t="inlineStr"/>
       <c r="F381" s="2" t="inlineStr"/>
     </row>
@@ -18975,7 +19041,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D382" s="74" t="n"/>
+      <c r="D382" s="77" t="n"/>
       <c r="E382" s="2" t="inlineStr"/>
       <c r="F382" s="2" t="inlineStr"/>
     </row>
@@ -18983,7 +19049,7 @@
       <c r="A383" s="18" t="n"/>
       <c r="B383" s="18" t="n"/>
       <c r="C383" s="18" t="n"/>
-      <c r="D383" s="74" t="n"/>
+      <c r="D383" s="77" t="n"/>
       <c r="E383" s="2" t="inlineStr"/>
       <c r="F383" s="2" t="inlineStr"/>
     </row>
@@ -19001,7 +19067,7 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D384" s="74" t="n"/>
+      <c r="D384" s="77" t="n"/>
       <c r="E384" s="2" t="inlineStr"/>
       <c r="F384" s="2" t="inlineStr"/>
     </row>
@@ -19009,7 +19075,7 @@
       <c r="A385" s="30" t="n"/>
       <c r="B385" s="30" t="n"/>
       <c r="C385" s="42" t="n"/>
-      <c r="D385" s="74" t="n"/>
+      <c r="D385" s="77" t="n"/>
       <c r="E385" s="2" t="inlineStr"/>
       <c r="F385" s="2" t="inlineStr"/>
     </row>
@@ -19021,7 +19087,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D386" s="74" t="n"/>
+      <c r="D386" s="77" t="n"/>
       <c r="E386" s="2" t="inlineStr"/>
       <c r="F386" s="2" t="inlineStr"/>
     </row>
@@ -19029,7 +19095,7 @@
       <c r="A387" s="30" t="n"/>
       <c r="B387" s="30" t="n"/>
       <c r="C387" s="42" t="n"/>
-      <c r="D387" s="74" t="n"/>
+      <c r="D387" s="77" t="n"/>
       <c r="E387" s="2" t="inlineStr"/>
       <c r="F387" s="2" t="inlineStr"/>
     </row>
@@ -19041,7 +19107,7 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D388" s="74" t="n"/>
+      <c r="D388" s="77" t="n"/>
       <c r="E388" s="2" t="inlineStr"/>
       <c r="F388" s="2" t="inlineStr"/>
     </row>
@@ -19049,7 +19115,7 @@
       <c r="A389" s="30" t="n"/>
       <c r="B389" s="30" t="n"/>
       <c r="C389" s="42" t="n"/>
-      <c r="D389" s="74" t="n"/>
+      <c r="D389" s="77" t="n"/>
       <c r="E389" s="2" t="inlineStr"/>
       <c r="F389" s="2" t="inlineStr"/>
     </row>
@@ -19061,7 +19127,7 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D390" s="74" t="n"/>
+      <c r="D390" s="77" t="n"/>
       <c r="E390" s="2" t="inlineStr"/>
       <c r="F390" s="2" t="inlineStr"/>
     </row>
@@ -19069,7 +19135,7 @@
       <c r="A391" s="30" t="n"/>
       <c r="B391" s="30" t="n"/>
       <c r="C391" s="42" t="n"/>
-      <c r="D391" s="74" t="n"/>
+      <c r="D391" s="77" t="n"/>
       <c r="E391" s="2" t="inlineStr"/>
       <c r="F391" s="2" t="inlineStr"/>
     </row>
@@ -19081,7 +19147,7 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D392" s="74" t="n"/>
+      <c r="D392" s="77" t="n"/>
       <c r="E392" s="2" t="inlineStr"/>
       <c r="F392" s="2" t="inlineStr"/>
     </row>
@@ -19089,7 +19155,7 @@
       <c r="A393" s="30" t="n"/>
       <c r="B393" s="30" t="n"/>
       <c r="C393" s="42" t="n"/>
-      <c r="D393" s="74" t="n"/>
+      <c r="D393" s="77" t="n"/>
       <c r="E393" s="2" t="inlineStr"/>
       <c r="F393" s="2" t="inlineStr"/>
     </row>
@@ -19101,7 +19167,7 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D394" s="74" t="n"/>
+      <c r="D394" s="77" t="n"/>
       <c r="E394" s="2" t="inlineStr"/>
       <c r="F394" s="2" t="inlineStr"/>
     </row>
@@ -19452,7 +19518,7 @@
       <c r="A7" s="1" t="inlineStr"/>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="82" t="inlineStr">
+      <c r="D7" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">                    УТВЕРЖДАЮ</t>
         </is>
@@ -19462,7 +19528,7 @@
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="82" t="inlineStr">
+      <c r="D8" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">                                  Проректор по учебной работе </t>
         </is>
@@ -19472,7 +19538,7 @@
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="82" t="inlineStr">
+      <c r="D9" s="85" t="inlineStr">
         <is>
           <t>Мансуров Р.Е.</t>
         </is>
@@ -19482,7 +19548,7 @@
       <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" s="1" t="inlineStr"/>
-      <c r="D10" s="83" t="inlineStr">
+      <c r="D10" s="86" t="inlineStr">
         <is>
           <t>"25 "  августа 2023 г.</t>
         </is>
@@ -19526,7 +19592,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr"/>
       <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="84" t="inlineStr">
+      <c r="D14" s="87" t="inlineStr">
         <is>
           <t>3 курс СПО</t>
         </is>
@@ -19543,12 +19609,12 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C15" s="55" t="inlineStr">
+      <c r="C15" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="D15" s="85" t="inlineStr">
+      <c r="D15" s="88" t="inlineStr">
         <is>
           <t>15 неделя</t>
         </is>
@@ -19572,7 +19638,7 @@
       </c>
       <c r="B17" s="22" t="n"/>
       <c r="C17" s="17" t="n"/>
-      <c r="D17" s="86" t="inlineStr">
+      <c r="D17" s="89" t="inlineStr">
         <is>
           <t>Пи</t>
         </is>
@@ -19586,7 +19652,7 @@
       </c>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="17" t="n"/>
-      <c r="D18" s="56" t="n">
+      <c r="D18" s="59" t="n">
         <v>17</v>
       </c>
     </row>
@@ -19604,13 +19670,13 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D19" s="87" t="inlineStr"/>
+      <c r="D19" s="90" t="inlineStr"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="30" t="n"/>
       <c r="C20" s="42" t="n"/>
-      <c r="D20" s="88" t="inlineStr"/>
+      <c r="D20" s="91" t="inlineStr"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="30" t="n"/>
@@ -19620,7 +19686,7 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D21" s="89" t="inlineStr">
+      <c r="D21" s="92" t="inlineStr">
         <is>
           <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
         </is>
@@ -19630,7 +19696,7 @@
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="30" t="n"/>
       <c r="C22" s="42" t="n"/>
-      <c r="D22" s="90" t="inlineStr">
+      <c r="D22" s="93" t="inlineStr">
         <is>
           <t>декан Зайцев С.А.. ауд. 505</t>
         </is>
@@ -19644,13 +19710,13 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D23" s="89" t="inlineStr"/>
+      <c r="D23" s="92" t="inlineStr"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="30" t="n"/>
       <c r="C24" s="42" t="n"/>
-      <c r="D24" s="91" t="inlineStr"/>
+      <c r="D24" s="94" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="30" t="n"/>
@@ -19660,13 +19726,13 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D25" s="89" t="inlineStr"/>
+      <c r="D25" s="92" t="inlineStr"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="30" t="n"/>
       <c r="B26" s="30" t="n"/>
       <c r="C26" s="42" t="n"/>
-      <c r="D26" s="92" t="inlineStr"/>
+      <c r="D26" s="95" t="inlineStr"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="30" t="n"/>
@@ -19676,13 +19742,13 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D27" s="89" t="inlineStr"/>
+      <c r="D27" s="92" t="inlineStr"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="30" t="n"/>
       <c r="C28" s="42" t="n"/>
-      <c r="D28" s="91" t="inlineStr"/>
+      <c r="D28" s="94" t="inlineStr"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="30" t="n"/>
@@ -19692,13 +19758,13 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D29" s="89" t="inlineStr"/>
+      <c r="D29" s="92" t="inlineStr"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="18" t="n"/>
       <c r="B30" s="18" t="n"/>
       <c r="C30" s="18" t="n"/>
-      <c r="D30" s="93" t="inlineStr"/>
+      <c r="D30" s="96" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -19874,7 +19940,7 @@
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
-      <c r="F13" s="94" t="inlineStr">
+      <c r="F13" s="97" t="inlineStr">
         <is>
           <t>4 курс</t>
         </is>
@@ -19903,12 +19969,12 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="C15" s="55" t="inlineStr">
+      <c r="C15" s="58" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="D15" s="95" t="inlineStr">
+      <c r="D15" s="98" t="inlineStr">
         <is>
           <t>15 неделя</t>
         </is>
@@ -19981,7 +20047,7 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="25" t="inlineStr">
         <is>
-          <t>понедельник</t>
+          <t>пятница</t>
         </is>
       </c>
       <c r="B19" s="26" t="n">
@@ -19992,17 +20058,17 @@
           <t>8:20-9:50</t>
         </is>
       </c>
-      <c r="D19" s="96" t="inlineStr"/>
-      <c r="E19" s="60" t="inlineStr"/>
-      <c r="F19" s="60" t="inlineStr"/>
+      <c r="D19" s="99" t="inlineStr"/>
+      <c r="E19" s="63" t="inlineStr"/>
+      <c r="F19" s="63" t="inlineStr"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="30" t="n"/>
       <c r="C20" s="42" t="n"/>
-      <c r="D20" s="97" t="inlineStr"/>
-      <c r="E20" s="98" t="inlineStr"/>
-      <c r="F20" s="98" t="inlineStr"/>
+      <c r="D20" s="100" t="inlineStr"/>
+      <c r="E20" s="101" t="inlineStr"/>
+      <c r="F20" s="101" t="inlineStr"/>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="30" t="n"/>
@@ -20012,17 +20078,17 @@
           <t>10:00-11:30</t>
         </is>
       </c>
-      <c r="D21" s="99" t="inlineStr">
+      <c r="D21" s="102" t="inlineStr">
         <is>
           <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
         </is>
       </c>
-      <c r="E21" s="89" t="inlineStr">
+      <c r="E21" s="92" t="inlineStr">
         <is>
           <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
         </is>
       </c>
-      <c r="F21" s="89" t="inlineStr">
+      <c r="F21" s="92" t="inlineStr">
         <is>
           <t>Преддипломная практика (ЗАЧЕТ С ОЦЕНКОЙ)</t>
         </is>
@@ -20032,17 +20098,17 @@
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="30" t="n"/>
       <c r="C22" s="42" t="n"/>
-      <c r="D22" s="100" t="inlineStr">
+      <c r="D22" s="103" t="inlineStr">
         <is>
           <t>декан Зайцев С.А.. ауд. 505</t>
         </is>
       </c>
-      <c r="E22" s="90" t="inlineStr">
+      <c r="E22" s="93" t="inlineStr">
         <is>
           <t>ст.пр. Простомолотов А.С., ауд. 512</t>
         </is>
       </c>
-      <c r="F22" s="90" t="inlineStr">
+      <c r="F22" s="93" t="inlineStr">
         <is>
           <t>зав.каф. Сурина Е.Е., ауд. 520</t>
         </is>
@@ -20056,17 +20122,17 @@
           <t>11:40-13:10</t>
         </is>
       </c>
-      <c r="D23" s="99" t="inlineStr"/>
-      <c r="E23" s="91" t="inlineStr"/>
+      <c r="D23" s="102" t="inlineStr"/>
+      <c r="E23" s="94" t="inlineStr"/>
       <c r="F23" s="49" t="inlineStr"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="30" t="n"/>
       <c r="C24" s="42" t="n"/>
-      <c r="D24" s="100" t="inlineStr"/>
-      <c r="E24" s="90" t="inlineStr"/>
-      <c r="F24" s="90" t="inlineStr"/>
+      <c r="D24" s="103" t="inlineStr"/>
+      <c r="E24" s="93" t="inlineStr"/>
+      <c r="F24" s="93" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="30" t="n"/>
@@ -20076,17 +20142,17 @@
           <t>13:45-15:15</t>
         </is>
       </c>
-      <c r="D25" s="101" t="inlineStr"/>
-      <c r="E25" s="91" t="inlineStr"/>
-      <c r="F25" s="91" t="inlineStr"/>
+      <c r="D25" s="104" t="inlineStr"/>
+      <c r="E25" s="94" t="inlineStr"/>
+      <c r="F25" s="94" t="inlineStr"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="30" t="n"/>
       <c r="B26" s="30" t="n"/>
       <c r="C26" s="42" t="n"/>
-      <c r="D26" s="100" t="inlineStr"/>
-      <c r="E26" s="90" t="inlineStr"/>
-      <c r="F26" s="90" t="inlineStr"/>
+      <c r="D26" s="103" t="inlineStr"/>
+      <c r="E26" s="93" t="inlineStr"/>
+      <c r="F26" s="93" t="inlineStr"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="30" t="n"/>
@@ -20096,17 +20162,17 @@
           <t>15:25-16:55</t>
         </is>
       </c>
-      <c r="D27" s="101" t="inlineStr"/>
-      <c r="E27" s="91" t="inlineStr"/>
-      <c r="F27" s="91" t="inlineStr"/>
+      <c r="D27" s="104" t="inlineStr"/>
+      <c r="E27" s="94" t="inlineStr"/>
+      <c r="F27" s="94" t="inlineStr"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="30" t="n"/>
       <c r="C28" s="42" t="n"/>
-      <c r="D28" s="100" t="inlineStr"/>
-      <c r="E28" s="90" t="inlineStr"/>
-      <c r="F28" s="90" t="inlineStr"/>
+      <c r="D28" s="103" t="inlineStr"/>
+      <c r="E28" s="93" t="inlineStr"/>
+      <c r="F28" s="93" t="inlineStr"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="30" t="n"/>
@@ -20116,17 +20182,17 @@
           <t>17:05-18:35</t>
         </is>
       </c>
-      <c r="D29" s="101" t="inlineStr"/>
-      <c r="E29" s="57" t="inlineStr"/>
-      <c r="F29" s="57" t="inlineStr"/>
+      <c r="D29" s="104" t="inlineStr"/>
+      <c r="E29" s="60" t="inlineStr"/>
+      <c r="F29" s="60" t="inlineStr"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="18" t="n"/>
       <c r="B30" s="18" t="n"/>
       <c r="C30" s="18" t="n"/>
-      <c r="D30" s="102" t="inlineStr"/>
-      <c r="E30" s="93" t="inlineStr"/>
-      <c r="F30" s="93" t="inlineStr"/>
+      <c r="D30" s="105" t="inlineStr"/>
+      <c r="E30" s="96" t="inlineStr"/>
+      <c r="F30" s="96" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="17">
